--- a/data/hotels_by_city/Denver/Denver_shard_152.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_152.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d10632801-Reviews-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Hotel-Indigo-Denver-Downtown.h15913939.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1508 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r596413737-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>10632801</t>
+  </si>
+  <si>
+    <t>596413737</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel with good location</t>
+  </si>
+  <si>
+    <t>Spent three nights here and liked the location which is less than 5 minute walk to Union Station and short walking distance to Larimer Square and the 16th Street Mall.  My only complaint was having to wait to get my room beyond the check in time and the fact that there are no glasses in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Spent three nights here and liked the location which is less than 5 minute walk to Union Station and short walking distance to Larimer Square and the 16th Street Mall.  My only complaint was having to wait to get my room beyond the check in time and the fact that there are no glasses in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r595980189-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>595980189</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Spire members favorite hotel in the entire system.</t>
+  </si>
+  <si>
+    <t>I am a spire elite member and the indigo in downtown Denver is the finest hotel in the entireIHG group that I’ve experienced the staff here makes you feel terrific from the time you walk in the door.  Leo, Ashley and Candace not only are welcoming they are sharp and handle as big a crowd as any hotel I’ve ever seen of patiently and with a lot of class. I would recommend this hotel to anybody in the business world who has to work a lot, accomplished a lot, and do it in a comfortable unique wonderful setting with world-class service. Stay here and don’t stay anywhere else when you come to Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I am a spire elite member and the indigo in downtown Denver is the finest hotel in the entireIHG group that I’ve experienced the staff here makes you feel terrific from the time you walk in the door.  Leo, Ashley and Candace not only are welcoming they are sharp and handle as big a crowd as any hotel I’ve ever seen of patiently and with a lot of class. I would recommend this hotel to anybody in the business world who has to work a lot, accomplished a lot, and do it in a comfortable unique wonderful setting with world-class service. Stay here and don’t stay anywhere else when you come to Denver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r593524009-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>593524009</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Great Location, poor service</t>
+  </si>
+  <si>
+    <t>The location of this hotel can’t be beat. Walking distance to a large Whole Foods, CVS and the Union Train Station in Downtown Denver. Cons:-hotel is new, but dusty. Not cared for well.- No safe in the room-Turndown service = making the bed and taking out trash in the trash can. Any other trash on the floor, shampoos and towels were not picked up or replenished. - forgot my iPhone charger and called hotel. Said they would check and call me back in 15 minutes. It’s been 3 days-restaurant - Hearth and Dram is understaffed and always empty. Tried to go down for a cocktail and they told us they were closed. 30 minutes earlier than they told us at breakfast in the morningPros:-free coffee in lobby-dog friendly-great location-friendly receptionistsMoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>The location of this hotel can’t be beat. Walking distance to a large Whole Foods, CVS and the Union Train Station in Downtown Denver. Cons:-hotel is new, but dusty. Not cared for well.- No safe in the room-Turndown service = making the bed and taking out trash in the trash can. Any other trash on the floor, shampoos and towels were not picked up or replenished. - forgot my iPhone charger and called hotel. Said they would check and call me back in 15 minutes. It’s been 3 days-restaurant - Hearth and Dram is understaffed and always empty. Tried to go down for a cocktail and they told us they were closed. 30 minutes earlier than they told us at breakfast in the morningPros:-free coffee in lobby-dog friendly-great location-friendly receptionistsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r590440268-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>590440268</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern, friendly and super convenient! </t>
+  </si>
+  <si>
+    <t>Hotel Indigo on Downtown Denver is a favorite of my husband and I! Very clean  and very modern hotel, quick and friendly arrival process, (Ashely was great!). Very easy access from union station, and few grocery stores close by make this a great location! We will be back! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Hotel Indigo on Downtown Denver is a favorite of my husband and I! Very clean  and very modern hotel, quick and friendly arrival process, (Ashely was great!). Very easy access from union station, and few grocery stores close by make this a great location! We will be back! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r590358590-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>590358590</t>
+  </si>
+  <si>
+    <t>Truly happy staying with Hotel Indigo Denver</t>
+  </si>
+  <si>
+    <t>We planned a 2 night trip to Denver and were comparing hotels Downtown which was our choice for location. From the moment we arrived at Hotel Indigo I knew we chose the perfect place to stay. The hotel is friendly (very welcoming staff and we loved the beautiful dog who greeted us immediately) mixed with a trendy, fresh and minimalist décor. We requested a room away from the elevator and were very pleased at how quiet our room was despite all of the construction going on around the hotel. We were out of the hotel the majority of our stay (really only came back to sleep) so I cant comment on room service or other amenities but there is no question this is my go to hotel when I return to Denver. We walked all around Downtown and we loved the very short and easy walk to Union Station as they had some of our top restaurant choices. We stopped at the onsite restaurant, Hearth and Dram, for a late lunch our first day and weren't thrilled with our food but the wine was awesome. Service was average so we opted not to go back for breakfast the next day. This was not a big deal to us so I don't really view that as a reflection of our experience. Definitely choose Hotel Indigo for your next Denver visit!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We planned a 2 night trip to Denver and were comparing hotels Downtown which was our choice for location. From the moment we arrived at Hotel Indigo I knew we chose the perfect place to stay. The hotel is friendly (very welcoming staff and we loved the beautiful dog who greeted us immediately) mixed with a trendy, fresh and minimalist décor. We requested a room away from the elevator and were very pleased at how quiet our room was despite all of the construction going on around the hotel. We were out of the hotel the majority of our stay (really only came back to sleep) so I cant comment on room service or other amenities but there is no question this is my go to hotel when I return to Denver. We walked all around Downtown and we loved the very short and easy walk to Union Station as they had some of our top restaurant choices. We stopped at the onsite restaurant, Hearth and Dram, for a late lunch our first day and weren't thrilled with our food but the wine was awesome. Service was average so we opted not to go back for breakfast the next day. This was not a big deal to us so I don't really view that as a reflection of our experience. Definitely choose Hotel Indigo for your next Denver visit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r590268884-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>590268884</t>
+  </si>
+  <si>
+    <t>We only stayed one night but very nice.</t>
+  </si>
+  <si>
+    <t>The restaurant was a bit pricey. We stayed here in order to catch the train to the airport for an early flight out. Wow, it was just a stones throw from there so it worked out very well for us. The room was clean, the shower was huge and very clean overall. Highly recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>The restaurant was a bit pricey. We stayed here in order to catch the train to the airport for an early flight out. Wow, it was just a stones throw from there so it worked out very well for us. The room was clean, the shower was huge and very clean overall. Highly recommendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r586157260-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586157260</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Hotel location was great..walking distance from many spots—Union Station, Denver Art Museum, Whole Foods...Mini refrigerators in room.. big plus. Heath &amp; Dram great restaurant on site. Valets were extremely helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2018</t>
+  </si>
+  <si>
+    <t>Hotel location was great..walking distance from many spots—Union Station, Denver Art Museum, Whole Foods...Mini refrigerators in room.. big plus. Heath &amp; Dram great restaurant on site. Valets were extremely helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r586146392-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586146392</t>
+  </si>
+  <si>
+    <t>Fabulous hotel, Fabulous staff, Fabulous location</t>
+  </si>
+  <si>
+    <t>Trendy, beautifully decorated and exceptional customer service are all found at this fantastic gem of a hotel.  Rooms are spacious, beds are comfortable and the fitness center had equipment to keep up my workout.  The hotel is within walking distance of countless restaurants, shops, and Union Station.  Did I mention that Whole Foods is just across the street?  This place doesn't disappoint.MoreShow less</t>
+  </si>
+  <si>
+    <t>Trendy, beautifully decorated and exceptional customer service are all found at this fantastic gem of a hotel.  Rooms are spacious, beds are comfortable and the fitness center had equipment to keep up my workout.  The hotel is within walking distance of countless restaurants, shops, and Union Station.  Did I mention that Whole Foods is just across the street?  This place doesn't disappoint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r581806134-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581806134</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Remarkable quaint hotel</t>
+  </si>
+  <si>
+    <t>I was not expecting much from the looks of the outside of the building.  Entrance was a little confusing.  Once in the door everything was top class.  Lobby area warm and inviting and everyone was friendly.  It was nice to see the General Manager out talking to guests.  My room was modern, clean with plenty of space, large TVs and great views of city.  The hotel is in easy walking distance to almost every venue downtown.  Make sure you visit the restaurant off the lobby.  Hearth and Dram, good food and great service.  the reuben was tasty and Chase was top notch.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2018</t>
+  </si>
+  <si>
+    <t>I was not expecting much from the looks of the outside of the building.  Entrance was a little confusing.  Once in the door everything was top class.  Lobby area warm and inviting and everyone was friendly.  It was nice to see the General Manager out talking to guests.  My room was modern, clean with plenty of space, large TVs and great views of city.  The hotel is in easy walking distance to almost every venue downtown.  Make sure you visit the restaurant off the lobby.  Hearth and Dram, good food and great service.  the reuben was tasty and Chase was top notch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r575539423-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575539423</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Well located &amp; comfortable!</t>
+  </si>
+  <si>
+    <t>Hotel Indigo is within walking distance from the Union.  One can take the the train from &amp; to the airport for $9.00.  We had a corner room with large windows.   The room is modern in design with comfortable beds.  The bathroom is a good size with Aveda toiletries.   Whole Foods Market &amp; many good restaurants are near the hotel.   The free bus to 16th Street Mall is a ten minute walk away.   This is a good hotel &amp; I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Hotel Indigo is within walking distance from the Union.  One can take the the train from &amp; to the airport for $9.00.  We had a corner room with large windows.   The room is modern in design with comfortable beds.  The bathroom is a good size with Aveda toiletries.   Whole Foods Market &amp; many good restaurants are near the hotel.   The free bus to 16th Street Mall is a ten minute walk away.   This is a good hotel &amp; I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r571988957-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>571988957</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Couldn't ask for a better location</t>
+  </si>
+  <si>
+    <t>Across the street from union station and two doors down from the newly opened Whole Foods, this was a wonderful place to stay.  Check in was a breeze - thanks, Leonardo - and we were given some good recommendations for dinner.  The room was clean and ultra quiet - surprising considering all the construction happening. An easy walk to all things local including the free bus along 16th street.Just a few cons: poor lighting in the bathroom around the vanity and the bathroom door is like a sliding barn door, which offers minimal privacy.  The lobby coffee was taken away at odd times in the morning (not consistent from day to day), so we lost out there.  Finally, the large entryway is a vast space with next to no furniture.  It would be nice to have it furnished so as to utilize the area while waiting for companions or drinking that coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Across the street from union station and two doors down from the newly opened Whole Foods, this was a wonderful place to stay.  Check in was a breeze - thanks, Leonardo - and we were given some good recommendations for dinner.  The room was clean and ultra quiet - surprising considering all the construction happening. An easy walk to all things local including the free bus along 16th street.Just a few cons: poor lighting in the bathroom around the vanity and the bathroom door is like a sliding barn door, which offers minimal privacy.  The lobby coffee was taken away at odd times in the morning (not consistent from day to day), so we lost out there.  Finally, the large entryway is a vast space with next to no furniture.  It would be nice to have it furnished so as to utilize the area while waiting for companions or drinking that coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r570614184-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>570614184</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Brand new, great room, good service</t>
+  </si>
+  <si>
+    <t>We held a business conference here and put up about 25 people for two nights, with good reactions from everyone. The location is not far from Lo Do, nearly adjacent to Union Station, close to the baseball stadium though therefore somewhat distant from the commercial center or state capital building. Building is brand new and feels Scandinavian. The restaurant serves a good breakfast and other meals.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>We held a business conference here and put up about 25 people for two nights, with good reactions from everyone. The location is not far from Lo Do, nearly adjacent to Union Station, close to the baseball stadium though therefore somewhat distant from the commercial center or state capital building. Building is brand new and feels Scandinavian. The restaurant serves a good breakfast and other meals.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r564317052-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>564317052</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Quietest hotel room I have ever stayed in</t>
+  </si>
+  <si>
+    <t>My husband and I spent the night at the Hotel Indigo last night and we will definitely return. It is conveniently located by Union Station and offers valet parking that is actually cheaper than self-parking. The desk clerk who checked us in was friendly, attentive and thorough. I loved that he explained how the energy efficient lighting works in the rooms before we went upstairs. The room itself was small and simply decorated - it is a little disconcerting that there are sections of wall and the entire ceiling is bare cement, but it did not matter because it was the quietest room I have ever had. Our room was right by the elevators, so I was concerned about noise. We never heard anyone getting on or off the elevator. We never heard other guests' doors slamming. It was amazing. The bed was comfortable, there was plenty of hot water, and there was a Keurig coffee maker right in the room so we actually had a decent cup of coffee first thing in the morning. I highly recommend this hotel if you are visiting Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I spent the night at the Hotel Indigo last night and we will definitely return. It is conveniently located by Union Station and offers valet parking that is actually cheaper than self-parking. The desk clerk who checked us in was friendly, attentive and thorough. I loved that he explained how the energy efficient lighting works in the rooms before we went upstairs. The room itself was small and simply decorated - it is a little disconcerting that there are sections of wall and the entire ceiling is bare cement, but it did not matter because it was the quietest room I have ever had. Our room was right by the elevators, so I was concerned about noise. We never heard anyone getting on or off the elevator. We never heard other guests' doors slamming. It was amazing. The bed was comfortable, there was plenty of hot water, and there was a Keurig coffee maker right in the room so we actually had a decent cup of coffee first thing in the morning. I highly recommend this hotel if you are visiting Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r563978539-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>563978539</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Greeting by the most beautiful "house dog"</t>
+  </si>
+  <si>
+    <t>Location, location, location.....convenient to most areas of downtown and if you fly in, you can now take the train to Union Station and walk one block to your hotel.  In fact, from now on we will either take the train and pick up our car downtown (without the huge airport fees) or use one of the car services for remote travel (Uber or Lyft.)We also noticed that there is a sister hotel to the Indigo in Union Station that is branded Kimpton but beware that there are many homeless folks utilizing the water and services inside Union Station.  There is a police presence there but if having street people around at all times is a problem for you, this would not be the place - stick with the Indigo.  Safe Travels!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Location, location, location.....convenient to most areas of downtown and if you fly in, you can now take the train to Union Station and walk one block to your hotel.  In fact, from now on we will either take the train and pick up our car downtown (without the huge airport fees) or use one of the car services for remote travel (Uber or Lyft.)We also noticed that there is a sister hotel to the Indigo in Union Station that is branded Kimpton but beware that there are many homeless folks utilizing the water and services inside Union Station.  There is a police presence there but if having street people around at all times is a problem for you, this would not be the place - stick with the Indigo.  Safe Travels!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r560522955-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>560522955</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>Excellent customer service!!!</t>
+  </si>
+  <si>
+    <t>Thank you to the very kind valet attendant Kevin Genter! I had a very important meeting downtown and was extremely stressed and nervous about it... Kevin was kind and professional and helped me a great deal! Thanks Kevin! MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Thank you to the very kind valet attendant Kevin Genter! I had a very important meeting downtown and was extremely stressed and nervous about it... Kevin was kind and professional and helped me a great deal! Thanks Kevin! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r555803583-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>555803583</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Clean and contemporary</t>
+  </si>
+  <si>
+    <t>Friendly check in at about noon into an acessible bedroom with a good bathroom.  Sadly the wash sink was not accessible for a wheelchair user.  Also the wardrobe could not be used by a person in a wheelchair.The room was allowed for turning in a wheelchair and was comfortable.  Location by the train station was perfect with restaurants and supermarkets close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Friendly check in at about noon into an acessible bedroom with a good bathroom.  Sadly the wash sink was not accessible for a wheelchair user.  Also the wardrobe could not be used by a person in a wheelchair.The room was allowed for turning in a wheelchair and was comfortable.  Location by the train station was perfect with restaurants and supermarkets close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r553665210-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>553665210</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Any negative review are stupid. We flew from California to Denver. Hopped the train to Union Station...impossible to miss stop as it’s the end of the line. You get off to a beautiful area of restaurants, stores, and just bright happy atmosphere. Literally maybe 2 blocks away is the hotel. Beautiful walk you would want to do anyways. Easy check in. Hotel felt empty. Asked for an upgrade. Got this amazing room that has a view of mile high stadium for under $150. I mean come on!!! Whisky restaurant was great. Drinks on point and not to pricey and food bomb. Easy walk to anywhere. Love this hotel. These construction and noise reviews are not at all our experience. We felt like the Kardashians.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Any negative review are stupid. We flew from California to Denver. Hopped the train to Union Station...impossible to miss stop as it’s the end of the line. You get off to a beautiful area of restaurants, stores, and just bright happy atmosphere. Literally maybe 2 blocks away is the hotel. Beautiful walk you would want to do anyways. Easy check in. Hotel felt empty. Asked for an upgrade. Got this amazing room that has a view of mile high stadium for under $150. I mean come on!!! Whisky restaurant was great. Drinks on point and not to pricey and food bomb. Easy walk to anywhere. Love this hotel. These construction and noise reviews are not at all our experience. We felt like the Kardashians.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r551491001-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>551491001</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel</t>
+  </si>
+  <si>
+    <t>I loved staying at this hotel. Rooms were large and there is convenient valet parking. Elevator is very fast moving. Restaurant was okay. I didn't go to the bar. Staff was friendly, and housekeepers were on time with our requests. Located right across from Union Station, shopping, restaurants, and grocery store. I thoroughly enjoyed my stay here, as it was my first time visiting CO.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>I loved staying at this hotel. Rooms were large and there is convenient valet parking. Elevator is very fast moving. Restaurant was okay. I didn't go to the bar. Staff was friendly, and housekeepers were on time with our requests. Located right across from Union Station, shopping, restaurants, and grocery store. I thoroughly enjoyed my stay here, as it was my first time visiting CO.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r547875106-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>547875106</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Modern but Not Entirely Polished</t>
+  </si>
+  <si>
+    <t>PROS: Modern (though Ikea-ish) feel. Convenient attached, decent restaurant. Great location. Partial mountain/city views from top floor. Toilet and sink basin clean. Staff are very friendly. I think part of their staff may include a beautiful white fluffy dog. CONS: Floral coffee (SF coffee lovers will likely enjoy). First night stayed here the duvet had red stains on the corner (I'm a healthcare provider and it looked like dried blood). I was only here one night that week so I just put a note for house cleaning to change it. Hope they did :( . The sink drain and edges around the shower basin in the room I have this week need some attention - pink grime. Not the worst because honestly - for how picky I am with things being clean - everything else was very clean. Would have preferred rooms without the down feathers. Kinda allergy provoking. Bed too soft for my liking.Summary: Modern but lacking in some of the polished things I'd expect for the price. I feel like the staff would easily remedy most of my concerns if I brought them up - So don't let my experience keep you from booking if you can get a good deal on the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2017</t>
+  </si>
+  <si>
+    <t>PROS: Modern (though Ikea-ish) feel. Convenient attached, decent restaurant. Great location. Partial mountain/city views from top floor. Toilet and sink basin clean. Staff are very friendly. I think part of their staff may include a beautiful white fluffy dog. CONS: Floral coffee (SF coffee lovers will likely enjoy). First night stayed here the duvet had red stains on the corner (I'm a healthcare provider and it looked like dried blood). I was only here one night that week so I just put a note for house cleaning to change it. Hope they did :( . The sink drain and edges around the shower basin in the room I have this week need some attention - pink grime. Not the worst because honestly - for how picky I am with things being clean - everything else was very clean. Would have preferred rooms without the down feathers. Kinda allergy provoking. Bed too soft for my liking.Summary: Modern but lacking in some of the polished things I'd expect for the price. I feel like the staff would easily remedy most of my concerns if I brought them up - So don't let my experience keep you from booking if you can get a good deal on the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r547276987-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>547276987</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Convenient </t>
+  </si>
+  <si>
+    <t>I am not sure how to rate this hotel.  The positives very convenient to the bus and train depot about a five minute walk. It felt safe walking at midnight.Very clean, new and modern. The room was a good size. The staff was very friendly and inviting. Each room has a fridge. Walking distance to a Whole Foods. Easy access to the free mall bus ride and bike rentals.The not so positives, I wouldn't call them,negatives. We had one firm bed and one soft bed, not sure what that was about but it worked for us. Besides the restaurant downstairs, there is no cafe, they do have some snack and toiletries for purchase but I need coffee in the a.m.  They do have a Keurig in the room, so you can bring your personal pods.I just felt like it was missing something, I would not discourage from trying it out.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am not sure how to rate this hotel.  The positives very convenient to the bus and train depot about a five minute walk. It felt safe walking at midnight.Very clean, new and modern. The room was a good size. The staff was very friendly and inviting. Each room has a fridge. Walking distance to a Whole Foods. Easy access to the free mall bus ride and bike rentals.The not so positives, I wouldn't call them,negatives. We had one firm bed and one soft bed, not sure what that was about but it worked for us. Besides the restaurant downstairs, there is no cafe, they do have some snack and toiletries for purchase but I need coffee in the a.m.  They do have a Keurig in the room, so you can bring your personal pods.I just felt like it was missing something, I would not discourage from trying it out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r545559006-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>545559006</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Great location. Modern Feel.</t>
+  </si>
+  <si>
+    <t>My family used one of our free IHG nights to stay here during a summer vacation and we loved the modern feel and the views of the city we had. We were in a corner room and we had a great view of Coors Field - one of our destinations. We walked everywhere we went downtown - including the baseball stadium - because the hotel is so conveniently located. Since it's so new, everything was fresh and the place looked immaculate. I'd love to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>My family used one of our free IHG nights to stay here during a summer vacation and we loved the modern feel and the views of the city we had. We were in a corner room and we had a great view of Coors Field - one of our destinations. We walked everywhere we went downtown - including the baseball stadium - because the hotel is so conveniently located. Since it's so new, everything was fresh and the place looked immaculate. I'd love to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r541034147-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>541034147</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay here.  Great location.  We drove but other family flew in and took the train from the airport to Union Station.  It's only about a block from Union Station and a short walk to 16th Street Mall and Larimer Square. We even walked to the Capitol but there are free buses that run back and forth for those not that ambitious.   Bed was very comfortable (one of the best beds I have slept in in a hotel).  I spent a couple hours in the fitness center and was very satisfied with it (it's surprisingly hard to find fitness centers up to my standards in hotels).  I also liked the rustic/industrial decor.  Clean.  Would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2017</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay here.  Great location.  We drove but other family flew in and took the train from the airport to Union Station.  It's only about a block from Union Station and a short walk to 16th Street Mall and Larimer Square. We even walked to the Capitol but there are free buses that run back and forth for those not that ambitious.   Bed was very comfortable (one of the best beds I have slept in in a hotel).  I spent a couple hours in the fitness center and was very satisfied with it (it's surprisingly hard to find fitness centers up to my standards in hotels).  I also liked the rustic/industrial decor.  Clean.  Would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r540745380-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>540745380</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Perfect location!</t>
+  </si>
+  <si>
+    <t>Nice hotel in a great location. Perfect place to stay when traveling. Close to activities (ballpark) and food and beer which made our stay very walkable. Staff was very helpful and gave great suggestions and held our bags for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel in a great location. Perfect place to stay when traveling. Close to activities (ballpark) and food and beer which made our stay very walkable. Staff was very helpful and gave great suggestions and held our bags for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r539834550-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>539834550</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>So so - restaurant needs help</t>
+  </si>
+  <si>
+    <t>New hotel and very close to the railway station which is convenient to the airport. Was OK. They must not be short of water because I had to run it for ever to get hot water. Exercise room had some treadmills, ellipticals and free weights etc., so pretty standard.  Could use a couple more mats. The breakfast 'omelette' tasted like it was not real eggs- insipid was my description.  I had oatmeal the other days, which was 'OK'.  The service at breakfast was very slow (not enough staff?), so leave plenty of time. The restaurant dinner menu was a bit 'precious' - overcomplicated with weird combinations- fortunately they had  hanger steak which was very good.  Wine selection was small and not very interesting. On the other hand the beer and whiskey selection was excellent and the bar sandwich menu had an excellent steak sandwich.  Apparently the burger at the bar is also good.  Maybe the message is stay with the bar menu!MoreShow less</t>
+  </si>
+  <si>
+    <t>New hotel and very close to the railway station which is convenient to the airport. Was OK. They must not be short of water because I had to run it for ever to get hot water. Exercise room had some treadmills, ellipticals and free weights etc., so pretty standard.  Could use a couple more mats. The breakfast 'omelette' tasted like it was not real eggs- insipid was my description.  I had oatmeal the other days, which was 'OK'.  The service at breakfast was very slow (not enough staff?), so leave plenty of time. The restaurant dinner menu was a bit 'precious' - overcomplicated with weird combinations- fortunately they had  hanger steak which was very good.  Wine selection was small and not very interesting. On the other hand the beer and whiskey selection was excellent and the bar sandwich menu had an excellent steak sandwich.  Apparently the burger at the bar is also good.  Maybe the message is stay with the bar menu!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r533838310-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>533838310</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Very convenient</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel for a few days while in Denver. The biggest thing it has going for it is location.  A three minute walk to Union Station means that you can center your trip around public transportation.  The RTD train to/from the airport is $9/way and is extremely convenient (and yes, they do check for tickets by walking up and down the aisles on the train!). You can also walk to 16th street and catch the free shuttle that runs up and down it. There are loads of restaurants in the area (dinner at the Wynkoop Brewing Company was good), and being able to walk 5 min to the King Soopers grocery store allowed us to stock up on bottled water instead of succumbing to the $4 bottles provided in the rooms. A new Whole Foods and CVS will open in a few weeks just steps away, which is a bonus. Overall a good stay. The only downside was that even when followed-up on and requested, the room was never serviced/cleaned. MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel for a few days while in Denver. The biggest thing it has going for it is location.  A three minute walk to Union Station means that you can center your trip around public transportation.  The RTD train to/from the airport is $9/way and is extremely convenient (and yes, they do check for tickets by walking up and down the aisles on the train!). You can also walk to 16th street and catch the free shuttle that runs up and down it. There are loads of restaurants in the area (dinner at the Wynkoop Brewing Company was good), and being able to walk 5 min to the King Soopers grocery store allowed us to stock up on bottled water instead of succumbing to the $4 bottles provided in the rooms. A new Whole Foods and CVS will open in a few weeks just steps away, which is a bonus. Overall a good stay. The only downside was that even when followed-up on and requested, the room was never serviced/cleaned. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r524449231-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>524449231</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Excellent location. Brand new hotel/rooms</t>
+  </si>
+  <si>
+    <t>I love the IHG Indigo brand, and this will be a good hotel. I didn't give 5 stars because they mishandled a package, and I think it might be worth waiting 6-12 months for the area construction mess to clear, but this will be a great hotel.Phenomenal location.Would return.MoreShow less</t>
+  </si>
+  <si>
+    <t>I love the IHG Indigo brand, and this will be a good hotel. I didn't give 5 stars because they mishandled a package, and I think it might be worth waiting 6-12 months for the area construction mess to clear, but this will be a great hotel.Phenomenal location.Would return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r524097533-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>524097533</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Failed to contact me to advise of overbooking</t>
+  </si>
+  <si>
+    <t>Booked the hotel with 3 months notice however arrived at the hotel to be told I couldn't check in as they were overbooked. Whilst I was waiting for a manager to come and offer an explanation, further guests were arriving and checking in. It therefore obviously wasn't based on a first come first served basis; I am interested to know why it was me who got bumped, rather than someone else. No manager prepared to speak to me either in person, nor on the phone. Unacceptable. They had not contacted me, nor considered what I was going to do for the night, basically they were prepared to leave me to sort it out myself, with no accommodation.Hotel Indigo you have lost a customer, I will never book with you again and encourage others to take note of this review.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Booked the hotel with 3 months notice however arrived at the hotel to be told I couldn't check in as they were overbooked. Whilst I was waiting for a manager to come and offer an explanation, further guests were arriving and checking in. It therefore obviously wasn't based on a first come first served basis; I am interested to know why it was me who got bumped, rather than someone else. No manager prepared to speak to me either in person, nor on the phone. Unacceptable. They had not contacted me, nor considered what I was going to do for the night, basically they were prepared to leave me to sort it out myself, with no accommodation.Hotel Indigo you have lost a customer, I will never book with you again and encourage others to take note of this review.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r522065180-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>522065180</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>So easy from the airport and Union Station</t>
+  </si>
+  <si>
+    <t>Great very new hotel, thats a stones throw from Union Station. Very easy to arrive from the airport by train and walk a short distance to the Hotel. The Hotel is nicely designed with a modern aesthetic and super close to most everything. There is a lot of construction around on adjacent blocks, but still the perfect launch point.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great very new hotel, thats a stones throw from Union Station. Very easy to arrive from the airport by train and walk a short distance to the Hotel. The Hotel is nicely designed with a modern aesthetic and super close to most everything. There is a lot of construction around on adjacent blocks, but still the perfect launch point.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r520211278-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>520211278</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Trendy Refurbished Hotel</t>
+  </si>
+  <si>
+    <t>Love this place.  My girlfriends and I came up to go to the Chef and Brew Fest at the Exdo Events Center, and one of them got us hotel rooms here.  Traffic is challenging in the area, but it was totally worth it.  Amtrak and Union Station is right across the street, and so many things are within walking distance.  The hotel itself has been newly remodeled and is pretty cool.  I walked into the room and was taken away.  It's like a blend of chic and Rocky Mountain rural.  Will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Love this place.  My girlfriends and I came up to go to the Chef and Brew Fest at the Exdo Events Center, and one of them got us hotel rooms here.  Traffic is challenging in the area, but it was totally worth it.  Amtrak and Union Station is right across the street, and so many things are within walking distance.  The hotel itself has been newly remodeled and is pretty cool.  I walked into the room and was taken away.  It's like a blend of chic and Rocky Mountain rural.  Will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r518456269-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>518456269</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Rocky Mountain Getaway - Amtrak and Indigo!</t>
+  </si>
+  <si>
+    <t>A leisurely train ride through the Rocky Mountains had been a dream of mine for years and I never had the time or the opportunity until May 2017. Arriving in Denver airport I connected with my old college buddy for a jam-packed, fun-filled, 3 night adventure centered on a round trip excursion to Glenwood Springs, but the Hotel Indigo, 1801 Wewatta St, was our starting point. From the airport, we hopped the new electric train connection to Denver's downtown Union station, a modest $9 each and strolled about a block to our first night hotel stay at the Hotel Indigo. The staff was ready with our room, they were pleasant and cheerful. The room was excellent and nicely quiet for a large, urban, city center. The art in the lobby is modern and the Hearth &amp; Dram is an excellent respite for good food and drink. 
+After check-in, our first afternoon in Denver involved site seeing along the mile long MALLRIDE which is a FREE shuttle bus making a loop from Union Station to the State Capital building grounds and back again with only 5 minute wait times at any corner along the route. There is every kind of food and shopping up and down the mall. The steps at the Capital building allow a photo op on 1 specific, and well marked, step which places you at exactly 1 Mile High Above Sea Level! There's the US Mint and...A leisurely train ride through the Rocky Mountains had been a dream of mine for years and I never had the time or the opportunity until May 2017. Arriving in Denver airport I connected with my old college buddy for a jam-packed, fun-filled, 3 night adventure centered on a round trip excursion to Glenwood Springs, but the Hotel Indigo, 1801 Wewatta St, was our starting point. From the airport, we hopped the new electric train connection to Denver's downtown Union station, a modest $9 each and strolled about a block to our first night hotel stay at the Hotel Indigo. The staff was ready with our room, they were pleasant and cheerful. The room was excellent and nicely quiet for a large, urban, city center. The art in the lobby is modern and the Hearth &amp; Dram is an excellent respite for good food and drink. After check-in, our first afternoon in Denver involved site seeing along the mile long MALLRIDE which is a FREE shuttle bus making a loop from Union Station to the State Capital building grounds and back again with only 5 minute wait times at any corner along the route. There is every kind of food and shopping up and down the mall. The steps at the Capital building allow a photo op on 1 specific, and well marked, step which places you at exactly 1 Mile High Above Sea Level! There's the US Mint and the Denver Museum of Modern Art. On and off the MALLRIDE bus all afternoon can be huge fun and highly entertaining. An unusually late snowfall greeted us on the following morning in Denver as departed the Hotel Indigo and we boarded the California Zephyr headed West to Glenwood Springs. The train ride ascending the mountains out of Denver was an actual winter wonderland of fresh snowfall, fluffy and soft, filling the branches of fir and pine trees just a few feet from our train window. Upward we climbed with a brief stop at the Winter Park Resort in Fraser CO. Up and over the continental divide through 11 train tunnels or various lengths and between mountain walls of sheer rock face climbing out of sight we rode all the while enjoying the beauty from the observation car with fresh hot snacks and cold beverages. As we began to descend the western slope of the continental divide, now rolling along with the streams that would turn into rivers headed for the great Pacific ocean, we began to escape the snowfall that had descended upon Denver earlier that morning and when we stepped off the Zephyr in early afternoon, the sky was bright, sunny and in the 70's. Time for sunglasses as we headed to check in at Glenwood Hot Springs Lodge, 415 E 6th St. The greatest way to shake off a day of travel, even if Amtrak had done all the driving, is to relax in the 100+ degree hot spring pool and watch the stars come out in Glenwood. We ate a delicious breakfast of freshly made omelets with sides of fresh fruit and oatmeal before we set out to tackle the sights, thrills and daredevil rides at Glenwood Caverns Adventure Park,51000 Two Rivers Plaza Rd. The caverns and park are reached by boarding an aerial tram gondola that carries you to the top of the Iron Mountain which dominates the entire north side of the city of Glenwood Springs at 7,160 ft. We rode the first alpine coaster in the United States there, formally named Canyon Flyer which is a near-neck snapping, switch-back, hair-pin turn thrill ride down the side of Iron Mountain as well taking in several other great sights and adventure. Finally it was back to the Union Station depot by midday to catch the east bound California Zephyr for a leisurely ride back to Denver in time for dinner. Not only are the views from the Amtrak train spectacular, being able to drink deeply from the scenery without dodging the trucks and traffic on the interstate highway system is the sweetest joy of the journey. The cost for the Amtrak ride, round trip, for both my college buddy and me combined was actually less than a single nights stay at either of our hotels. One simply cannot beat the superb comfort, amenities, freedom of movement and incredible scenery at an amazingly affordable price on Amtrak through the Rocky Mountains. I highly recommend these hotels and this trip if you need a scenic Rocky Mountain getaway.Avoiding traffic hassles is a primary plus for the Hotel Indigo, because it is downtown within walking distance of Union Station, Amtrak, the electric train to the airport and the Free MALLRIDE bus shuttle. Why risk driving in the madness that is currently Denver’s traffic when you can vacation in luxury and ease with extensive access to all the restaurants , entertainments and high spirits available in downtown Denver by staying at the Hotel Indigo?MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2017</t>
+  </si>
+  <si>
+    <t>A leisurely train ride through the Rocky Mountains had been a dream of mine for years and I never had the time or the opportunity until May 2017. Arriving in Denver airport I connected with my old college buddy for a jam-packed, fun-filled, 3 night adventure centered on a round trip excursion to Glenwood Springs, but the Hotel Indigo, 1801 Wewatta St, was our starting point. From the airport, we hopped the new electric train connection to Denver's downtown Union station, a modest $9 each and strolled about a block to our first night hotel stay at the Hotel Indigo. The staff was ready with our room, they were pleasant and cheerful. The room was excellent and nicely quiet for a large, urban, city center. The art in the lobby is modern and the Hearth &amp; Dram is an excellent respite for good food and drink. 
+After check-in, our first afternoon in Denver involved site seeing along the mile long MALLRIDE which is a FREE shuttle bus making a loop from Union Station to the State Capital building grounds and back again with only 5 minute wait times at any corner along the route. There is every kind of food and shopping up and down the mall. The steps at the Capital building allow a photo op on 1 specific, and well marked, step which places you at exactly 1 Mile High Above Sea Level! There's the US Mint and...A leisurely train ride through the Rocky Mountains had been a dream of mine for years and I never had the time or the opportunity until May 2017. Arriving in Denver airport I connected with my old college buddy for a jam-packed, fun-filled, 3 night adventure centered on a round trip excursion to Glenwood Springs, but the Hotel Indigo, 1801 Wewatta St, was our starting point. From the airport, we hopped the new electric train connection to Denver's downtown Union station, a modest $9 each and strolled about a block to our first night hotel stay at the Hotel Indigo. The staff was ready with our room, they were pleasant and cheerful. The room was excellent and nicely quiet for a large, urban, city center. The art in the lobby is modern and the Hearth &amp; Dram is an excellent respite for good food and drink. After check-in, our first afternoon in Denver involved site seeing along the mile long MALLRIDE which is a FREE shuttle bus making a loop from Union Station to the State Capital building grounds and back again with only 5 minute wait times at any corner along the route. There is every kind of food and shopping up and down the mall. The steps at the Capital building allow a photo op on 1 specific, and well marked, step which places you at exactly 1 Mile High Above Sea Level! There's the US Mint and the Denver Museum of Modern Art. On and off the MALLRIDE bus all afternoon can be huge fun and highly entertaining. An unusually late snowfall greeted us on the following morning in Denver as departed the Hotel Indigo and we boarded the California Zephyr headed West to Glenwood Springs. The train ride ascending the mountains out of Denver was an actual winter wonderland of fresh snowfall, fluffy and soft, filling the branches of fir and pine trees just a few feet from our train window. Upward we climbed with a brief stop at the Winter Park Resort in Fraser CO. Up and over the continental divide through 11 train tunnels or various lengths and between mountain walls of sheer rock face climbing out of sight we rode all the while enjoying the beauty from the observation car with fresh hot snacks and cold beverages. As we began to descend the western slope of the continental divide, now rolling along with the streams that would turn into rivers headed for the great Pacific ocean, we began to escape the snowfall that had descended upon Denver earlier that morning and when we stepped off the Zephyr in early afternoon, the sky was bright, sunny and in the 70's. Time for sunglasses as we headed to check in at Glenwood Hot Springs Lodge, 415 E 6th St. The greatest way to shake off a day of travel, even if Amtrak had done all the driving, is to relax in the 100+ degree hot spring pool and watch the stars come out in Glenwood. We ate a delicious breakfast of freshly made omelets with sides of fresh fruit and oatmeal before we set out to tackle the sights, thrills and daredevil rides at Glenwood Caverns Adventure Park,51000 Two Rivers Plaza Rd. The caverns and park are reached by boarding an aerial tram gondola that carries you to the top of the Iron Mountain which dominates the entire north side of the city of Glenwood Springs at 7,160 ft. We rode the first alpine coaster in the United States there, formally named Canyon Flyer which is a near-neck snapping, switch-back, hair-pin turn thrill ride down the side of Iron Mountain as well taking in several other great sights and adventure. Finally it was back to the Union Station depot by midday to catch the east bound California Zephyr for a leisurely ride back to Denver in time for dinner. Not only are the views from the Amtrak train spectacular, being able to drink deeply from the scenery without dodging the trucks and traffic on the interstate highway system is the sweetest joy of the journey. The cost for the Amtrak ride, round trip, for both my college buddy and me combined was actually less than a single nights stay at either of our hotels. One simply cannot beat the superb comfort, amenities, freedom of movement and incredible scenery at an amazingly affordable price on Amtrak through the Rocky Mountains. I highly recommend these hotels and this trip if you need a scenic Rocky Mountain getaway.Avoiding traffic hassles is a primary plus for the Hotel Indigo, because it is downtown within walking distance of Union Station, Amtrak, the electric train to the airport and the Free MALLRIDE bus shuttle. Why risk driving in the madness that is currently Denver’s traffic when you can vacation in luxury and ease with extensive access to all the restaurants , entertainments and high spirits available in downtown Denver by staying at the Hotel Indigo?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r515367407-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>515367407</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Neat new hotel</t>
+  </si>
+  <si>
+    <t>Spent a weekend for baseball, and this cool new hotel is situated perfectly. About ten minutes is all it takes to get to Coors Field. Loved the comfortable mattresses, and pillow selection was superb. All Hotel Indigos have great showers. Hearth and Dram downstairs has an awesome whiskey selection but pricey food menu. They let us check in at 10 am, which is rare, and the entire reception team was cheerful and helpful. Would highly recommend this hotel, especially once all the local construction is doneMoreShow less</t>
+  </si>
+  <si>
+    <t>Spent a weekend for baseball, and this cool new hotel is situated perfectly. About ten minutes is all it takes to get to Coors Field. Loved the comfortable mattresses, and pillow selection was superb. All Hotel Indigos have great showers. Hearth and Dram downstairs has an awesome whiskey selection but pricey food menu. They let us check in at 10 am, which is rare, and the entire reception team was cheerful and helpful. Would highly recommend this hotel, especially once all the local construction is doneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r513467909-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>513467909</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Great Location for Rockies Game</t>
+  </si>
+  <si>
+    <t>We stayed here one night after attending a Rockies baseball game and the location is very convenient - only about 4 or 5 blocks away. It has a modern feel and roomy enough for all four of us for one night. Parking is a bit pricey ($32 per night), but this is a city so that's not a surprise.  Did see some parking a bit further away that is cheaper, but it was nice to make a call to the valet in the morning with the car ready in 5 minutes.  If you are going to a Rockies game or doing something in this area, I would recommend this hotel. Do note that if you are staying here in the middle of the week, there is quite a bit of construction in the area, so it may be noisy for the next couple of months. It's not noticeable during the weekend though.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here one night after attending a Rockies baseball game and the location is very convenient - only about 4 or 5 blocks away. It has a modern feel and roomy enough for all four of us for one night. Parking is a bit pricey ($32 per night), but this is a city so that's not a surprise.  Did see some parking a bit further away that is cheaper, but it was nice to make a call to the valet in the morning with the car ready in 5 minutes.  If you are going to a Rockies game or doing something in this area, I would recommend this hotel. Do note that if you are staying here in the middle of the week, there is quite a bit of construction in the area, so it may be noisy for the next couple of months. It's not noticeable during the weekend though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r511860280-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>511860280</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>New and well located</t>
+  </si>
+  <si>
+    <t>Off the plane and into the train. Off the train, across the platform, cross the street and into the hotel. Great hotel too. Cool design. Excellent welcome and service. Wi-Fi like it should be. Close to rail, bus shuttles for downtown, restaurants etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>Off the plane and into the train. Off the train, across the platform, cross the street and into the hotel. Great hotel too. Cool design. Excellent welcome and service. Wi-Fi like it should be. Close to rail, bus shuttles for downtown, restaurants etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r506529475-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>506529475</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>This is a nice new hotel...</t>
+  </si>
+  <si>
+    <t>This is a nice new hotel with a great restaurant and bar inside.  Starbucks just down the street and other great food venues nearby.  My room AC stopped working on the 2nd night, and no discount was given. Other than that, I recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>This is a nice new hotel with a great restaurant and bar inside.  Starbucks just down the street and other great food venues nearby.  My room AC stopped working on the 2nd night, and no discount was given. Other than that, I recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r505563944-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>505563944</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>In the middle of major construction/development area</t>
+  </si>
+  <si>
+    <t>I stayed here for work recently and while the hotel itself is clean, new, and modern, it's in the middle of major construction. This took me by complete surprise when I arrived there, especially given the price. They should really think about offering some perks given this. The snacks in the room are just not enough. I did dine in their restaurant and the meal was great, but I only dined there because I didn't want to venture out and have to cross the construction paths to get to Union Station area. You have to cross above the train tracks on an elevated platform to get across to Union Station.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for work recently and while the hotel itself is clean, new, and modern, it's in the middle of major construction. This took me by complete surprise when I arrived there, especially given the price. They should really think about offering some perks given this. The snacks in the room are just not enough. I did dine in their restaurant and the meal was great, but I only dined there because I didn't want to venture out and have to cross the construction paths to get to Union Station area. You have to cross above the train tracks on an elevated platform to get across to Union Station.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r504462550-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>504462550</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Indigo Denver - A work in progress</t>
+  </si>
+  <si>
+    <t>I am a fan of Indigo brand as they are normally modern, sometimes a bit quirky and in my experience the service is generally very good.
+The Indigo in Denver is new, in fact I think is not yet completed. It is surrounded by major construction activity which didn't disturb from a noise point of view but you are very aware of it if you go in any direction around the town.The style for me didn't work, I was nota  fan of the bare concrete ceiling and pillars in the room, it looks and feels industrial. The aircon was fierce and noisy. 
+No breakfast buffet it is all cooked to order and is a fairly limited menu. That said it tasted good and prices were reasonable.
+There is restaurant on site which is also a fairly lively bar. Food was nice but you should make sure you have a reservation as it gets busy. If you area whiskey drinker this is heaven as they have around 300 different brands for you to try.
+Easy walking access to Union Station, less than 5 minutes. Easy walking access to Coors stadium, perhaps 15 minutes, likewise only 10 minutes walk to 16th St Mall. 
+Reasonable size fitness room on site. Good, reliable and free WiFi.
+Very little recognition for IHG members or perks, not even a free bottle of water!
+Overall not one of the best Indigo hotels I have stayed in. I...I am a fan of Indigo brand as they are normally modern, sometimes a bit quirky and in my experience the service is generally very good.The Indigo in Denver is new, in fact I think is not yet completed. It is surrounded by major construction activity which didn't disturb from a noise point of view but you are very aware of it if you go in any direction around the town.The style for me didn't work, I was nota  fan of the bare concrete ceiling and pillars in the room, it looks and feels industrial. The aircon was fierce and noisy. No breakfast buffet it is all cooked to order and is a fairly limited menu. That said it tasted good and prices were reasonable.There is restaurant on site which is also a fairly lively bar. Food was nice but you should make sure you have a reservation as it gets busy. If you area whiskey drinker this is heaven as they have around 300 different brands for you to try.Easy walking access to Union Station, less than 5 minutes. Easy walking access to Coors stadium, perhaps 15 minutes, likewise only 10 minutes walk to 16th St Mall. Reasonable size fitness room on site. Good, reliable and free WiFi.Very little recognition for IHG members or perks, not even a free bottle of water!Overall not one of the best Indigo hotels I have stayed in. I think it will get better and once the construction work around it is complete it should be very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a fan of Indigo brand as they are normally modern, sometimes a bit quirky and in my experience the service is generally very good.
+The Indigo in Denver is new, in fact I think is not yet completed. It is surrounded by major construction activity which didn't disturb from a noise point of view but you are very aware of it if you go in any direction around the town.The style for me didn't work, I was nota  fan of the bare concrete ceiling and pillars in the room, it looks and feels industrial. The aircon was fierce and noisy. 
+No breakfast buffet it is all cooked to order and is a fairly limited menu. That said it tasted good and prices were reasonable.
+There is restaurant on site which is also a fairly lively bar. Food was nice but you should make sure you have a reservation as it gets busy. If you area whiskey drinker this is heaven as they have around 300 different brands for you to try.
+Easy walking access to Union Station, less than 5 minutes. Easy walking access to Coors stadium, perhaps 15 minutes, likewise only 10 minutes walk to 16th St Mall. 
+Reasonable size fitness room on site. Good, reliable and free WiFi.
+Very little recognition for IHG members or perks, not even a free bottle of water!
+Overall not one of the best Indigo hotels I have stayed in. I...I am a fan of Indigo brand as they are normally modern, sometimes a bit quirky and in my experience the service is generally very good.The Indigo in Denver is new, in fact I think is not yet completed. It is surrounded by major construction activity which didn't disturb from a noise point of view but you are very aware of it if you go in any direction around the town.The style for me didn't work, I was nota  fan of the bare concrete ceiling and pillars in the room, it looks and feels industrial. The aircon was fierce and noisy. No breakfast buffet it is all cooked to order and is a fairly limited menu. That said it tasted good and prices were reasonable.There is restaurant on site which is also a fairly lively bar. Food was nice but you should make sure you have a reservation as it gets busy. If you area whiskey drinker this is heaven as they have around 300 different brands for you to try.Easy walking access to Union Station, less than 5 minutes. Easy walking access to Coors stadium, perhaps 15 minutes, likewise only 10 minutes walk to 16th St Mall. Reasonable size fitness room on site. Good, reliable and free WiFi.Very little recognition for IHG members or perks, not even a free bottle of water!Overall not one of the best Indigo hotels I have stayed in. I think it will get better and once the construction work around it is complete it should be very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r501061972-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>501061972</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Close to ballpark</t>
+  </si>
+  <si>
+    <t>Nice hotel, nothing special, very modern decor. Bed was comfortable and air worked well in room. They had problems with texting system for valet parking and construction everywhere! Libby smelled like mesquite smoke while we were there. Location was great, but overall just so-so for price.MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, nothing special, very modern decor. Bed was comfortable and air worked well in room. They had problems with texting system for valet parking and construction everywhere! Libby smelled like mesquite smoke while we were there. Location was great, but overall just so-so for price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r498363861-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>498363861</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Good Future Hotel, Great Location</t>
+  </si>
+  <si>
+    <t>This will be a very good future hotel - when they work out the kinks and teach their staff how to be service oriented.  Restaurant was good - food was very good but service was poor; exception was Eddie from Texas who was awesome!  Eddie should teach the rest of the staff - restaurant and hotel - about service.We received a group rate, thankfully.  I would have been very disappointed to have paid over $300 a night.Upside: Great location.  Others complained about the construction but that did not bother us.  Close to lots of restaurants, across the street from the train station, not even two blocks from the 16th Street free shuttle, clean rooms, keurig machines, and refrigerators.  Two blocks from a grocery store (King Sooper).Downside:  not great service in restaurants with the exception of Eddie from Texas; ice machines broken on EVERY FLOOR; front desk not too helpful; temperamental HVAC system; peak-a-boo bathrooms if you don't shut the door just right (it bounces open revealing everything!).  Not very "communal" - no real gathering area either in the room or in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>This will be a very good future hotel - when they work out the kinks and teach their staff how to be service oriented.  Restaurant was good - food was very good but service was poor; exception was Eddie from Texas who was awesome!  Eddie should teach the rest of the staff - restaurant and hotel - about service.We received a group rate, thankfully.  I would have been very disappointed to have paid over $300 a night.Upside: Great location.  Others complained about the construction but that did not bother us.  Close to lots of restaurants, across the street from the train station, not even two blocks from the 16th Street free shuttle, clean rooms, keurig machines, and refrigerators.  Two blocks from a grocery store (King Sooper).Downside:  not great service in restaurants with the exception of Eddie from Texas; ice machines broken on EVERY FLOOR; front desk not too helpful; temperamental HVAC system; peak-a-boo bathrooms if you don't shut the door just right (it bounces open revealing everything!).  Not very "communal" - no real gathering area either in the room or in the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r498083956-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>498083956</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Right at Union station</t>
+  </si>
+  <si>
+    <t>cool area.  good restaurants within 5 min walk.  can catch train from airport, right to union station and walk to hotel.  convenient. room was nice. beds comfortable. hotel was cool.  hip, chic restaurant/bar downstairs.  decent value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>cool area.  good restaurants within 5 min walk.  can catch train from airport, right to union station and walk to hotel.  convenient. room was nice. beds comfortable. hotel was cool.  hip, chic restaurant/bar downstairs.  decent value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r496020828-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>496020828</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel and Great Location</t>
+  </si>
+  <si>
+    <t>This hotel is brand new and right in the heart of downtown. It is right across the street from Union Station. When I arrived I was told my room had been upgraded to a very nice top floor suite. I loved how they included USB ports in all of the outlets to make it easier to charge all my devices. I was a little surprised though that my room did not have a safe to store my valuables. If there was one I sure couldn't find it. Parking is a bit expensive at $32 a day. The bar and restaurant inside the hotel is very nice and had a huge whiskey selection. I would definitely choose this hotel again the next time I am in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is brand new and right in the heart of downtown. It is right across the street from Union Station. When I arrived I was told my room had been upgraded to a very nice top floor suite. I loved how they included USB ports in all of the outlets to make it easier to charge all my devices. I was a little surprised though that my room did not have a safe to store my valuables. If there was one I sure couldn't find it. Parking is a bit expensive at $32 a day. The bar and restaurant inside the hotel is very nice and had a huge whiskey selection. I would definitely choose this hotel again the next time I am in Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r495884102-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>495884102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacking Customer service </t>
+  </si>
+  <si>
+    <t>I just stayed there one night. It's valet parking only not communicate though the website. It was hard to find due to the lack of signage. The room was extremely noisy due to the air return. This would not be my first choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>I just stayed there one night. It's valet parking only not communicate though the website. It was hard to find due to the lack of signage. The room was extremely noisy due to the air return. This would not be my first choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r495557022-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>495557022</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel with a nice canine ambassador!</t>
+  </si>
+  <si>
+    <t>The hotel is quite nice and located next to the rail station. That makes travel from the airport to central Denver quite easy. The staff is friendly and accommodating. Prices are comparable with other quality hotels in downtown Denver. They have a nice restaurant with reasonable prices. Parking is made easy with valet service. The construction of the hotel means that the rooms are temperature controlled and the noise of the city is non-existent. There is also a nice ambassador ready to greet you when you arrive, Barkly the dog! He is a nice golden retriever who brings a smile to weary travelers. I would recommend the hotel to people visiting Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is quite nice and located next to the rail station. That makes travel from the airport to central Denver quite easy. The staff is friendly and accommodating. Prices are comparable with other quality hotels in downtown Denver. They have a nice restaurant with reasonable prices. Parking is made easy with valet service. The construction of the hotel means that the rooms are temperature controlled and the noise of the city is non-existent. There is also a nice ambassador ready to greet you when you arrive, Barkly the dog! He is a nice golden retriever who brings a smile to weary travelers. I would recommend the hotel to people visiting Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r493969709-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>493969709</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold and not friendly </t>
+  </si>
+  <si>
+    <t>I'm an IHG reward member and stayed at the Staybridge Suites in Co Springs for a week prior to coming to Denver for a night. The friendliness and consideration was vastly different than our stay in Co Springs. While the hotel Indigo provides valet service and a downtown option in Denver, the front staff did not acknowledge me as an IHG member. They didn't offer the wifi password upon check in. The check in area was very cold and not inviting at all. Contemporary hotel with sleek decor inside the room and very comfortable beds and sheets. Beautiful bar area and a restaurant on site. Only a few blocks from union station and Coors Field. But without good customer service I would not return!! It seemed very uppity/snooty and cold! MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>I'm an IHG reward member and stayed at the Staybridge Suites in Co Springs for a week prior to coming to Denver for a night. The friendliness and consideration was vastly different than our stay in Co Springs. While the hotel Indigo provides valet service and a downtown option in Denver, the front staff did not acknowledge me as an IHG member. They didn't offer the wifi password upon check in. The check in area was very cold and not inviting at all. Contemporary hotel with sleek decor inside the room and very comfortable beds and sheets. Beautiful bar area and a restaurant on site. Only a few blocks from union station and Coors Field. But without good customer service I would not return!! It seemed very uppity/snooty and cold! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r493862848-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>493862848</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome hotel right downtown </t>
+  </si>
+  <si>
+    <t>We had an amazing stay at the hotel indigo! The location is great despite the contradiction going on around the hotel. Seems like there is construction in the whole city! The staff was exceptionally friendly and the hotel was brand new. My favorite part of the hotel was the bed! It was ultra comfy. :) would definitely stay again! MoreShow less</t>
+  </si>
+  <si>
+    <t>We had an amazing stay at the hotel indigo! The location is great despite the contradiction going on around the hotel. Seems like there is construction in the whole city! The staff was exceptionally friendly and the hotel was brand new. My favorite part of the hotel was the bed! It was ultra comfy. :) would definitely stay again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r493400041-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>493400041</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Great location, no issues with construction</t>
+  </si>
+  <si>
+    <t>I'll be honest: based on some of the reviews here, I looked for another hotel because I was worried about the construction.  I'm SO glad I didn't change our reservation!
+CONSTRUCTION
+So about that construction: we stayed during the week and a weekend, and neither of us could hear any construction noise.  Yes, there is a little sidewalk diversion due to the construction, but nothing we haven't seen in NYC/London/DC on a regular basis, and it was not inconvenient at all.
+BATHROOM DOOR
+Much has also been written about the bathroom door, as it is indeed a barn door style that leaves a bit of a gap.  In terms of privacy, it wasn't any worse than a regular door in an older hotel.  I wouldn't let this deter you from booking, although if they could remedy this somehow (bathroom fans? Some sort of caulking?) it'd be nice.
+LOCATION
+The location is amazing, and we walked to (and liked!) these nearby places:
+-Snooze in Union Station (maybe the best brunch I've ever had)
+-Mercantile &amp; Provision in Union Station
+-Hearth &amp; Dram (in the hotel--try the "Wayne Manor" if you like coffee and/or tequila!)
+-Forest Room 5 for drinks
+-Linger for dinner
+-Little Man Ice Cream
+Because you're so close to Union Station, you can take a $4.50/each way trip to Boulder on a super clean, nice bus.  You can also get to the airport for $9/each way.  So much better...I'll be honest: based on some of the reviews here, I looked for another hotel because I was worried about the construction.  I'm SO glad I didn't change our reservation!CONSTRUCTIONSo about that construction: we stayed during the week and a weekend, and neither of us could hear any construction noise.  Yes, there is a little sidewalk diversion due to the construction, but nothing we haven't seen in NYC/London/DC on a regular basis, and it was not inconvenient at all.BATHROOM DOORMuch has also been written about the bathroom door, as it is indeed a barn door style that leaves a bit of a gap.  In terms of privacy, it wasn't any worse than a regular door in an older hotel.  I wouldn't let this deter you from booking, although if they could remedy this somehow (bathroom fans? Some sort of caulking?) it'd be nice.LOCATIONThe location is amazing, and we walked to (and liked!) these nearby places:-Snooze in Union Station (maybe the best brunch I've ever had)-Mercantile &amp; Provision in Union Station-Hearth &amp; Dram (in the hotel--try the "Wayne Manor" if you like coffee and/or tequila!)-Forest Room 5 for drinks-Linger for dinner-Little Man Ice CreamBecause you're so close to Union Station, you can take a $4.50/each way trip to Boulder on a super clean, nice bus.  You can also get to the airport for $9/each way.  So much better than a $60 cab ride!We also used the free bus on 16th Street to get near the Art Museum and Capitol and give our feet a rest.ONE THING I'D CHANGEAs another reviewer noted, there are no in-room safes.  I know there are safety deposit boxes at the front desk, but as someone who learned the hard way to lock up prescriptions when traveling, an in-room safe is important to me.BOTTOM LINEAfter staying at the Sheraton Downtown for a conference, this was a clean, light-filled, centrally located, breath of fresh air for us.  If you prefer a modern hotel that makes a great base for adventures in/around Denver (with a dog ambassador and awesome beds!), this is it.  If you prefer a full service hotel with absolutely every amenity, this may not be your best bet.  Overall, we'd highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'll be honest: based on some of the reviews here, I looked for another hotel because I was worried about the construction.  I'm SO glad I didn't change our reservation!
+CONSTRUCTION
+So about that construction: we stayed during the week and a weekend, and neither of us could hear any construction noise.  Yes, there is a little sidewalk diversion due to the construction, but nothing we haven't seen in NYC/London/DC on a regular basis, and it was not inconvenient at all.
+BATHROOM DOOR
+Much has also been written about the bathroom door, as it is indeed a barn door style that leaves a bit of a gap.  In terms of privacy, it wasn't any worse than a regular door in an older hotel.  I wouldn't let this deter you from booking, although if they could remedy this somehow (bathroom fans? Some sort of caulking?) it'd be nice.
+LOCATION
+The location is amazing, and we walked to (and liked!) these nearby places:
+-Snooze in Union Station (maybe the best brunch I've ever had)
+-Mercantile &amp; Provision in Union Station
+-Hearth &amp; Dram (in the hotel--try the "Wayne Manor" if you like coffee and/or tequila!)
+-Forest Room 5 for drinks
+-Linger for dinner
+-Little Man Ice Cream
+Because you're so close to Union Station, you can take a $4.50/each way trip to Boulder on a super clean, nice bus.  You can also get to the airport for $9/each way.  So much better...I'll be honest: based on some of the reviews here, I looked for another hotel because I was worried about the construction.  I'm SO glad I didn't change our reservation!CONSTRUCTIONSo about that construction: we stayed during the week and a weekend, and neither of us could hear any construction noise.  Yes, there is a little sidewalk diversion due to the construction, but nothing we haven't seen in NYC/London/DC on a regular basis, and it was not inconvenient at all.BATHROOM DOORMuch has also been written about the bathroom door, as it is indeed a barn door style that leaves a bit of a gap.  In terms of privacy, it wasn't any worse than a regular door in an older hotel.  I wouldn't let this deter you from booking, although if they could remedy this somehow (bathroom fans? Some sort of caulking?) it'd be nice.LOCATIONThe location is amazing, and we walked to (and liked!) these nearby places:-Snooze in Union Station (maybe the best brunch I've ever had)-Mercantile &amp; Provision in Union Station-Hearth &amp; Dram (in the hotel--try the "Wayne Manor" if you like coffee and/or tequila!)-Forest Room 5 for drinks-Linger for dinner-Little Man Ice CreamBecause you're so close to Union Station, you can take a $4.50/each way trip to Boulder on a super clean, nice bus.  You can also get to the airport for $9/each way.  So much better than a $60 cab ride!We also used the free bus on 16th Street to get near the Art Museum and Capitol and give our feet a rest.ONE THING I'D CHANGEAs another reviewer noted, there are no in-room safes.  I know there are safety deposit boxes at the front desk, but as someone who learned the hard way to lock up prescriptions when traveling, an in-room safe is important to me.BOTTOM LINEAfter staying at the Sheraton Downtown for a conference, this was a clean, light-filled, centrally located, breath of fresh air for us.  If you prefer a modern hotel that makes a great base for adventures in/around Denver (with a dog ambassador and awesome beds!), this is it.  If you prefer a full service hotel with absolutely every amenity, this may not be your best bet.  Overall, we'd highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r491001344-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>491001344</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Good hotel, good location</t>
+  </si>
+  <si>
+    <t>We stayed here one night, having chosen the hotel for its proximity to LoDo and the Pepsi Center.  It is a fairly new hotel, and the atmosphere is minimalist, with not a lot of the flash and glamour of many hotels.  The room was comfortable, the wifi worked fine, and the employees at the front desk were pleasant and helpful.  It's an easy walk to the entire downtown area - there is construction going on at the corner of 18th and Wewatta, but it didn't really interfere with anything.  You pick up your car from the valet parking ($32 overnight) by texting the valet - they text you back when your car is ready.  Not a luxurious hotel, but pleasant.  The one thing I wish they had was an in-room safe, which many hotels now have, but there are safety deposit boxes available at the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here one night, having chosen the hotel for its proximity to LoDo and the Pepsi Center.  It is a fairly new hotel, and the atmosphere is minimalist, with not a lot of the flash and glamour of many hotels.  The room was comfortable, the wifi worked fine, and the employees at the front desk were pleasant and helpful.  It's an easy walk to the entire downtown area - there is construction going on at the corner of 18th and Wewatta, but it didn't really interfere with anything.  You pick up your car from the valet parking ($32 overnight) by texting the valet - they text you back when your car is ready.  Not a luxurious hotel, but pleasant.  The one thing I wish they had was an in-room safe, which many hotels now have, but there are safety deposit boxes available at the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r489163417-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>489163417</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Nothing Special</t>
+  </si>
+  <si>
+    <t>The heating and air conditioning did not work even in the 2nd room we were moved to on night 2.  The computer systems went down at checkout, and I still have not received an itemized bill.  The location is very good, but for the same price you could stay in numerous other hotels downtown and receive a much better room and superior service.MoreShow less</t>
+  </si>
+  <si>
+    <t>The heating and air conditioning did not work even in the 2nd room we were moved to on night 2.  The computer systems went down at checkout, and I still have not received an itemized bill.  The location is very good, but for the same price you could stay in numerous other hotels downtown and receive a much better room and superior service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r488871494-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>488871494</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel in a great location!</t>
+  </si>
+  <si>
+    <t>The staff at Hotel Indigo are some of the nicest staff I have encountered at a hotel.  They were all very friendly, helpful, and Barkley and Tigger (doggy mascots for the hotel) were a big hit with my little boy.  We had yummy room service from the restaurant, and our stay was a pleasant experience.  There is construction outside of the hotel, but I was never bothered with noise and the location is great for moving around downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff at Hotel Indigo are some of the nicest staff I have encountered at a hotel.  They were all very friendly, helpful, and Barkley and Tigger (doggy mascots for the hotel) were a big hit with my little boy.  We had yummy room service from the restaurant, and our stay was a pleasant experience.  There is construction outside of the hotel, but I was never bothered with noise and the location is great for moving around downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r484761575-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>484761575</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>This is a new hotel close to Union Station and 16th St. Mall.  Very close to Coors Field as well.  Very comfortable with well appointed rooms. Would get 5 stars when the construction around it is completed.MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>This is a new hotel close to Union Station and 16th St. Mall.  Very close to Coors Field as well.  Very comfortable with well appointed rooms. Would get 5 stars when the construction around it is completed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r484428776-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>484428776</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Great hotel with excellent bar.</t>
+  </si>
+  <si>
+    <t>I stayed here for a wedding and the hotel was great.  Clean, quiet and well located.  The wifi worked fine.The bar, however, is amazing.  It has a huge variety of interesting spirits and a well informed staff of bartenders.  These young folks were a wealth of information and excellent suggestions.  That bar is not to be missed.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for a wedding and the hotel was great.  Clean, quiet and well located.  The wifi worked fine.The bar, however, is amazing.  It has a huge variety of interesting spirits and a well informed staff of bartenders.  These young folks were a wealth of information and excellent suggestions.  That bar is not to be missed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r482309384-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>482309384</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>did not stay - they cancelled</t>
+  </si>
+  <si>
+    <t>Booked this hotel through Expedia in January to stay near Coors field with my two children for a Rockies game.  Received call through Expedia 2 days prior to my stay that they were oversold and would not honor the reservation.  Forced to scramble and found a hotel 3 times further away from Coors field than Hotel Indigo.You've lost a customer for life, Hotel Indigo.  FELLOW TRAVELER'S BE WARY OF THIS HOTEL!MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked this hotel through Expedia in January to stay near Coors field with my two children for a Rockies game.  Received call through Expedia 2 days prior to my stay that they were oversold and would not honor the reservation.  Forced to scramble and found a hotel 3 times further away from Coors field than Hotel Indigo.You've lost a customer for life, Hotel Indigo.  FELLOW TRAVELER'S BE WARY OF THIS HOTEL!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r477556458-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>477556458</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>My husband and I flew into Denver for a long weekend to visit our daughter. We had booked 4 nights at the Indigo. We arrived late Thursday night had and had hoped to upgrade to a suite but were informed that none were available, the person on the desk recommended we check back in the morning. We left very early Friday morning to surprise our daughter (so early their restaurant had not even open). The two people at the desk that morning, Amy and Sam were very warm and friendly and Amy even went and got us coffee to go! We once again requested an upgrade and were advised to check back. Even though we had a King room it was a tight fit as was the bathroom and all night long I kept waking up to the sound of the air coming on and going off. later that morning we checked back as to the possibility of moving to a suite and were informed non were available. The young lady on the front desk had a very condescending attitude which made me feel uncomfortable. I went several times to ask questions and it seemed obvious she had taken a dislike to me. Her attitude coupled with the tightness of the room made it an easy decision to move. When my husband checked out she asked if we had found a cheaper place to stay, interesting comment since we went...My husband and I flew into Denver for a long weekend to visit our daughter. We had booked 4 nights at the Indigo. We arrived late Thursday night had and had hoped to upgrade to a suite but were informed that none were available, the person on the desk recommended we check back in the morning. We left very early Friday morning to surprise our daughter (so early their restaurant had not even open). The two people at the desk that morning, Amy and Sam were very warm and friendly and Amy even went and got us coffee to go! We once again requested an upgrade and were advised to check back. Even though we had a King room it was a tight fit as was the bathroom and all night long I kept waking up to the sound of the air coming on and going off. later that morning we checked back as to the possibility of moving to a suite and were informed non were available. The young lady on the front desk had a very condescending attitude which made me feel uncomfortable. I went several times to ask questions and it seemed obvious she had taken a dislike to me. Her attitude coupled with the tightness of the room made it an easy decision to move. When my husband checked out she asked if we had found a cheaper place to stay, interesting comment since we went across the tracks to the Crawford Hotel for triple the cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I flew into Denver for a long weekend to visit our daughter. We had booked 4 nights at the Indigo. We arrived late Thursday night had and had hoped to upgrade to a suite but were informed that none were available, the person on the desk recommended we check back in the morning. We left very early Friday morning to surprise our daughter (so early their restaurant had not even open). The two people at the desk that morning, Amy and Sam were very warm and friendly and Amy even went and got us coffee to go! We once again requested an upgrade and were advised to check back. Even though we had a King room it was a tight fit as was the bathroom and all night long I kept waking up to the sound of the air coming on and going off. later that morning we checked back as to the possibility of moving to a suite and were informed non were available. The young lady on the front desk had a very condescending attitude which made me feel uncomfortable. I went several times to ask questions and it seemed obvious she had taken a dislike to me. Her attitude coupled with the tightness of the room made it an easy decision to move. When my husband checked out she asked if we had found a cheaper place to stay, interesting comment since we went...My husband and I flew into Denver for a long weekend to visit our daughter. We had booked 4 nights at the Indigo. We arrived late Thursday night had and had hoped to upgrade to a suite but were informed that none were available, the person on the desk recommended we check back in the morning. We left very early Friday morning to surprise our daughter (so early their restaurant had not even open). The two people at the desk that morning, Amy and Sam were very warm and friendly and Amy even went and got us coffee to go! We once again requested an upgrade and were advised to check back. Even though we had a King room it was a tight fit as was the bathroom and all night long I kept waking up to the sound of the air coming on and going off. later that morning we checked back as to the possibility of moving to a suite and were informed non were available. The young lady on the front desk had a very condescending attitude which made me feel uncomfortable. I went several times to ask questions and it seemed obvious she had taken a dislike to me. Her attitude coupled with the tightness of the room made it an easy decision to move. When my husband checked out she asked if we had found a cheaper place to stay, interesting comment since we went across the tracks to the Crawford Hotel for triple the cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r477332314-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>477332314</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Good Location for Lodo</t>
+  </si>
+  <si>
+    <t>Positives: The hotel is in a great location in Lodo and it would be easy to take the train here and avoid driving all together. The hotel has a cool industrial/loft type vibe and the beds really are wildly comfortable. I appreciated the blackout blinds and since the restaurant wasn't serving breakfast yet when we visited we enjoyed morning room service (the coffee was delicious!) We drove and in order to avoid the $40 parking fee at the hotel we parked in a garage a block over for $5 for the night. The restaurant/bar in the hotel is cool. We grabbed a drink and a few apps and the bar pleasantly busy but we were still able to get seats at 7 p.m. on a Friday.  It was a really quick walk to the Museum of Contemporary Art and there are lots of restaurants and bars nearby. 
+Negatives: The rooms walls were thin and we could hear the people in the room next to us watching TV. We stayed on the west side on the building which affording us a view of absolutely nothing-unless you dig watching the tons of construction projects happening nearby. The construction really is as omnipresent as other reviews have mentioned making driving, parking and to some degree walking near the hotel a challenge. There isn't much of a lobby to speak of and I wish the rooms had mini bars. 
+Overall I think the hotel...Positives: The hotel is in a great location in Lodo and it would be easy to take the train here and avoid driving all together. The hotel has a cool industrial/loft type vibe and the beds really are wildly comfortable. I appreciated the blackout blinds and since the restaurant wasn't serving breakfast yet when we visited we enjoyed morning room service (the coffee was delicious!) We drove and in order to avoid the $40 parking fee at the hotel we parked in a garage a block over for $5 for the night. The restaurant/bar in the hotel is cool. We grabbed a drink and a few apps and the bar pleasantly busy but we were still able to get seats at 7 p.m. on a Friday.  It was a really quick walk to the Museum of Contemporary Art and there are lots of restaurants and bars nearby. Negatives: The rooms walls were thin and we could hear the people in the room next to us watching TV. We stayed on the west side on the building which affording us a view of absolutely nothing-unless you dig watching the tons of construction projects happening nearby. The construction really is as omnipresent as other reviews have mentioned making driving, parking and to some degree walking near the hotel a challenge. There isn't much of a lobby to speak of and I wish the rooms had mini bars. Overall I think the hotel is solid. It has a cool modern design but for me it doesn't compare to the service/rooms/experience at some other Denver hotels. The weekend we stayed the Indigo's price was comparable to The Art, Monaco &amp; Teatro hotels which we have also stayed at recently. We decided to try something new with the Indigo and while it was nice it didn't compare to the service/room/experience at the three other Denver hotels I mentioned. If you can get a good price or are most concerned with proximity to Union Station its a great option though.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Positives: The hotel is in a great location in Lodo and it would be easy to take the train here and avoid driving all together. The hotel has a cool industrial/loft type vibe and the beds really are wildly comfortable. I appreciated the blackout blinds and since the restaurant wasn't serving breakfast yet when we visited we enjoyed morning room service (the coffee was delicious!) We drove and in order to avoid the $40 parking fee at the hotel we parked in a garage a block over for $5 for the night. The restaurant/bar in the hotel is cool. We grabbed a drink and a few apps and the bar pleasantly busy but we were still able to get seats at 7 p.m. on a Friday.  It was a really quick walk to the Museum of Contemporary Art and there are lots of restaurants and bars nearby. 
+Negatives: The rooms walls were thin and we could hear the people in the room next to us watching TV. We stayed on the west side on the building which affording us a view of absolutely nothing-unless you dig watching the tons of construction projects happening nearby. The construction really is as omnipresent as other reviews have mentioned making driving, parking and to some degree walking near the hotel a challenge. There isn't much of a lobby to speak of and I wish the rooms had mini bars. 
+Overall I think the hotel...Positives: The hotel is in a great location in Lodo and it would be easy to take the train here and avoid driving all together. The hotel has a cool industrial/loft type vibe and the beds really are wildly comfortable. I appreciated the blackout blinds and since the restaurant wasn't serving breakfast yet when we visited we enjoyed morning room service (the coffee was delicious!) We drove and in order to avoid the $40 parking fee at the hotel we parked in a garage a block over for $5 for the night. The restaurant/bar in the hotel is cool. We grabbed a drink and a few apps and the bar pleasantly busy but we were still able to get seats at 7 p.m. on a Friday.  It was a really quick walk to the Museum of Contemporary Art and there are lots of restaurants and bars nearby. Negatives: The rooms walls were thin and we could hear the people in the room next to us watching TV. We stayed on the west side on the building which affording us a view of absolutely nothing-unless you dig watching the tons of construction projects happening nearby. The construction really is as omnipresent as other reviews have mentioned making driving, parking and to some degree walking near the hotel a challenge. There isn't much of a lobby to speak of and I wish the rooms had mini bars. Overall I think the hotel is solid. It has a cool modern design but for me it doesn't compare to the service/rooms/experience at some other Denver hotels. The weekend we stayed the Indigo's price was comparable to The Art, Monaco &amp; Teatro hotels which we have also stayed at recently. We decided to try something new with the Indigo and while it was nice it didn't compare to the service/room/experience at the three other Denver hotels I mentioned. If you can get a good price or are most concerned with proximity to Union Station its a great option though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r475610886-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>475610886</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Surrounded by construction but staff was great</t>
+  </si>
+  <si>
+    <t>Room and hotel are very 'cool'.  Modern, upscale and trendy.  They clearly prioritize staff as the employees were excellent - although Im not sure I am on board with setting the suspenders trend.I would have preferred to carry my own bag.Gym is small but open all night.Location is great for a fun downtown stay - or at least it will be when the road construction is done.  Right now the comfy new room and excellent bed are nice, but the surrounding construction area and limited parking are significant negatives.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Room and hotel are very 'cool'.  Modern, upscale and trendy.  They clearly prioritize staff as the employees were excellent - although Im not sure I am on board with setting the suspenders trend.I would have preferred to carry my own bag.Gym is small but open all night.Location is great for a fun downtown stay - or at least it will be when the road construction is done.  Right now the comfy new room and excellent bed are nice, but the surrounding construction area and limited parking are significant negatives.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r473873819-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>473873819</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Unfinished even if they say it is</t>
+  </si>
+  <si>
+    <t>Great location next to union station but it appeared newly opened and as yet unfinished as evidenced by the photos. I'm aware of the unfinished concrete style witnessed many times in Tokyo but this isn't it. Coffee cups were dirty front door had damage akin to a forced entry or jimmied. Good price but imagine that will change once fully operational. Voiced our disappointment with the duty manager she offered to add points to our account.MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Great location next to union station but it appeared newly opened and as yet unfinished as evidenced by the photos. I'm aware of the unfinished concrete style witnessed many times in Tokyo but this isn't it. Coffee cups were dirty front door had damage akin to a forced entry or jimmied. Good price but imagine that will change once fully operational. Voiced our disappointment with the duty manager she offered to add points to our account.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r473255717-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>473255717</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Little things mean a lot...</t>
+  </si>
+  <si>
+    <t>My second visit to this hotel in 30 days.  The first time they had just opened so I excused a few things like the kitchen being closed before 10. This time I figured I give them another try assuming the kinks had been worked out.  Not so much.  For example no in room decaf coffee. No place to get coffee in the morning except in the restaurant. But most importantly-I left my room at 8:00 am and returned at 8:00pm.  My room had never been serviced. When I called to ask about it I was told "housekeeping was gone for the day".  Great location, but with so much competition next to them around Union Station they really need to dot the i's and cross the T's before I return.  MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2017</t>
+  </si>
+  <si>
+    <t>My second visit to this hotel in 30 days.  The first time they had just opened so I excused a few things like the kitchen being closed before 10. This time I figured I give them another try assuming the kinks had been worked out.  Not so much.  For example no in room decaf coffee. No place to get coffee in the morning except in the restaurant. But most importantly-I left my room at 8:00 am and returned at 8:00pm.  My room had never been serviced. When I called to ask about it I was told "housekeeping was gone for the day".  Great location, but with so much competition next to them around Union Station they really need to dot the i's and cross the T's before I return.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r472962077-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>472962077</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Super nice, convenient and modern!</t>
+  </si>
+  <si>
+    <t>I stayed at Hotel Indigo in Naperville, IL in the past and was very impressed, so I chose them again for our Denver business trip. Located in the heart of downtown Denver, this hotel could not be any nicer... the rooms are super clean, modern and new, the beds are extremely comfortable and the rooms are equipped with a keurig! Valet parking is a bit expensive but that's to be expected in a large city. The shower is walk-in and ADA compliant, which made it a little interesting to get used to if you didn't want to sit down while showering - however, the shampoo they supply smells amazing and the water pressure is wonderful! The hotel also offers in-room dining (breakfast and dinner). Their restaurant is located on the first floor and serves all three meals with reasonable prices, so you don't even have to leave the hotel to get a nice meal. 10/10 would recommend this place!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at Hotel Indigo in Naperville, IL in the past and was very impressed, so I chose them again for our Denver business trip. Located in the heart of downtown Denver, this hotel could not be any nicer... the rooms are super clean, modern and new, the beds are extremely comfortable and the rooms are equipped with a keurig! Valet parking is a bit expensive but that's to be expected in a large city. The shower is walk-in and ADA compliant, which made it a little interesting to get used to if you didn't want to sit down while showering - however, the shampoo they supply smells amazing and the water pressure is wonderful! The hotel also offers in-room dining (breakfast and dinner). Their restaurant is located on the first floor and serves all three meals with reasonable prices, so you don't even have to leave the hotel to get a nice meal. 10/10 would recommend this place!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r469224422-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>469224422</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Outstanding hotel downtown Denver</t>
+  </si>
+  <si>
+    <t>Took the train from the airport and walked across the street to this new hotel.  Staff is AMAZING!! I was walking to my room late afternoon and the maid says " thank you for staying with us.  We appreciate your business."  That has never happened on my trips.The fitness center had all new equipment. The beds were real comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaimie A, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Took the train from the airport and walked across the street to this new hotel.  Staff is AMAZING!! I was walking to my room late afternoon and the maid says " thank you for staying with us.  We appreciate your business."  That has never happened on my trips.The fitness center had all new equipment. The beds were real comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r469164178-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>469164178</t>
+  </si>
+  <si>
+    <t>New, Hip, Great Location</t>
+  </si>
+  <si>
+    <t>The hotel is new, offering a hip feel throughout the property and has a great location.The rooms offer a modern design, are very easy to relax in, but may not be for all travelers.  It is a modern, hip hotel where the room ceilings are like a loft, unfinished.  Great for someone wanting a modern hotel experience.The hotel is walking distance from Union Station, Coors Field and the heart of lower downtown. The only drawback to the hotel is parking is pricey.MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is new, offering a hip feel throughout the property and has a great location.The rooms offer a modern design, are very easy to relax in, but may not be for all travelers.  It is a modern, hip hotel where the room ceilings are like a loft, unfinished.  Great for someone wanting a modern hotel experience.The hotel is walking distance from Union Station, Coors Field and the heart of lower downtown. The only drawback to the hotel is parking is pricey.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r468833520-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>468833520</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect hot spot </t>
+  </si>
+  <si>
+    <t>Good Rush meets industry rush.
+Prospectors in these parts aren't looking for gold today, but a place to settle down and call their neighborhood. 
+In the heart of this neighborhood is the brand new Hotel Indigo.  
+An amazing boutique property whose neighborhood story derives from the gold rush and prospectors of the 1800's. 
+It's a wonderful collaboration of art and design.  Combining industrial, modern, and antique forms to make you feel right at home.  As soon as you step foot in the door your olfactory is awakened from the hearth churning out delicious food while your eyes travel to beautiful red illuminated walls that intrigue the curious eluding to this Hotel Indigo's neighborhood story.
+The rooms are beautiful using a gray scale of color with one pop of red in the area rug. The plush bedding  gives way to the best nights sleep and  spa inspired shower offering up Aveda products to cleanse and hydrate your skin from a days jaunt around with the locals. 
+The restaurant, Hearth and Dram, does not disappoint your tastebuds.  With every sip and savor  it's a cornucopia of flavor that seduces your mind. Using as much local flavor to take control of your senses.  Everyone needs to delight in the joy of this restaurant.  
+From valet, front desk, housekeeping, engineering, management and restaurant each person makes you feel wanted and special.   
+I have heard from the locals how much LoDo has changed.  If you...Good Rush meets industry rush.Prospectors in these parts aren't looking for gold today, but a place to settle down and call their neighborhood. In the heart of this neighborhood is the brand new Hotel Indigo.  An amazing boutique property whose neighborhood story derives from the gold rush and prospectors of the 1800's. It's a wonderful collaboration of art and design.  Combining industrial, modern, and antique forms to make you feel right at home.  As soon as you step foot in the door your olfactory is awakened from the hearth churning out delicious food while your eyes travel to beautiful red illuminated walls that intrigue the curious eluding to this Hotel Indigo's neighborhood story.The rooms are beautiful using a gray scale of color with one pop of red in the area rug. The plush bedding  gives way to the best nights sleep and  spa inspired shower offering up Aveda products to cleanse and hydrate your skin from a days jaunt around with the locals. The restaurant, Hearth and Dram, does not disappoint your tastebuds.  With every sip and savor  it's a cornucopia of flavor that seduces your mind. Using as much local flavor to take control of your senses.  Everyone needs to delight in the joy of this restaurant.  From valet, front desk, housekeeping, engineering, management and restaurant each person makes you feel wanted and special.   I have heard from the locals how much LoDo has changed.  If you are living outside the city it may be time for you to explore the energetic scene around the Hotel Indigo. (Coors Field, Union Station, 16th street free Mall Shuttle)Congratse to the Hotel Indigo Denver for doing an amazing job!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Good Rush meets industry rush.
+Prospectors in these parts aren't looking for gold today, but a place to settle down and call their neighborhood. 
+In the heart of this neighborhood is the brand new Hotel Indigo.  
+An amazing boutique property whose neighborhood story derives from the gold rush and prospectors of the 1800's. 
+It's a wonderful collaboration of art and design.  Combining industrial, modern, and antique forms to make you feel right at home.  As soon as you step foot in the door your olfactory is awakened from the hearth churning out delicious food while your eyes travel to beautiful red illuminated walls that intrigue the curious eluding to this Hotel Indigo's neighborhood story.
+The rooms are beautiful using a gray scale of color with one pop of red in the area rug. The plush bedding  gives way to the best nights sleep and  spa inspired shower offering up Aveda products to cleanse and hydrate your skin from a days jaunt around with the locals. 
+The restaurant, Hearth and Dram, does not disappoint your tastebuds.  With every sip and savor  it's a cornucopia of flavor that seduces your mind. Using as much local flavor to take control of your senses.  Everyone needs to delight in the joy of this restaurant.  
+From valet, front desk, housekeeping, engineering, management and restaurant each person makes you feel wanted and special.   
+I have heard from the locals how much LoDo has changed.  If you...Good Rush meets industry rush.Prospectors in these parts aren't looking for gold today, but a place to settle down and call their neighborhood. In the heart of this neighborhood is the brand new Hotel Indigo.  An amazing boutique property whose neighborhood story derives from the gold rush and prospectors of the 1800's. It's a wonderful collaboration of art and design.  Combining industrial, modern, and antique forms to make you feel right at home.  As soon as you step foot in the door your olfactory is awakened from the hearth churning out delicious food while your eyes travel to beautiful red illuminated walls that intrigue the curious eluding to this Hotel Indigo's neighborhood story.The rooms are beautiful using a gray scale of color with one pop of red in the area rug. The plush bedding  gives way to the best nights sleep and  spa inspired shower offering up Aveda products to cleanse and hydrate your skin from a days jaunt around with the locals. The restaurant, Hearth and Dram, does not disappoint your tastebuds.  With every sip and savor  it's a cornucopia of flavor that seduces your mind. Using as much local flavor to take control of your senses.  Everyone needs to delight in the joy of this restaurant.  From valet, front desk, housekeeping, engineering, management and restaurant each person makes you feel wanted and special.   I have heard from the locals how much LoDo has changed.  If you are living outside the city it may be time for you to explore the energetic scene around the Hotel Indigo. (Coors Field, Union Station, 16th street free Mall Shuttle)Congratse to the Hotel Indigo Denver for doing an amazing job!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r464016830-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>464016830</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>happening spot</t>
+  </si>
+  <si>
+    <t>to avoid the third world experience of renting a car at Denver Airport (my apologies to the third world), we took the $9 train to Union Station in downtown Denver and stayed an easy walk with luggage to the new Indigo. lovely reception complete with greeting from a well behaved Golden Retriever, a upbeat staff and a fine restaurant and bar Reasonable prices and location location locationMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>to avoid the third world experience of renting a car at Denver Airport (my apologies to the third world), we took the $9 train to Union Station in downtown Denver and stayed an easy walk with luggage to the new Indigo. lovely reception complete with greeting from a well behaved Golden Retriever, a upbeat staff and a fine restaurant and bar Reasonable prices and location location locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r462948534-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>462948534</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Matts baseball</t>
+  </si>
+  <si>
+    <t>Didn't know what to expect but from the time the valet opened our door to answer some questions we knew we were in a nice friendly place. Smelled like a new hotel. Everything was spotless. The check in staff was so friendly and helpful. Room was clean. Still had masking tape in the bathroom from the painting. Checked out the fitness room and had everything our family needed. Texted the valet to have our car ready and it was ready when we got downstairs. Customer service was amazing. Will stay again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Didn't know what to expect but from the time the valet opened our door to answer some questions we knew we were in a nice friendly place. Smelled like a new hotel. Everything was spotless. The check in staff was so friendly and helpful. Room was clean. Still had masking tape in the bathroom from the painting. Checked out the fitness room and had everything our family needed. Texted the valet to have our car ready and it was ready when we got downstairs. Customer service was amazing. Will stay again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r458402818-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>458402818</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Amazing Customer Care and Service</t>
+  </si>
+  <si>
+    <t>Hotel Indigo's General Manager Amy Healy exceeds the very definition of hospitality.  She already has gone out of her way numerous times to be of great service to me when I have needed her help.  She's very personable and stands out in my mind as someone who really cares and wants people to have a great experience with the hotel.  I would highly recommend this hotel to anyone, as it's situated in the best location downtown, right across from Union Station and the train to Denver Airport, as well as the 16th Street Mall and (soon to arrive) the downtown Whole Foods Market.  I would highly recommend this hotel as the way she has helped me with such generosity is reflected in her staff and this hotel as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaimie A, Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Hotel Indigo's General Manager Amy Healy exceeds the very definition of hospitality.  She already has gone out of her way numerous times to be of great service to me when I have needed her help.  She's very personable and stands out in my mind as someone who really cares and wants people to have a great experience with the hotel.  I would highly recommend this hotel to anyone, as it's situated in the best location downtown, right across from Union Station and the train to Denver Airport, as well as the 16th Street Mall and (soon to arrive) the downtown Whole Foods Market.  I would highly recommend this hotel as the way she has helped me with such generosity is reflected in her staff and this hotel as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r454029188-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>454029188</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>News hotel</t>
+  </si>
+  <si>
+    <t>New hotel in downtown Denver very modern looking rooms. Comfortable beds and pillows. Many eating establishments close by.  Restaurant to open in a couple of weeks  located across the street from union stationMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded January 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2017</t>
+  </si>
+  <si>
+    <t>New hotel in downtown Denver very modern looking rooms. Comfortable beds and pillows. Many eating establishments close by.  Restaurant to open in a couple of weeks  located across the street from union stationMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2043,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2075,4155 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>162</v>
+      </c>
+      <c r="X16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>171</v>
+      </c>
+      <c r="X17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>195</v>
+      </c>
+      <c r="X21" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>210</v>
+      </c>
+      <c r="X22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>218</v>
+      </c>
+      <c r="O23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>219</v>
+      </c>
+      <c r="X23" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>227</v>
+      </c>
+      <c r="O24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>219</v>
+      </c>
+      <c r="X24" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>219</v>
+      </c>
+      <c r="X25" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="X26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" t="s">
+        <v>99</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" t="s">
+        <v>251</v>
+      </c>
+      <c r="K28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s">
+        <v>253</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>254</v>
+      </c>
+      <c r="O28" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>255</v>
+      </c>
+      <c r="X28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X29" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>268</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>255</v>
+      </c>
+      <c r="X30" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" t="s">
+        <v>274</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>275</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>276</v>
+      </c>
+      <c r="X31" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>280</v>
+      </c>
+      <c r="J32" t="s">
+        <v>281</v>
+      </c>
+      <c r="K32" t="s">
+        <v>282</v>
+      </c>
+      <c r="L32" t="s">
+        <v>283</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>276</v>
+      </c>
+      <c r="X32" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" t="s">
+        <v>288</v>
+      </c>
+      <c r="L33" t="s">
+        <v>289</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>227</v>
+      </c>
+      <c r="O33" t="s">
+        <v>99</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>276</v>
+      </c>
+      <c r="X33" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>292</v>
+      </c>
+      <c r="J34" t="s">
+        <v>293</v>
+      </c>
+      <c r="K34" t="s">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>209</v>
+      </c>
+      <c r="O34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>276</v>
+      </c>
+      <c r="X34" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>209</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>302</v>
+      </c>
+      <c r="X35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>306</v>
+      </c>
+      <c r="J36" t="s">
+        <v>307</v>
+      </c>
+      <c r="K36" t="s">
+        <v>308</v>
+      </c>
+      <c r="L36" t="s">
+        <v>309</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>310</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>311</v>
+      </c>
+      <c r="X36" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" t="s">
+        <v>317</v>
+      </c>
+      <c r="L37" t="s">
+        <v>318</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>209</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>311</v>
+      </c>
+      <c r="X37" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" t="s">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s">
+        <v>324</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>209</v>
+      </c>
+      <c r="O38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>325</v>
+      </c>
+      <c r="X38" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>310</v>
+      </c>
+      <c r="O39" t="s">
+        <v>99</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>333</v>
+      </c>
+      <c r="X39" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>336</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>337</v>
+      </c>
+      <c r="J40" t="s">
+        <v>338</v>
+      </c>
+      <c r="K40" t="s">
+        <v>339</v>
+      </c>
+      <c r="L40" t="s">
+        <v>340</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>275</v>
+      </c>
+      <c r="O40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>333</v>
+      </c>
+      <c r="X40" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>342</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>343</v>
+      </c>
+      <c r="J41" t="s">
+        <v>344</v>
+      </c>
+      <c r="K41" t="s">
+        <v>345</v>
+      </c>
+      <c r="L41" t="s">
+        <v>346</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>310</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>347</v>
+      </c>
+      <c r="X41" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>351</v>
+      </c>
+      <c r="J42" t="s">
+        <v>344</v>
+      </c>
+      <c r="K42" t="s">
+        <v>352</v>
+      </c>
+      <c r="L42" t="s">
+        <v>353</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>310</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>347</v>
+      </c>
+      <c r="X42" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>356</v>
+      </c>
+      <c r="J43" t="s">
+        <v>357</v>
+      </c>
+      <c r="K43" t="s">
+        <v>358</v>
+      </c>
+      <c r="L43" t="s">
+        <v>359</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>310</v>
+      </c>
+      <c r="O43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>360</v>
+      </c>
+      <c r="X43" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>363</v>
+      </c>
+      <c r="J44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L44" t="s">
+        <v>366</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>310</v>
+      </c>
+      <c r="O44" t="s">
+        <v>99</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>367</v>
+      </c>
+      <c r="X44" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>370</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J45" t="s">
+        <v>372</v>
+      </c>
+      <c r="K45" t="s">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s">
+        <v>374</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>310</v>
+      </c>
+      <c r="O45" t="s">
+        <v>78</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X45" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>376</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>377</v>
+      </c>
+      <c r="J46" t="s">
+        <v>378</v>
+      </c>
+      <c r="K46" t="s">
+        <v>379</v>
+      </c>
+      <c r="L46" t="s">
+        <v>380</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>310</v>
+      </c>
+      <c r="O46" t="s">
+        <v>78</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>367</v>
+      </c>
+      <c r="X46" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>382</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>383</v>
+      </c>
+      <c r="J47" t="s">
+        <v>384</v>
+      </c>
+      <c r="K47" t="s">
+        <v>385</v>
+      </c>
+      <c r="L47" t="s">
+        <v>386</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>310</v>
+      </c>
+      <c r="O47" t="s">
+        <v>78</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>367</v>
+      </c>
+      <c r="X47" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>388</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>389</v>
+      </c>
+      <c r="J48" t="s">
+        <v>390</v>
+      </c>
+      <c r="K48" t="s">
+        <v>391</v>
+      </c>
+      <c r="L48" t="s">
+        <v>392</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>275</v>
+      </c>
+      <c r="O48" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>367</v>
+      </c>
+      <c r="X48" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>394</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>395</v>
+      </c>
+      <c r="J49" t="s">
+        <v>396</v>
+      </c>
+      <c r="K49" t="s">
+        <v>397</v>
+      </c>
+      <c r="L49" t="s">
+        <v>398</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>275</v>
+      </c>
+      <c r="O49" t="s">
+        <v>99</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>367</v>
+      </c>
+      <c r="X49" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>401</v>
+      </c>
+      <c r="J50" t="s">
+        <v>402</v>
+      </c>
+      <c r="K50" t="s">
+        <v>403</v>
+      </c>
+      <c r="L50" t="s">
+        <v>404</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>275</v>
+      </c>
+      <c r="O50" t="s">
+        <v>99</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>405</v>
+      </c>
+      <c r="X50" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>408</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>409</v>
+      </c>
+      <c r="J51" t="s">
+        <v>410</v>
+      </c>
+      <c r="K51" t="s">
+        <v>411</v>
+      </c>
+      <c r="L51" t="s">
+        <v>412</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>275</v>
+      </c>
+      <c r="O51" t="s">
+        <v>99</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>405</v>
+      </c>
+      <c r="X51" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>414</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>415</v>
+      </c>
+      <c r="J52" t="s">
+        <v>416</v>
+      </c>
+      <c r="K52" t="s">
+        <v>417</v>
+      </c>
+      <c r="L52" t="s">
+        <v>418</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>275</v>
+      </c>
+      <c r="O52" t="s">
+        <v>99</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>405</v>
+      </c>
+      <c r="X52" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>420</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>421</v>
+      </c>
+      <c r="J53" t="s">
+        <v>422</v>
+      </c>
+      <c r="K53" t="s">
+        <v>423</v>
+      </c>
+      <c r="L53" t="s">
+        <v>424</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>425</v>
+      </c>
+      <c r="X53" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>428</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>429</v>
+      </c>
+      <c r="J54" t="s">
+        <v>430</v>
+      </c>
+      <c r="K54" t="s">
+        <v>431</v>
+      </c>
+      <c r="L54" t="s">
+        <v>432</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>433</v>
+      </c>
+      <c r="O54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>434</v>
+      </c>
+      <c r="X54" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>437</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>438</v>
+      </c>
+      <c r="J55" t="s">
+        <v>439</v>
+      </c>
+      <c r="K55" t="s">
+        <v>440</v>
+      </c>
+      <c r="L55" t="s">
+        <v>441</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>442</v>
+      </c>
+      <c r="O55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>443</v>
+      </c>
+      <c r="X55" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>447</v>
+      </c>
+      <c r="J56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K56" t="s">
+        <v>449</v>
+      </c>
+      <c r="L56" t="s">
+        <v>450</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>433</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>451</v>
+      </c>
+      <c r="X56" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>454</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>455</v>
+      </c>
+      <c r="J57" t="s">
+        <v>456</v>
+      </c>
+      <c r="K57" t="s">
+        <v>457</v>
+      </c>
+      <c r="L57" t="s">
+        <v>458</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>442</v>
+      </c>
+      <c r="O57" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>459</v>
+      </c>
+      <c r="X57" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>462</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>463</v>
+      </c>
+      <c r="J58" t="s">
+        <v>464</v>
+      </c>
+      <c r="K58" t="s">
+        <v>465</v>
+      </c>
+      <c r="L58" t="s">
+        <v>466</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>442</v>
+      </c>
+      <c r="O58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>459</v>
+      </c>
+      <c r="X58" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>468</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>469</v>
+      </c>
+      <c r="J59" t="s">
+        <v>470</v>
+      </c>
+      <c r="K59" t="s">
+        <v>471</v>
+      </c>
+      <c r="L59" t="s">
+        <v>472</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>433</v>
+      </c>
+      <c r="O59" t="s">
+        <v>62</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>473</v>
+      </c>
+      <c r="X59" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>476</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>477</v>
+      </c>
+      <c r="J60" t="s">
+        <v>470</v>
+      </c>
+      <c r="K60" t="s">
+        <v>478</v>
+      </c>
+      <c r="L60" t="s">
+        <v>479</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>433</v>
+      </c>
+      <c r="O60" t="s">
+        <v>87</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>480</v>
+      </c>
+      <c r="X60" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>482</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>483</v>
+      </c>
+      <c r="J61" t="s">
+        <v>484</v>
+      </c>
+      <c r="K61" t="s">
+        <v>485</v>
+      </c>
+      <c r="L61" t="s">
+        <v>486</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>433</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>487</v>
+      </c>
+      <c r="X61" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>490</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>491</v>
+      </c>
+      <c r="J62" t="s">
+        <v>492</v>
+      </c>
+      <c r="K62" t="s">
+        <v>493</v>
+      </c>
+      <c r="L62" t="s">
+        <v>494</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>495</v>
+      </c>
+      <c r="O62" t="s">
+        <v>99</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>496</v>
+      </c>
+      <c r="X62" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>499</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>500</v>
+      </c>
+      <c r="J63" t="s">
+        <v>501</v>
+      </c>
+      <c r="K63" t="s">
+        <v>502</v>
+      </c>
+      <c r="L63" t="s">
+        <v>503</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>495</v>
+      </c>
+      <c r="O63" t="s">
+        <v>99</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>504</v>
+      </c>
+      <c r="X63" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>507</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>508</v>
+      </c>
+      <c r="J64" t="s">
+        <v>509</v>
+      </c>
+      <c r="K64" t="s">
+        <v>510</v>
+      </c>
+      <c r="L64" t="s">
+        <v>511</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>495</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>512</v>
+      </c>
+      <c r="X64" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>515</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>516</v>
+      </c>
+      <c r="J65" t="s">
+        <v>517</v>
+      </c>
+      <c r="K65" t="s">
+        <v>518</v>
+      </c>
+      <c r="L65" t="s">
+        <v>519</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>520</v>
+      </c>
+      <c r="O65" t="s">
+        <v>99</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>521</v>
+      </c>
+      <c r="X65" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_152.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_152.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="868">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,222 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/03/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r612238905-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>10632801</t>
+  </si>
+  <si>
+    <t>612238905</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>EXPENSIVE PARKING!!</t>
+  </si>
+  <si>
+    <t>The good: -great location,- friendly staff, - nice rooms.The bad:  -very expensive parking ($38/night). No cheaper option onsite.  Valet said nothing cheaper around, but we found LAZ parking 1 block away was $20.  -HVAC is very loud, especially when it starts up. That was poor design planning as the return should have been located next to the front door not the bedroom. - curtains (relatively minor problem) don't close all the way.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>The good: -great location,- friendly staff, - nice rooms.The bad:  -very expensive parking ($38/night). No cheaper option onsite.  Valet said nothing cheaper around, but we found LAZ parking 1 block away was $20.  -HVAC is very loud, especially when it starts up. That was poor design planning as the return should have been located next to the front door not the bedroom. - curtains (relatively minor problem) don't close all the way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r608229882-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>608229882</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location and hotel </t>
+  </si>
+  <si>
+    <t>My husband and I (and infant) had booked an apartment the next block over and the manager changed her mind at the last minute and wouldn’t let us stay there. We were literally on the streets with no where to stay with a baby cooking in the heat. My husband walked into hotel indigo to beg for a room. The lady at the front desk was super nice and understanding and helped us get a room there right away. She even gave us a nicer room since we had such a horrible experience earlier that day. The room was very nice on the corner and large enough to have our infant not see us when she was sleeping. And the location so close to Whole Foods and Union station was perfect!! Unfortunately this hotel only had one night available so we had to pack up all our stuff the next morning. We had 4 large bags since we had a baby and were going to stay a week and I had no idea how I was going to carry all the bags plus a baby, stroller and car seat because My husband was at work. The bellman (Tyler I believe was his name) came up and helped me with all of our bags. He even stored them so my husband could come get them after work. The only complaint I had was we couldn’t stay longer here. Otherwise everyone was...My husband and I (and infant) had booked an apartment the next block over and the manager changed her mind at the last minute and wouldn’t let us stay there. We were literally on the streets with no where to stay with a baby cooking in the heat. My husband walked into hotel indigo to beg for a room. The lady at the front desk was super nice and understanding and helped us get a room there right away. She even gave us a nicer room since we had such a horrible experience earlier that day. The room was very nice on the corner and large enough to have our infant not see us when she was sleeping. And the location so close to Whole Foods and Union station was perfect!! Unfortunately this hotel only had one night available so we had to pack up all our stuff the next morning. We had 4 large bags since we had a baby and were going to stay a week and I had no idea how I was going to carry all the bags plus a baby, stroller and car seat because My husband was at work. The bellman (Tyler I believe was his name) came up and helped me with all of our bags. He even stored them so my husband could come get them after work. The only complaint I had was we couldn’t stay longer here. Otherwise everyone was so nice and helpful! If we ever came back to Denver, this would be where we would stay! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>My husband and I (and infant) had booked an apartment the next block over and the manager changed her mind at the last minute and wouldn’t let us stay there. We were literally on the streets with no where to stay with a baby cooking in the heat. My husband walked into hotel indigo to beg for a room. The lady at the front desk was super nice and understanding and helped us get a room there right away. She even gave us a nicer room since we had such a horrible experience earlier that day. The room was very nice on the corner and large enough to have our infant not see us when she was sleeping. And the location so close to Whole Foods and Union station was perfect!! Unfortunately this hotel only had one night available so we had to pack up all our stuff the next morning. We had 4 large bags since we had a baby and were going to stay a week and I had no idea how I was going to carry all the bags plus a baby, stroller and car seat because My husband was at work. The bellman (Tyler I believe was his name) came up and helped me with all of our bags. He even stored them so my husband could come get them after work. The only complaint I had was we couldn’t stay longer here. Otherwise everyone was...My husband and I (and infant) had booked an apartment the next block over and the manager changed her mind at the last minute and wouldn’t let us stay there. We were literally on the streets with no where to stay with a baby cooking in the heat. My husband walked into hotel indigo to beg for a room. The lady at the front desk was super nice and understanding and helped us get a room there right away. She even gave us a nicer room since we had such a horrible experience earlier that day. The room was very nice on the corner and large enough to have our infant not see us when she was sleeping. And the location so close to Whole Foods and Union station was perfect!! Unfortunately this hotel only had one night available so we had to pack up all our stuff the next morning. We had 4 large bags since we had a baby and were going to stay a week and I had no idea how I was going to carry all the bags plus a baby, stroller and car seat because My husband was at work. The bellman (Tyler I believe was his name) came up and helped me with all of our bags. He even stored them so my husband could come get them after work. The only complaint I had was we couldn’t stay longer here. Otherwise everyone was so nice and helpful! If we ever came back to Denver, this would be where we would stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r608947297-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>608947297</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>NICE HOTEL</t>
+  </si>
+  <si>
+    <t>The hotel was very nice.  Great location right across the street from the union station. Staff was very friendly, hotel was very clean.  Advantage there was a refrigerator in the room which was great for leftovers.  A keurig coffee pot made for better coffee.  Bartender extremely helpful and friendly.  Parking the car was the only negative.  Valet at about $40 a night.  MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was very nice.  Great location right across the street from the union station. Staff was very friendly, hotel was very clean.  Advantage there was a refrigerator in the room which was great for leftovers.  A keurig coffee pot made for better coffee.  Bartender extremely helpful and friendly.  Parking the car was the only negative.  Valet at about $40 a night.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r605788561-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>605788561</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Bad Housekeeping, Unprofessional Front Desk attendant.</t>
+  </si>
+  <si>
+    <t>Two days in a row, our room did not get cleaned. 1st day we did leave late 11am, however when we got back to our room we called housekeeping as we were out of toilet paper, they said it would be done. We left again and at 10pm I had to go get toilet paper and towels from front desk. Next day we left at 8:30 am, came back at 5pm to realize our room was not cleaned so we tracked down housekeeping to clean our room.  While we waited for our room to be cleaned our family sat in chairs by front desk and had to listen to a very loud front desk attendant talk about being propositioned for $.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Two days in a row, our room did not get cleaned. 1st day we did leave late 11am, however when we got back to our room we called housekeeping as we were out of toilet paper, they said it would be done. We left again and at 10pm I had to go get toilet paper and towels from front desk. Next day we left at 8:30 am, came back at 5pm to realize our room was not cleaned so we tracked down housekeeping to clean our room.  While we waited for our room to be cleaned our family sat in chairs by front desk and had to listen to a very loud front desk attendant talk about being propositioned for $.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r604147654-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>604147654</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Out of this world experience &amp; top notch service</t>
+  </si>
+  <si>
+    <t>My family (6 of us in total) and I arrived at the Indigo Hotel around 9:00 pm on July 21st. Welcome and check-in were very professional and effective and handled by Leo and Candice from the front desk. 
+The room are very spacious, cosy, nicely decorated and comfortable. Just what we needed! Moreover, the hotel is located in a particularly nice and convenient downtown location for first time visitors such as ourselves. 
+What was most valuable to us was the quality of service that was given to us. Upon arrival at Denver international airport, we picked up a Suburban at AVIS and found out on our way to the hotel that the air conditioning was not functioning. Ani go for a family of 6 bound for a road-trip across CO, AZ, UT and NV in August! Upon arrival at the hotel, I confirmed with the gentleman at the valet service that there was indeed a malfunction. 
+As I shared my frustration with Leo while checking in, he spontaneously offered his assistance. Since we were jet-lagged he proposed to handle this problem with AVIS while we relaxed. We had dinner at the hotel and Leo came up to me saying that after a rather lengthy browl, AVIS reluctantly agreed to replace our car and that the vehicles would be swapped overnight. The next morning Leo told me that the car had not been replaced and actually took it personally to obtain...My family (6 of us in total) and I arrived at the Indigo Hotel around 9:00 pm on July 21st. Welcome and check-in were very professional and effective and handled by Leo and Candice from the front desk. The room are very spacious, cosy, nicely decorated and comfortable. Just what we needed! Moreover, the hotel is located in a particularly nice and convenient downtown location for first time visitors such as ourselves. What was most valuable to us was the quality of service that was given to us. Upon arrival at Denver international airport, we picked up a Suburban at AVIS and found out on our way to the hotel that the air conditioning was not functioning. Ani go for a family of 6 bound for a road-trip across CO, AZ, UT and NV in August! Upon arrival at the hotel, I confirmed with the gentleman at the valet service that there was indeed a malfunction. As I shared my frustration with Leo while checking in, he spontaneously offered his assistance. Since we were jet-lagged he proposed to handle this problem with AVIS while we relaxed. We had dinner at the hotel and Leo came up to me saying that after a rather lengthy browl, AVIS reluctantly agreed to replace our car and that the vehicles would be swapped overnight. The next morning Leo told me that the car had not been replaced and actually took it personally to obtain the promised replacement car that we needed to begin our family road-trip in the US. We ultimately got the car replaced around noon, which probably would not have been the case without Leo’s active and passionate assistance. Leo is iconic of the service we got at the Indigo Hotel in Denver. My frustration became his the moment he understood my stress and disappointment about the abusive attitude of AVIS. Without my asking anything, he made my fight his fight and got this ugly monkey off my back while my family and I were sleeping and recovering from the long trip from France. Kudos to him and to his dedication to customers. This is a lengthy review but during my career I have travelled the world and the seven sees. Never before have I witnessed such a level of service and dedication from a hotel front desk employee. Besides the fact that all other employees we interacted with were brillant and professional, the Indigo Hotel is just perfect. I hope the general manager realizes and acknowledges the high quality of his staff and the incredible value they add to customers. Cherry on the cake: as I departed and settled my bill, Leo announced me that he would not charge me for parking. I tried to argue that my car problem was not his and that I should pay but nothing would do. Leo definitely made sure that when I return to Denver, there will be only one Hotel in my mind: the Indigo!!!In short, I am sorry I can only give 5 stars to the Indigo Hotel ! It deserves many more!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>My family (6 of us in total) and I arrived at the Indigo Hotel around 9:00 pm on July 21st. Welcome and check-in were very professional and effective and handled by Leo and Candice from the front desk. 
+The room are very spacious, cosy, nicely decorated and comfortable. Just what we needed! Moreover, the hotel is located in a particularly nice and convenient downtown location for first time visitors such as ourselves. 
+What was most valuable to us was the quality of service that was given to us. Upon arrival at Denver international airport, we picked up a Suburban at AVIS and found out on our way to the hotel that the air conditioning was not functioning. Ani go for a family of 6 bound for a road-trip across CO, AZ, UT and NV in August! Upon arrival at the hotel, I confirmed with the gentleman at the valet service that there was indeed a malfunction. 
+As I shared my frustration with Leo while checking in, he spontaneously offered his assistance. Since we were jet-lagged he proposed to handle this problem with AVIS while we relaxed. We had dinner at the hotel and Leo came up to me saying that after a rather lengthy browl, AVIS reluctantly agreed to replace our car and that the vehicles would be swapped overnight. The next morning Leo told me that the car had not been replaced and actually took it personally to obtain...My family (6 of us in total) and I arrived at the Indigo Hotel around 9:00 pm on July 21st. Welcome and check-in were very professional and effective and handled by Leo and Candice from the front desk. The room are very spacious, cosy, nicely decorated and comfortable. Just what we needed! Moreover, the hotel is located in a particularly nice and convenient downtown location for first time visitors such as ourselves. What was most valuable to us was the quality of service that was given to us. Upon arrival at Denver international airport, we picked up a Suburban at AVIS and found out on our way to the hotel that the air conditioning was not functioning. Ani go for a family of 6 bound for a road-trip across CO, AZ, UT and NV in August! Upon arrival at the hotel, I confirmed with the gentleman at the valet service that there was indeed a malfunction. As I shared my frustration with Leo while checking in, he spontaneously offered his assistance. Since we were jet-lagged he proposed to handle this problem with AVIS while we relaxed. We had dinner at the hotel and Leo came up to me saying that after a rather lengthy browl, AVIS reluctantly agreed to replace our car and that the vehicles would be swapped overnight. The next morning Leo told me that the car had not been replaced and actually took it personally to obtain the promised replacement car that we needed to begin our family road-trip in the US. We ultimately got the car replaced around noon, which probably would not have been the case without Leo’s active and passionate assistance. Leo is iconic of the service we got at the Indigo Hotel in Denver. My frustration became his the moment he understood my stress and disappointment about the abusive attitude of AVIS. Without my asking anything, he made my fight his fight and got this ugly monkey off my back while my family and I were sleeping and recovering from the long trip from France. Kudos to him and to his dedication to customers. This is a lengthy review but during my career I have travelled the world and the seven sees. Never before have I witnessed such a level of service and dedication from a hotel front desk employee. Besides the fact that all other employees we interacted with were brillant and professional, the Indigo Hotel is just perfect. I hope the general manager realizes and acknowledges the high quality of his staff and the incredible value they add to customers. Cherry on the cake: as I departed and settled my bill, Leo announced me that he would not charge me for parking. I tried to argue that my car problem was not his and that I should pay but nothing would do. Leo definitely made sure that when I return to Denver, there will be only one Hotel in my mind: the Indigo!!!In short, I am sorry I can only give 5 stars to the Indigo Hotel ! It deserves many more!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r603616178-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>603616178</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Great staff and hotel</t>
+  </si>
+  <si>
+    <t>The staff went out of their way to make sure we were happy, and enjoyed our stay. Rooms were clean, comfortable bed! Are a great breakfast at the hotel..Alvarado toast.. outstanding! Didn’t have a chance to hit the bar, but it looked great! Thanks IndigoMoreShow less</t>
+  </si>
+  <si>
+    <t>The staff went out of their way to make sure we were happy, and enjoyed our stay. Rooms were clean, comfortable bed! Are a great breakfast at the hotel..Alvarado toast.. outstanding! Didn’t have a chance to hit the bar, but it looked great! Thanks IndigoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r602768293-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>602768293</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Hotel was well placed in the LODO area of Downtown Denver. Easy to get to Union Station whether for travel or restaurants and entertainment. Staff was amazing and so helpful particularly in check in  . Very friendly and very professional. Nothing was top much bother. Modern good feel rooms too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Hotel was well placed in the LODO area of Downtown Denver. Easy to get to Union Station whether for travel or restaurants and entertainment. Staff was amazing and so helpful particularly in check in  . Very friendly and very professional. Nothing was top much bother. Modern good feel rooms too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r598408310-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>598408310</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Way overpriced for what you get</t>
+  </si>
+  <si>
+    <t>I stayed at Hotel Indigo with my husband for a weekend getaway to a concert at Coors Field.  We chose this hotel as it was close to the venue and we love staying at unique properties.  Well, let me tell you, this property was unique all right.
+Here's what you get for the premium price:
+- Rooms are tiny.  Like, microhotel tiny.  We stayed at the nearby Crawford Hotel at Union Station at the holidays for the same price with twice the square footage.  I get that this is a 'thing' now, but if you want to charge these rates for rooms this small, give customers a reason to stay here.
+- HVAC is TOO loud.  I felt like I was staying at a Motel 6.  The noise was what I would expect from an older property, not one barely a year old.
+- Lighting and power in the room is klugey.  There are three switches at the door.  One of them controls all lighting.  Oh, but there are a couple of lights that also seem to be controlled by this switch.  Nothing like turning the lights on at 2am because you need to use the restroom and  there's no way to not turn them
+- Room looked unfinished and not in a good way.  Exposed concrete ceiling.  Weird exposed concrete beam between the tiny windows.  I would not want to stay here with a child.
+-. Staff is insincere...I stayed at Hotel Indigo with my husband for a weekend getaway to a concert at Coors Field.  We chose this hotel as it was close to the venue and we love staying at unique properties.  Well, let me tell you, this property was unique all right.Here's what you get for the premium price:- Rooms are tiny.  Like, microhotel tiny.  We stayed at the nearby Crawford Hotel at Union Station at the holidays for the same price with twice the square footage.  I get that this is a 'thing' now, but if you want to charge these rates for rooms this small, give customers a reason to stay here.- HVAC is TOO loud.  I felt like I was staying at a Motel 6.  The noise was what I would expect from an older property, not one barely a year old.- Lighting and power in the room is klugey.  There are three switches at the door.  One of them controls all lighting.  Oh, but there are a couple of lights that also seem to be controlled by this switch.  Nothing like turning the lights on at 2am because you need to use the restroom and  there's no way to not turn them- Room looked unfinished and not in a good way.  Exposed concrete ceiling.  Weird exposed concrete beam between the tiny windows.  I would not want to stay here with a child.-. Staff is insincere and came across as fake. Check-in was fast, but the girl didn't need to make an issue about me giving a different card at check-in (apparently I confused her.). Got put on hold for five minutes the first time I called to get a room service menu, and while I hung up and called a second time to get the menu, nobody ever left one in the room.In all seriousness, maybe I'm not the target market.  Maybe if I were 20 years younger, I wouldn't care so much.  But, the fact is I do care where my money goes when I travel.  If I'm going to pay a premium for a room, I expect a step or two over a budget hotel.  Aveda amenities are nice, but not worth what I paid via the official hotel website.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at Hotel Indigo with my husband for a weekend getaway to a concert at Coors Field.  We chose this hotel as it was close to the venue and we love staying at unique properties.  Well, let me tell you, this property was unique all right.
+Here's what you get for the premium price:
+- Rooms are tiny.  Like, microhotel tiny.  We stayed at the nearby Crawford Hotel at Union Station at the holidays for the same price with twice the square footage.  I get that this is a 'thing' now, but if you want to charge these rates for rooms this small, give customers a reason to stay here.
+- HVAC is TOO loud.  I felt like I was staying at a Motel 6.  The noise was what I would expect from an older property, not one barely a year old.
+- Lighting and power in the room is klugey.  There are three switches at the door.  One of them controls all lighting.  Oh, but there are a couple of lights that also seem to be controlled by this switch.  Nothing like turning the lights on at 2am because you need to use the restroom and  there's no way to not turn them
+- Room looked unfinished and not in a good way.  Exposed concrete ceiling.  Weird exposed concrete beam between the tiny windows.  I would not want to stay here with a child.
+-. Staff is insincere...I stayed at Hotel Indigo with my husband for a weekend getaway to a concert at Coors Field.  We chose this hotel as it was close to the venue and we love staying at unique properties.  Well, let me tell you, this property was unique all right.Here's what you get for the premium price:- Rooms are tiny.  Like, microhotel tiny.  We stayed at the nearby Crawford Hotel at Union Station at the holidays for the same price with twice the square footage.  I get that this is a 'thing' now, but if you want to charge these rates for rooms this small, give customers a reason to stay here.- HVAC is TOO loud.  I felt like I was staying at a Motel 6.  The noise was what I would expect from an older property, not one barely a year old.- Lighting and power in the room is klugey.  There are three switches at the door.  One of them controls all lighting.  Oh, but there are a couple of lights that also seem to be controlled by this switch.  Nothing like turning the lights on at 2am because you need to use the restroom and  there's no way to not turn them- Room looked unfinished and not in a good way.  Exposed concrete ceiling.  Weird exposed concrete beam between the tiny windows.  I would not want to stay here with a child.-. Staff is insincere and came across as fake. Check-in was fast, but the girl didn't need to make an issue about me giving a different card at check-in (apparently I confused her.). Got put on hold for five minutes the first time I called to get a room service menu, and while I hung up and called a second time to get the menu, nobody ever left one in the room.In all seriousness, maybe I'm not the target market.  Maybe if I were 20 years younger, I wouldn't care so much.  But, the fact is I do care where my money goes when I travel.  If I'm going to pay a premium for a room, I expect a step or two over a budget hotel.  Aveda amenities are nice, but not worth what I paid via the official hotel website.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r596413737-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
-    <t>33388</t>
-  </si>
-  <si>
-    <t>10632801</t>
-  </si>
-  <si>
     <t>596413737</t>
   </si>
   <si>
@@ -174,16 +378,13 @@
     <t>Spent three nights here and liked the location which is less than 5 minute walk to Union Station and short walking distance to Larimer Square and the 16th Street Mall.  My only complaint was having to wait to get my room beyond the check in time and the fact that there are no glasses in the room.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2018</t>
   </si>
   <si>
     <t>Spent three nights here and liked the location which is less than 5 minute walk to Union Station and short walking distance to Larimer Square and the 16th Street Mall.  My only complaint was having to wait to get my room beyond the check in time and the fact that there are no glasses in the room.More</t>
@@ -225,15 +426,66 @@
     <t>The location of this hotel can’t be beat. Walking distance to a large Whole Foods, CVS and the Union Train Station in Downtown Denver. Cons:-hotel is new, but dusty. Not cared for well.- No safe in the room-Turndown service = making the bed and taking out trash in the trash can. Any other trash on the floor, shampoos and towels were not picked up or replenished. - forgot my iPhone charger and called hotel. Said they would check and call me back in 15 minutes. It’s been 3 days-restaurant - Hearth and Dram is understaffed and always empty. Tried to go down for a cocktail and they told us they were closed. 30 minutes earlier than they told us at breakfast in the morningPros:-free coffee in lobby-dog friendly-great location-friendly receptionistsMoreShow less</t>
   </si>
   <si>
-    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2018</t>
   </si>
   <si>
     <t>The location of this hotel can’t be beat. Walking distance to a large Whole Foods, CVS and the Union Train Station in Downtown Denver. Cons:-hotel is new, but dusty. Not cared for well.- No safe in the room-Turndown service = making the bed and taking out trash in the trash can. Any other trash on the floor, shampoos and towels were not picked up or replenished. - forgot my iPhone charger and called hotel. Said they would check and call me back in 15 minutes. It’s been 3 days-restaurant - Hearth and Dram is understaffed and always empty. Tried to go down for a cocktail and they told us they were closed. 30 minutes earlier than they told us at breakfast in the morningPros:-free coffee in lobby-dog friendly-great location-friendly receptionistsMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r593050402-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>593050402</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>I was really shocked at how poorly kept this hotel was.  It looks like it should be new and shiny, but it's going to be run down in short order if management doesn't step in.  There was trash on the floor of the room (little bits of plastic and paper), the seal on the shower door was torn so it dragged when you opened/closed door, hair all over the shower, the bathroom door was obviously not cleaned behind in the closed position (it's a sliding barn door type), thick layer of dust all over including ice bucket and tongs, coffee grounds around the Keurig machine that were there when we checked-in and never wiped up (I gave up on housekeeping and cleaned it up myself), and the elevators were never wiped down during our stay.  The greasy handprints on the outside doors and inside stayed put.  Towels varied in quality with some threadbare and stained.  Room service trays were left in the hall for long periods of time.The location is great with lots of places in easy walking distance.  The bed was comfy, but obviously, I question its cleanliness based on how everything else was kept.  Wouldn't stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I was really shocked at how poorly kept this hotel was.  It looks like it should be new and shiny, but it's going to be run down in short order if management doesn't step in.  There was trash on the floor of the room (little bits of plastic and paper), the seal on the shower door was torn so it dragged when you opened/closed door, hair all over the shower, the bathroom door was obviously not cleaned behind in the closed position (it's a sliding barn door type), thick layer of dust all over including ice bucket and tongs, coffee grounds around the Keurig machine that were there when we checked-in and never wiped up (I gave up on housekeeping and cleaned it up myself), and the elevators were never wiped down during our stay.  The greasy handprints on the outside doors and inside stayed put.  Towels varied in quality with some threadbare and stained.  Room service trays were left in the hall for long periods of time.The location is great with lots of places in easy walking distance.  The bed was comfy, but obviously, I question its cleanliness based on how everything else was kept.  Wouldn't stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r591020576-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>591020576</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Very disappointed</t>
+  </si>
+  <si>
+    <t>I really don't know where to start. My daughter &amp; I picked Indigo because of great reviews and moderate pricing. We were very greeted with a room that just wasn't clean! There were not enough outlets for our multiple devices. The housecleaning staff on our floor were not pleasant however when we called for a missing item they were quick to respond &amp; even bought a smile! I've stayed in a lot of hotels but I've never seen the room number written on the ceiling! Maybe there was some damage &amp; the material(ceiling replacement section)  had been marked?? The bathroom ceiling looked as though there was an attemp to repair that just was poorly done. I can't remember everything that I was displeased about &amp; in fact I rarely submit a review so I didn't make a list. Front desk, concierge, bell captain, valet &amp; club room attendant were all great! It would be a nice place to stay if I didn't want to stay in a guest room or take a shower. I would never recommend Hotel Indigo PERIODMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
+  </si>
+  <si>
+    <t>I really don't know where to start. My daughter &amp; I picked Indigo because of great reviews and moderate pricing. We were very greeted with a room that just wasn't clean! There were not enough outlets for our multiple devices. The housecleaning staff on our floor were not pleasant however when we called for a missing item they were quick to respond &amp; even bought a smile! I've stayed in a lot of hotels but I've never seen the room number written on the ceiling! Maybe there was some damage &amp; the material(ceiling replacement section)  had been marked?? The bathroom ceiling looked as though there was an attemp to repair that just was poorly done. I can't remember everything that I was displeased about &amp; in fact I rarely submit a review so I didn't make a list. Front desk, concierge, bell captain, valet &amp; club room attendant were all great! It would be a nice place to stay if I didn't want to stay in a guest room or take a shower. I would never recommend Hotel Indigo PERIODMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r590440268-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -249,12 +501,6 @@
     <t>Hotel Indigo on Downtown Denver is a favorite of my husband and I! Very clean  and very modern hotel, quick and friendly arrival process, (Ashely was great!). Very easy access from union station, and few grocery stores close by make this a great location! We will be back! MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 25, 2018</t>
   </si>
   <si>
@@ -276,12 +522,6 @@
     <t>We planned a 2 night trip to Denver and were comparing hotels Downtown which was our choice for location. From the moment we arrived at Hotel Indigo I knew we chose the perfect place to stay. The hotel is friendly (very welcoming staff and we loved the beautiful dog who greeted us immediately) mixed with a trendy, fresh and minimalist décor. We requested a room away from the elevator and were very pleased at how quiet our room was despite all of the construction going on around the hotel. We were out of the hotel the majority of our stay (really only came back to sleep) so I cant comment on room service or other amenities but there is no question this is my go to hotel when I return to Denver. We walked all around Downtown and we loved the very short and easy walk to Union Station as they had some of our top restaurant choices. We stopped at the onsite restaurant, Hearth and Dram, for a late lunch our first day and weren't thrilled with our food but the wine was awesome. Service was average so we opted not to go back for breakfast the next day. This was not a big deal to us so I don't really view that as a reflection of our experience. Definitely choose Hotel Indigo for your next Denver visit!MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>We planned a 2 night trip to Denver and were comparing hotels Downtown which was our choice for location. From the moment we arrived at Hotel Indigo I knew we chose the perfect place to stay. The hotel is friendly (very welcoming staff and we loved the beautiful dog who greeted us immediately) mixed with a trendy, fresh and minimalist décor. We requested a room away from the elevator and were very pleased at how quiet our room was despite all of the construction going on around the hotel. We were out of the hotel the majority of our stay (really only came back to sleep) so I cant comment on room service or other amenities but there is no question this is my go to hotel when I return to Denver. We walked all around Downtown and we loved the very short and easy walk to Union Station as they had some of our top restaurant choices. We stopped at the onsite restaurant, Hearth and Dram, for a late lunch our first day and weren't thrilled with our food but the wine was awesome. Service was average so we opted not to go back for breakfast the next day. This was not a big deal to us so I don't really view that as a reflection of our experience. Definitely choose Hotel Indigo for your next Denver visit!More</t>
   </si>
   <si>
@@ -300,6 +540,78 @@
     <t>The restaurant was a bit pricey. We stayed here in order to catch the train to the airport for an early flight out. Wow, it was just a stones throw from there so it worked out very well for us. The room was clean, the shower was huge and very clean overall. Highly recommendMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r589131954-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>589131954</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Modern and welcoming</t>
+  </si>
+  <si>
+    <t>Very impressed with this hotel. So many modern “trendy” hotels are just a cover for cutting corners...not here. Hotel is extremely well constructed, my room was right across from the elevator but I didn’t hear any noise from other guests, the elevator, the street or etc.! What a great surprise to get a restful nights sleep on the road! Thank you for not cutting corners!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Very impressed with this hotel. So many modern “trendy” hotels are just a cover for cutting corners...not here. Hotel is extremely well constructed, my room was right across from the elevator but I didn’t hear any noise from other guests, the elevator, the street or etc.! What a great surprise to get a restful nights sleep on the road! Thank you for not cutting corners!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r587526916-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>587526916</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Lovely new hotel perfect for a short stay</t>
+  </si>
+  <si>
+    <t>My partner and I were travelling with our 16 year old daughter and we stayed here for 1 night only as we were just passing through. The hotel was new and modern. Our room was compact but well appointed with 2 comfy queen size beds. The bathroom was fresh and clean with lots of toiletries. The location was just over the road from the train station which was excellent as we caught the train from Denver airport (which is quite a way away from the city) and handy for our train trip early the next morning. Even though it was located right next to the train station, we couldn’t hear any noise. The view from our room was great of Downtown Denver! The is a free bus that runs around area which is very handy. Would not recommend the bus at night though as the homeless tend to stay on the bus and approach you for money. There were heaps of restaurants, bars and convenience stores around, so you won’t go hungry! Even though there is a restaurant down stairs, it was quite expensive. The free wifi was fast and reliable! Thank you for a wonderful quick stopover!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>My partner and I were travelling with our 16 year old daughter and we stayed here for 1 night only as we were just passing through. The hotel was new and modern. Our room was compact but well appointed with 2 comfy queen size beds. The bathroom was fresh and clean with lots of toiletries. The location was just over the road from the train station which was excellent as we caught the train from Denver airport (which is quite a way away from the city) and handy for our train trip early the next morning. Even though it was located right next to the train station, we couldn’t hear any noise. The view from our room was great of Downtown Denver! The is a free bus that runs around area which is very handy. Would not recommend the bus at night though as the homeless tend to stay on the bus and approach you for money. There were heaps of restaurants, bars and convenience stores around, so you won’t go hungry! Even though there is a restaurant down stairs, it was quite expensive. The free wifi was fast and reliable! Thank you for a wonderful quick stopover!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r587419829-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>587419829</t>
+  </si>
+  <si>
+    <t>Decent Option for Downtown Denver</t>
+  </si>
+  <si>
+    <t>I recently spent a weekend here while visiting Denver. The location is great, it's a 3 minute walk from Union Station, and an easy 10 minute Walk to Coors Field. There are lots of good and fun bars and restaurants right there at Union Station, and it's an easy walk to the 16th Street Mall for another great set of bars/restaurants.The entrance was a bit hard to find as I walked over from Union Station, I actually walked past it initially and had to track back. Some better signage would help.The rooms are decent-sized and come with all the amenities you would expect at an upscale hotel. The shower was a little too funky for me (there was a drain right in the middle that hurt my foot a bit the first time I accidentally stepped into it, and overall I thought the bathroom was a bit on the small side.I didn't eat at the on-site restaurant, but it was packed for dinner service on Friday night and walking past it I could see that they have a quite extensive whiskey selection if that's your thing.For the price and location, this is a decent option for downtown Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>I recently spent a weekend here while visiting Denver. The location is great, it's a 3 minute walk from Union Station, and an easy 10 minute Walk to Coors Field. There are lots of good and fun bars and restaurants right there at Union Station, and it's an easy walk to the 16th Street Mall for another great set of bars/restaurants.The entrance was a bit hard to find as I walked over from Union Station, I actually walked past it initially and had to track back. Some better signage would help.The rooms are decent-sized and come with all the amenities you would expect at an upscale hotel. The shower was a little too funky for me (there was a drain right in the middle that hurt my foot a bit the first time I accidentally stepped into it, and overall I thought the bathroom was a bit on the small side.I didn't eat at the on-site restaurant, but it was packed for dinner service on Friday night and walking past it I could see that they have a quite extensive whiskey selection if that's your thing.For the price and location, this is a decent option for downtown Denver.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r586157260-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -315,9 +627,6 @@
     <t>Hotel location was great..walking distance from many spots—Union Station, Denver Art Museum, Whole Foods...Mini refrigerators in room.. big plus. Heath &amp; Dram great restaurant on site. Valets were extremely helpful. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 10, 2018</t>
   </si>
   <si>
@@ -366,6 +675,48 @@
     <t>I was not expecting much from the looks of the outside of the building.  Entrance was a little confusing.  Once in the door everything was top class.  Lobby area warm and inviting and everyone was friendly.  It was nice to see the General Manager out talking to guests.  My room was modern, clean with plenty of space, large TVs and great views of city.  The hotel is in easy walking distance to almost every venue downtown.  Make sure you visit the restaurant off the lobby.  Hearth and Dram, good food and great service.  the reuben was tasty and Chase was top notch.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r578383725-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>578383725</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Quick trip</t>
+  </si>
+  <si>
+    <t>At check in, I was so impressed, the lobby is high ceilings, soft lighting, small amount of seating. The staff a young lady is African decent checked us in, and she was absolutely the most delightful person, helpful, happy, got us a corner room with a great view. I would stay there again for sure. Oh and very very quiet. Shower floor is a it slippery for my liking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>At check in, I was so impressed, the lobby is high ceilings, soft lighting, small amount of seating. The staff a young lady is African decent checked us in, and she was absolutely the most delightful person, helpful, happy, got us a corner room with a great view. I would stay there again for sure. Oh and very very quiet. Shower floor is a it slippery for my liking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r578349733-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>578349733</t>
+  </si>
+  <si>
+    <t>Comfortable and Handy</t>
+  </si>
+  <si>
+    <t>Stopped in Denver on a guy's road trip for rock/fossil collecting and wanted to see the downtown.  Indigo is across the street from Union Station and a stop on the free 6th Street Mall bus.  Very handy for restaurants, shops and entertainment.The room was comfortable, prim and quiet.There is paid parking, with Valet parking costing less than self parking, but when adding a reasonable tip the cost is near equal.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Stopped in Denver on a guy's road trip for rock/fossil collecting and wanted to see the downtown.  Indigo is across the street from Union Station and a stop on the free 6th Street Mall bus.  Very handy for restaurants, shops and entertainment.The room was comfortable, prim and quiet.There is paid parking, with Valet parking costing less than self parking, but when adding a reasonable tip the cost is near equal.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r575539423-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -381,9 +732,6 @@
     <t>Hotel Indigo is within walking distance from the Union.  One can take the the train from &amp; to the airport for $9.00.  We had a corner room with large windows.   The room is modern in design with comfortable beds.  The bathroom is a good size with Aveda toiletries.   Whole Foods Market &amp; many good restaurants are near the hotel.   The free bus to 16th Street Mall is a ten minute walk away.   This is a good hotel &amp; I would stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 26, 2018</t>
   </si>
   <si>
@@ -444,27 +792,73 @@
     <t>We held a business conference here and put up about 25 people for two nights, with good reactions from everyone. The location is not far from Lo Do, nearly adjacent to Union Station, close to the baseball stadium though therefore somewhat distant from the commercial center or state capital building. Building is brand new and feels Scandinavian. The restaurant serves a good breakfast and other meals.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r566377570-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566377570</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Great location and comfy bed</t>
+  </si>
+  <si>
+    <t>Pros:  You can’t beat the location.  This hotel is perfect for a business traveler who doesn’t want or need a car.  I was attending a training in the hotel last week and it was literally 1-2 block from train station.  Just take the A line train until it ends and you are so close!  There is a cvs across the street and Whole Foods very close.  
+The bed was very comfortable and the training we had in the hotel also had wonderful chairs so it wasn’t uncomfortable to be seated all day.  The room has tons of USB ports accessible.  The one meal I ate in the hotel restaurant was quite delicious and the service there is excellent.  Plus this hotel had the sweetest dog in the lobby that was always happy to greet the guests.  
+Cons:  The decor was a bit modern for my taste but I didn’t think it was fair to rate the hotel lower for personal preference.  My barn door to the bathroom kept sliding open but it wasn’t a major issue I guess since I was traveling alone.  Hotel explained they were LEED certified and every day I hung my towels up and every day they were taken and washed instead of allowing me to reuse.  There is no complimentary breakfast in this hotel everything is ala carte.  The attention to the refreshments in the conference were poor.  We ran out of coffee every morning....Pros:  You can’t beat the location.  This hotel is perfect for a business traveler who doesn’t want or need a car.  I was attending a training in the hotel last week and it was literally 1-2 block from train station.  Just take the A line train until it ends and you are so close!  There is a cvs across the street and Whole Foods very close.  The bed was very comfortable and the training we had in the hotel also had wonderful chairs so it wasn’t uncomfortable to be seated all day.  The room has tons of USB ports accessible.  The one meal I ate in the hotel restaurant was quite delicious and the service there is excellent.  Plus this hotel had the sweetest dog in the lobby that was always happy to greet the guests.  Cons:  The decor was a bit modern for my taste but I didn’t think it was fair to rate the hotel lower for personal preference.  My barn door to the bathroom kept sliding open but it wasn’t a major issue I guess since I was traveling alone.  Hotel explained they were LEED certified and every day I hung my towels up and every day they were taken and washed instead of allowing me to reuse.  There is no complimentary breakfast in this hotel everything is ala carte.  The attention to the refreshments in the conference were poor.  We ran out of coffee every morning.  Make sure to check your invoice when checking out I was charged for a $5 bottle of water I never drank.  All in all I would still love to stay here again.  I just think staying somewhere so long for day and night makes you see all the things that bother you also.  These are all minor issues.  A great location and comfy bed for sure make up for it!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Pros:  You can’t beat the location.  This hotel is perfect for a business traveler who doesn’t want or need a car.  I was attending a training in the hotel last week and it was literally 1-2 block from train station.  Just take the A line train until it ends and you are so close!  There is a cvs across the street and Whole Foods very close.  
+The bed was very comfortable and the training we had in the hotel also had wonderful chairs so it wasn’t uncomfortable to be seated all day.  The room has tons of USB ports accessible.  The one meal I ate in the hotel restaurant was quite delicious and the service there is excellent.  Plus this hotel had the sweetest dog in the lobby that was always happy to greet the guests.  
+Cons:  The decor was a bit modern for my taste but I didn’t think it was fair to rate the hotel lower for personal preference.  My barn door to the bathroom kept sliding open but it wasn’t a major issue I guess since I was traveling alone.  Hotel explained they were LEED certified and every day I hung my towels up and every day they were taken and washed instead of allowing me to reuse.  There is no complimentary breakfast in this hotel everything is ala carte.  The attention to the refreshments in the conference were poor.  We ran out of coffee every morning....Pros:  You can’t beat the location.  This hotel is perfect for a business traveler who doesn’t want or need a car.  I was attending a training in the hotel last week and it was literally 1-2 block from train station.  Just take the A line train until it ends and you are so close!  There is a cvs across the street and Whole Foods very close.  The bed was very comfortable and the training we had in the hotel also had wonderful chairs so it wasn’t uncomfortable to be seated all day.  The room has tons of USB ports accessible.  The one meal I ate in the hotel restaurant was quite delicious and the service there is excellent.  Plus this hotel had the sweetest dog in the lobby that was always happy to greet the guests.  Cons:  The decor was a bit modern for my taste but I didn’t think it was fair to rate the hotel lower for personal preference.  My barn door to the bathroom kept sliding open but it wasn’t a major issue I guess since I was traveling alone.  Hotel explained they were LEED certified and every day I hung my towels up and every day they were taken and washed instead of allowing me to reuse.  There is no complimentary breakfast in this hotel everything is ala carte.  The attention to the refreshments in the conference were poor.  We ran out of coffee every morning.  Make sure to check your invoice when checking out I was charged for a $5 bottle of water I never drank.  All in all I would still love to stay here again.  I just think staying somewhere so long for day and night makes you see all the things that bother you also.  These are all minor issues.  A great location and comfy bed for sure make up for it!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r564400947-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>564400947</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Great find</t>
+  </si>
+  <si>
+    <t>I'm Platinum with IHG, Marriott and Diamond with Hilton ... so yes I live half my life in and out of hotels for work.My wife and I stayed here recently when we went to Denver to catch an AVs game.  This hidden gem is a place we will definitely go to again.   The modern vibe in the lobby is over shadowed by the awesome bar/restaurant.   The bar has that classy all dark wood with to many bottles of bourbon to count.  The bar tenders where prompt, friendly and offered good recommendations.  The scene was trendy and so were the patrons.The location is right off the Union station next to brand new condos and shopping.  It was a 5 minute walk to Pepsi Center.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>I'm Platinum with IHG, Marriott and Diamond with Hilton ... so yes I live half my life in and out of hotels for work.My wife and I stayed here recently when we went to Denver to catch an AVs game.  This hidden gem is a place we will definitely go to again.   The modern vibe in the lobby is over shadowed by the awesome bar/restaurant.   The bar has that classy all dark wood with to many bottles of bourbon to count.  The bar tenders where prompt, friendly and offered good recommendations.  The scene was trendy and so were the patrons.The location is right off the Union station next to brand new condos and shopping.  It was a 5 minute walk to Pepsi Center.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r564317052-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
     <t>564317052</t>
   </si>
   <si>
-    <t>03/04/2018</t>
-  </si>
-  <si>
     <t>Quietest hotel room I have ever stayed in</t>
   </si>
   <si>
     <t>My husband and I spent the night at the Hotel Indigo last night and we will definitely return. It is conveniently located by Union Station and offers valet parking that is actually cheaper than self-parking. The desk clerk who checked us in was friendly, attentive and thorough. I loved that he explained how the energy efficient lighting works in the rooms before we went upstairs. The room itself was small and simply decorated - it is a little disconcerting that there are sections of wall and the entire ceiling is bare cement, but it did not matter because it was the quietest room I have ever had. Our room was right by the elevators, so I was concerned about noise. We never heard anyone getting on or off the elevator. We never heard other guests' doors slamming. It was amazing. The bed was comfortable, there was plenty of hot water, and there was a Keurig coffee maker right in the room so we actually had a decent cup of coffee first thing in the morning. I highly recommend this hotel if you are visiting Denver.MoreShow less</t>
   </si>
   <si>
-    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded March 6, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 6, 2018</t>
-  </si>
-  <si>
     <t>My husband and I spent the night at the Hotel Indigo last night and we will definitely return. It is conveniently located by Union Station and offers valet parking that is actually cheaper than self-parking. The desk clerk who checked us in was friendly, attentive and thorough. I loved that he explained how the energy efficient lighting works in the rooms before we went upstairs. The room itself was small and simply decorated - it is a little disconcerting that there are sections of wall and the entire ceiling is bare cement, but it did not matter because it was the quietest room I have ever had. Our room was right by the elevators, so I was concerned about noise. We never heard anyone getting on or off the elevator. We never heard other guests' doors slamming. It was amazing. The bed was comfortable, there was plenty of hot water, and there was a Keurig coffee maker right in the room so we actually had a decent cup of coffee first thing in the morning. I highly recommend this hotel if you are visiting Denver.More</t>
   </si>
   <si>
@@ -483,9 +877,6 @@
     <t>Location, location, location.....convenient to most areas of downtown and if you fly in, you can now take the train to Union Station and walk one block to your hotel.  In fact, from now on we will either take the train and pick up our car downtown (without the huge airport fees) or use one of the car services for remote travel (Uber or Lyft.)We also noticed that there is a sister hotel to the Indigo in Union Station that is branded Kimpton but beware that there are many homeless folks utilizing the water and services inside Union Station.  There is a police presence there but if having street people around at all times is a problem for you, this would not be the place - stick with the Indigo.  Safe Travels!MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>Location, location, location.....convenient to most areas of downtown and if you fly in, you can now take the train to Union Station and walk one block to your hotel.  In fact, from now on we will either take the train and pick up our car downtown (without the huge airport fees) or use one of the car services for remote travel (Uber or Lyft.)We also noticed that there is a sister hotel to the Indigo in Union Station that is branded Kimpton but beware that there are many homeless folks utilizing the water and services inside Union Station.  There is a police presence there but if having street people around at all times is a problem for you, this would not be the place - stick with the Indigo.  Safe Travels!More</t>
   </si>
   <si>
@@ -513,6 +904,57 @@
     <t>Thank you to the very kind valet attendant Kevin Genter! I had a very important meeting downtown and was extremely stressed and nervous about it... Kevin was kind and professional and helped me a great deal! Thanks Kevin! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r559573372-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>559573372</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Convenient, stylish and comfortable</t>
+  </si>
+  <si>
+    <t>The hotel is just by Denver's Union station which makes it super convenient for arrival (by train) from the airport and for an early start to catch a train (in our case the Zephyr Express) the next morning.The environment is cool and stylish, the bedrooms comfortable and, by the standards of what you would expect from a London hotel under the same chain, ridiculously large and good value for money. The Union Station area is cool and vibrant and there are plenty of places to eat within walking distance. All in all it is difficult to see why anyone on this budget would go anywhere else..MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is just by Denver's Union station which makes it super convenient for arrival (by train) from the airport and for an early start to catch a train (in our case the Zephyr Express) the next morning.The environment is cool and stylish, the bedrooms comfortable and, by the standards of what you would expect from a London hotel under the same chain, ridiculously large and good value for money. The Union Station area is cool and vibrant and there are plenty of places to eat within walking distance. All in all it is difficult to see why anyone on this budget would go anywhere else..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r558311422-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>558311422</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>No Indigo again</t>
+  </si>
+  <si>
+    <t>The bed was nice. The shower had no water pressure and the sink was clogged. With the amount the room cost it could have had a decent shower and sink. Also no cell phone reception in the room. It is an old concrete building. The front desk people were awesome and the valet. But I would not spend that kind of money again at this establishment. MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>The bed was nice. The shower had no water pressure and the sink was clogged. With the amount the room cost it could have had a decent shower and sink. Also no cell phone reception in the room. It is an old concrete building. The front desk people were awesome and the valet. But I would not spend that kind of money again at this establishment. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r555803583-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -528,9 +970,6 @@
     <t>Friendly check in at about noon into an acessible bedroom with a good bathroom.  Sadly the wash sink was not accessible for a wheelchair user.  Also the wardrobe could not be used by a person in a wheelchair.The room was allowed for turning in a wheelchair and was comfortable.  Location by the train station was perfect with restaurants and supermarkets close by.MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded January 24, 2018</t>
   </si>
   <si>
@@ -588,6 +1027,54 @@
     <t>I loved staying at this hotel. Rooms were large and there is convenient valet parking. Elevator is very fast moving. Restaurant was okay. I didn't go to the bar. Staff was friendly, and housekeepers were on time with our requests. Located right across from Union Station, shopping, restaurants, and grocery store. I thoroughly enjoyed my stay here, as it was my first time visiting CO.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r550219849-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>550219849</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Brand new and in a great public transport location</t>
+  </si>
+  <si>
+    <t>Hotel Indigo is right next to Union Station (rail and bus), the start of the 16th Street Mail free bus service and a Whole Foods Store! It a couple of blocks walk to the bars and restaurants in 16th Street.On the negative side there is a lot of building work happening close to the hotel some of which looks like it will run way through 2018.Wasn't disturbed by building work unlike the air conditioning in the room which seemed impossible to totally turn off...We were in a suite with huge windows which gave us lots of space. Strangely the television was in the bedroom limiting the use of the lounge...there was also no safe deposit box or robes...The hotel team couldn't have been more helpful especially at reception..The hotel is only a year old and so MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Hotel Indigo is right next to Union Station (rail and bus), the start of the 16th Street Mail free bus service and a Whole Foods Store! It a couple of blocks walk to the bars and restaurants in 16th Street.On the negative side there is a lot of building work happening close to the hotel some of which looks like it will run way through 2018.Wasn't disturbed by building work unlike the air conditioning in the room which seemed impossible to totally turn off...We were in a suite with huge windows which gave us lots of space. Strangely the television was in the bedroom limiting the use of the lounge...there was also no safe deposit box or robes...The hotel team couldn't have been more helpful especially at reception..The hotel is only a year old and so More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r548268634-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548268634</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent Service from the Valet Department</t>
+  </si>
+  <si>
+    <t>I just wanted to leave a kind review regarding the professionalism and dedication that both Kevin and Derek showed me during my stay.  They were both polite, and caring during an event that really showed how Hotel Indigo Denver Downtown is head and shoulders above those in the region.  Simply exemplary!MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>I just wanted to leave a kind review regarding the professionalism and dedication that both Kevin and Derek showed me during my stay.  They were both polite, and caring during an event that really showed how Hotel Indigo Denver Downtown is head and shoulders above those in the region.  Simply exemplary!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r547875106-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -657,6 +1144,51 @@
     <t>My family used one of our free IHG nights to stay here during a summer vacation and we loved the modern feel and the views of the city we had. We were in a corner room and we had a great view of Coors Field - one of our destinations. We walked everywhere we went downtown - including the baseball stadium - because the hotel is so conveniently located. Since it's so new, everything was fresh and the place looked immaculate. I'd love to stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r544231776-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>544231776</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>The hotel is in the downtown. Close to very good restaurants and amenities. It’s pricey but clean and tidy. Make sure that you room is on the far end side of the construction site. It might get quite noisy otherwise. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded December 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is in the downtown. Close to very good restaurants and amenities. It’s pricey but clean and tidy. Make sure that you room is on the far end side of the construction site. It might get quite noisy otherwise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r543834193-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>543834193</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Just can’t get enough!</t>
+  </si>
+  <si>
+    <t>I was blown away by the customer service at this hotel. The way we were immediately greeted at valet by Nate was reassuring that we were staying at the right spot. He was so prompt to wave and guide us through the valet lot and welcome us to our hotel. I’m a firm believer in first impressions and he most definitely delivered!! Even took our bags out of the vehicle and brought them to the room as we were starving and wanted to eat right away after check in. He even greeted others as he was still taking care of us.. Talk about pride and multi-tasking, that guy has it all! The front desk was on top of everything and had us checked in after only a couple minutes and we were on our way. We were greeted every time we walked through the doors and felt very welcome. The rooms are exquisite and dainty with huge windows and one of the most comfy beds I’ve ever slept in. Room service was on point, who ever took care of us definitely loves their job! Beyond pleased, we now come every week and chose this hotel as our go to for business trips. Thank You to all of the staff who have consistently delivered. See you soon!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was blown away by the customer service at this hotel. The way we were immediately greeted at valet by Nate was reassuring that we were staying at the right spot. He was so prompt to wave and guide us through the valet lot and welcome us to our hotel. I’m a firm believer in first impressions and he most definitely delivered!! Even took our bags out of the vehicle and brought them to the room as we were starving and wanted to eat right away after check in. He even greeted others as he was still taking care of us.. Talk about pride and multi-tasking, that guy has it all! The front desk was on top of everything and had us checked in after only a couple minutes and we were on our way. We were greeted every time we walked through the doors and felt very welcome. The rooms are exquisite and dainty with huge windows and one of the most comfy beds I’ve ever slept in. Room service was on point, who ever took care of us definitely loves their job! Beyond pleased, we now come every week and chose this hotel as our go to for business trips. Thank You to all of the staff who have consistently delivered. See you soon!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r541034147-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -672,9 +1204,6 @@
     <t>We really enjoyed our stay here.  Great location.  We drove but other family flew in and took the train from the airport to Union Station.  It's only about a block from Union Station and a short walk to 16th Street Mall and Larimer Square. We even walked to the Capitol but there are free buses that run back and forth for those not that ambitious.   Bed was very comfortable (one of the best beds I have slept in in a hotel).  I spent a couple hours in the fitness center and was very satisfied with it (it's surprisingly hard to find fitness centers up to my standards in hotels).  I also liked the rustic/industrial decor.  Clean.  Would recommend.MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded November 21, 2017</t>
   </si>
   <si>
@@ -723,27 +1252,63 @@
     <t>New hotel and very close to the railway station which is convenient to the airport. Was OK. They must not be short of water because I had to run it for ever to get hot water. Exercise room had some treadmills, ellipticals and free weights etc., so pretty standard.  Could use a couple more mats. The breakfast 'omelette' tasted like it was not real eggs- insipid was my description.  I had oatmeal the other days, which was 'OK'.  The service at breakfast was very slow (not enough staff?), so leave plenty of time. The restaurant dinner menu was a bit 'precious' - overcomplicated with weird combinations- fortunately they had  hanger steak which was very good.  Wine selection was small and not very interesting. On the other hand the beer and whiskey selection was excellent and the bar sandwich menu had an excellent steak sandwich.  Apparently the burger at the bar is also good.  Maybe the message is stay with the bar menu!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r539494631-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>539494631</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Can't Beat the Location</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights to catch some baseball games and a football game with a friend. Great Stay! The rooms were new and very modern! Beds were super comfortable and rooms were super clean! I found the housekeepers were all very friendly and would always stop to say hello! The Front Desk was not as friendly but they were not rude by any means. If you did not approach them they would not go out of their way to say hello but I wouldn't say that is not a reason to stay at the hotel. I would definitely recommend staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights to catch some baseball games and a football game with a friend. Great Stay! The rooms were new and very modern! Beds were super comfortable and rooms were super clean! I found the housekeepers were all very friendly and would always stop to say hello! The Front Desk was not as friendly but they were not rude by any means. If you did not approach them they would not go out of their way to say hello but I wouldn't say that is not a reason to stay at the hotel. I would definitely recommend staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r533867876-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>533867876</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Perfect location to explore downtown Denver</t>
+  </si>
+  <si>
+    <t>Spacious rooms, super clean, comfy beds/pillows, quiet &amp; convenient location. Pleasant staff/valet, etc. Would definitely stay there again. Only complaint was one of the valet guys that took our vehicle wasn’t able to drive a manual transmission, ended up parking for him. Not a huge deal, kinda funny actually! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Spacious rooms, super clean, comfy beds/pillows, quiet &amp; convenient location. Pleasant staff/valet, etc. Would definitely stay there again. Only complaint was one of the valet guys that took our vehicle wasn’t able to drive a manual transmission, ended up parking for him. Not a huge deal, kinda funny actually! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r533838310-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
     <t>533838310</t>
   </si>
   <si>
-    <t>10/17/2017</t>
-  </si>
-  <si>
     <t>Very convenient</t>
   </si>
   <si>
     <t>We recently stayed at this hotel for a few days while in Denver. The biggest thing it has going for it is location.  A three minute walk to Union Station means that you can center your trip around public transportation.  The RTD train to/from the airport is $9/way and is extremely convenient (and yes, they do check for tickets by walking up and down the aisles on the train!). You can also walk to 16th street and catch the free shuttle that runs up and down it. There are loads of restaurants in the area (dinner at the Wynkoop Brewing Company was good), and being able to walk 5 min to the King Soopers grocery store allowed us to stock up on bottled water instead of succumbing to the $4 bottles provided in the rooms. A new Whole Foods and CVS will open in a few weeks just steps away, which is a bonus. Overall a good stay. The only downside was that even when followed-up on and requested, the room was never serviced/cleaned. MoreShow less</t>
   </si>
   <si>
-    <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded October 30, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 30, 2017</t>
-  </si>
-  <si>
     <t>We recently stayed at this hotel for a few days while in Denver. The biggest thing it has going for it is location.  A three minute walk to Union Station means that you can center your trip around public transportation.  The RTD train to/from the airport is $9/way and is extremely convenient (and yes, they do check for tickets by walking up and down the aisles on the train!). You can also walk to 16th street and catch the free shuttle that runs up and down it. There are loads of restaurants in the area (dinner at the Wynkoop Brewing Company was good), and being able to walk 5 min to the King Soopers grocery store allowed us to stock up on bottled water instead of succumbing to the $4 bottles provided in the rooms. A new Whole Foods and CVS will open in a few weeks just steps away, which is a bonus. Overall a good stay. The only downside was that even when followed-up on and requested, the room was never serviced/cleaned. More</t>
   </si>
   <si>
@@ -780,9 +1345,6 @@
     <t>Booked the hotel with 3 months notice however arrived at the hotel to be told I couldn't check in as they were overbooked. Whilst I was waiting for a manager to come and offer an explanation, further guests were arriving and checking in. It therefore obviously wasn't based on a first come first served basis; I am interested to know why it was me who got bumped, rather than someone else. No manager prepared to speak to me either in person, nor on the phone. Unacceptable. They had not contacted me, nor considered what I was going to do for the night, basically they were prepared to leave me to sort it out myself, with no accommodation.Hotel Indigo you have lost a customer, I will never book with you again and encourage others to take note of this review.MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>Aaron W, Front Office Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded September 14, 2017</t>
   </si>
   <si>
@@ -790,6 +1352,42 @@
   </si>
   <si>
     <t>Booked the hotel with 3 months notice however arrived at the hotel to be told I couldn't check in as they were overbooked. Whilst I was waiting for a manager to come and offer an explanation, further guests were arriving and checking in. It therefore obviously wasn't based on a first come first served basis; I am interested to know why it was me who got bumped, rather than someone else. No manager prepared to speak to me either in person, nor on the phone. Unacceptable. They had not contacted me, nor considered what I was going to do for the night, basically they were prepared to leave me to sort it out myself, with no accommodation.Hotel Indigo you have lost a customer, I will never book with you again and encourage others to take note of this review.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r522979282-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>522979282</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Union Station Area</t>
+  </si>
+  <si>
+    <t>We chose this for location.  Right next to union station, a 40 minute ride to DIA.  A few blocks from Coors field.  Everything we needed in our hotel.  Polite staff, easy check-in, clean rooms, excellent sleep quality.  An attached bar &amp; restaurant, which we only had a beverage at, very nice also.  We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this for location.  Right next to union station, a 40 minute ride to DIA.  A few blocks from Coors field.  Everything we needed in our hotel.  Polite staff, easy check-in, clean rooms, excellent sleep quality.  An attached bar &amp; restaurant, which we only had a beverage at, very nice also.  We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r522448799-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>522448799</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Modern Hotel in Great Location</t>
+  </si>
+  <si>
+    <t>Beautiful modern minimalist hotel in lower downtown Denver.  Extremely helpful staff and relaxing bar/restaurant.  Love the lobby dog!  Hotel Indigo is close to Coors Field, Union Station, Wynkoop Brewery and Tattered Cover Bookstore. The rooms are very comfortable and not fussy.  I will stay at Hotel Indigo on my next visit to Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful modern minimalist hotel in lower downtown Denver.  Extremely helpful staff and relaxing bar/restaurant.  Love the lobby dog!  Hotel Indigo is close to Coors Field, Union Station, Wynkoop Brewery and Tattered Cover Bookstore. The rooms are very comfortable and not fussy.  I will stay at Hotel Indigo on my next visit to Denver.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r522065180-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
@@ -857,6 +1455,39 @@
 After check-in, our first afternoon in Denver involved site seeing along the mile long MALLRIDE which is a FREE shuttle bus making a loop from Union Station to the State Capital building grounds and back again with only 5 minute wait times at any corner along the route. There is every kind of food and shopping up and down the mall. The steps at the Capital building allow a photo op on 1 specific, and well marked, step which places you at exactly 1 Mile High Above Sea Level! There's the US Mint and...A leisurely train ride through the Rocky Mountains had been a dream of mine for years and I never had the time or the opportunity until May 2017. Arriving in Denver airport I connected with my old college buddy for a jam-packed, fun-filled, 3 night adventure centered on a round trip excursion to Glenwood Springs, but the Hotel Indigo, 1801 Wewatta St, was our starting point. From the airport, we hopped the new electric train connection to Denver's downtown Union station, a modest $9 each and strolled about a block to our first night hotel stay at the Hotel Indigo. The staff was ready with our room, they were pleasant and cheerful. The room was excellent and nicely quiet for a large, urban, city center. The art in the lobby is modern and the Hearth &amp; Dram is an excellent respite for good food and drink. After check-in, our first afternoon in Denver involved site seeing along the mile long MALLRIDE which is a FREE shuttle bus making a loop from Union Station to the State Capital building grounds and back again with only 5 minute wait times at any corner along the route. There is every kind of food and shopping up and down the mall. The steps at the Capital building allow a photo op on 1 specific, and well marked, step which places you at exactly 1 Mile High Above Sea Level! There's the US Mint and the Denver Museum of Modern Art. On and off the MALLRIDE bus all afternoon can be huge fun and highly entertaining. An unusually late snowfall greeted us on the following morning in Denver as departed the Hotel Indigo and we boarded the California Zephyr headed West to Glenwood Springs. The train ride ascending the mountains out of Denver was an actual winter wonderland of fresh snowfall, fluffy and soft, filling the branches of fir and pine trees just a few feet from our train window. Upward we climbed with a brief stop at the Winter Park Resort in Fraser CO. Up and over the continental divide through 11 train tunnels or various lengths and between mountain walls of sheer rock face climbing out of sight we rode all the while enjoying the beauty from the observation car with fresh hot snacks and cold beverages. As we began to descend the western slope of the continental divide, now rolling along with the streams that would turn into rivers headed for the great Pacific ocean, we began to escape the snowfall that had descended upon Denver earlier that morning and when we stepped off the Zephyr in early afternoon, the sky was bright, sunny and in the 70's. Time for sunglasses as we headed to check in at Glenwood Hot Springs Lodge, 415 E 6th St. The greatest way to shake off a day of travel, even if Amtrak had done all the driving, is to relax in the 100+ degree hot spring pool and watch the stars come out in Glenwood. We ate a delicious breakfast of freshly made omelets with sides of fresh fruit and oatmeal before we set out to tackle the sights, thrills and daredevil rides at Glenwood Caverns Adventure Park,51000 Two Rivers Plaza Rd. The caverns and park are reached by boarding an aerial tram gondola that carries you to the top of the Iron Mountain which dominates the entire north side of the city of Glenwood Springs at 7,160 ft. We rode the first alpine coaster in the United States there, formally named Canyon Flyer which is a near-neck snapping, switch-back, hair-pin turn thrill ride down the side of Iron Mountain as well taking in several other great sights and adventure. Finally it was back to the Union Station depot by midday to catch the east bound California Zephyr for a leisurely ride back to Denver in time for dinner. Not only are the views from the Amtrak train spectacular, being able to drink deeply from the scenery without dodging the trucks and traffic on the interstate highway system is the sweetest joy of the journey. The cost for the Amtrak ride, round trip, for both my college buddy and me combined was actually less than a single nights stay at either of our hotels. One simply cannot beat the superb comfort, amenities, freedom of movement and incredible scenery at an amazingly affordable price on Amtrak through the Rocky Mountains. I highly recommend these hotels and this trip if you need a scenic Rocky Mountain getaway.Avoiding traffic hassles is a primary plus for the Hotel Indigo, because it is downtown within walking distance of Union Station, Amtrak, the electric train to the airport and the Free MALLRIDE bus shuttle. Why risk driving in the madness that is currently Denver’s traffic when you can vacation in luxury and ease with extensive access to all the restaurants , entertainments and high spirits available in downtown Denver by staying at the Hotel Indigo?More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r518423205-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>518423205</t>
+  </si>
+  <si>
+    <t>Modern hotel, lacks persinality</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights. The beds are comfortable, but the room sizes are quite small. Convenient location to train station. The bottom floors are used as commercial space and also the top floors. Hotel floors are 5-8. The lobby area doesn't offer any seating areas other than a few chairs. The hotel is new, but it offers no frillsMoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights. The beds are comfortable, but the room sizes are quite small. Convenient location to train station. The bottom floors are used as commercial space and also the top floors. Hotel floors are 5-8. The lobby area doesn't offer any seating areas other than a few chairs. The hotel is new, but it offers no frillsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r517832464-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>517832464</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>New, low rates, and nice design touches</t>
+  </si>
+  <si>
+    <t>When we tend to be in Denver, in August most years, hotels near Union Station downtown often have absurdly high rates.  So it was again this year, until I came across the Indigo.  The staff are very well trained and very personable and helpful.  Our room had thoughtful touches--plenty of electrical outlets next to the nightstand where you need them, very cool art (including a framed print with its own light), and a shower knob near the entrance to the shower, not right underneath it (why isn't that more common?????).  The bed was very comfortable, and we took advantage of the nicely equipped exercise room.  The rates were very reasonable as well.  That may be related to the fact that the hotel is on the edge of a massive development that is still under construction.  Despite that, it was not any noisier than other hotels in the area.  The only thing remotely amiss during our stay was that the hallways were absolutely freezing. But we had a fine stay and will be happy to stay at the Indigo again.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we tend to be in Denver, in August most years, hotels near Union Station downtown often have absurdly high rates.  So it was again this year, until I came across the Indigo.  The staff are very well trained and very personable and helpful.  Our room had thoughtful touches--plenty of electrical outlets next to the nightstand where you need them, very cool art (including a framed print with its own light), and a shower knob near the entrance to the shower, not right underneath it (why isn't that more common?????).  The bed was very comfortable, and we took advantage of the nicely equipped exercise room.  The rates were very reasonable as well.  That may be related to the fact that the hotel is on the edge of a massive development that is still under construction.  Despite that, it was not any noisier than other hotels in the area.  The only thing remotely amiss during our stay was that the hallways were absolutely freezing. But we had a fine stay and will be happy to stay at the Indigo again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r515367407-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -909,6 +1540,48 @@
   </si>
   <si>
     <t>Off the plane and into the train. Off the train, across the platform, cross the street and into the hotel. Great hotel too. Cool design. Excellent welcome and service. Wi-Fi like it should be. Close to rail, bus shuttles for downtown, restaurants etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r511104453-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>511104453</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Surprise of a hotel</t>
+  </si>
+  <si>
+    <t>We wanted to stay near the train station for an early morning departure and this place was ideal. Denver is a very lovely city with lots of pedestrian friendly ways of getting around. The train station is a gem and walking from there to the Indigo was very easy. The Indigo is new and fresh and even though there was construction all around, it's incredibly quiet. Lots of nice restaurants and excellent coffee places nearby and a short run to the river trail. The staff are outstandingly friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>We wanted to stay near the train station for an early morning departure and this place was ideal. Denver is a very lovely city with lots of pedestrian friendly ways of getting around. The train station is a gem and walking from there to the Indigo was very easy. The Indigo is new and fresh and even though there was construction all around, it's incredibly quiet. Lots of nice restaurants and excellent coffee places nearby and a short run to the river trail. The staff are outstandingly friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r510776782-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>510776782</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Quirky but had an unfinished feel</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the hotel, and it had a quirky vibe to it, which we enjoyed. (On a side note, their "no smoking" sign in the room was the highlight of our stay!) The decor made us feel like the rooms weren't quite finished yet. In particular, the ceiling had a cement warehouse look to it. That, coupled with spartan lighting, gave the room an impersonal feel. We're normally used to the faux-home feel of most hotels. So this was different, but I didn't feel like it worked well.
+Other people have mentioned the construction, but that didn't bother us at all. Our room overlooked a massive construction site, but it didn't disturb our sleep at all. The bed was comfortable, the walls were thick and the curtain didn't let any light in. You would never know until walked outside.
+We stayed here and walked across the platform over the railroad tracks to have dinner and see the Rockies at Coors Field. It wasn't a long walk at all, and we felt safe, even at 11pm at night. On the map, it looked like we were farther from the action than we actually were.
+So overall, a nice experience. I'd recommend a little more decoration and better lighting in the rooms. Maybe some nicer wall colors. Something that made the rooms feel a little warmer and homier than they are now. For what we needed... a place to...We enjoyed our stay at the hotel, and it had a quirky vibe to it, which we enjoyed. (On a side note, their "no smoking" sign in the room was the highlight of our stay!) The decor made us feel like the rooms weren't quite finished yet. In particular, the ceiling had a cement warehouse look to it. That, coupled with spartan lighting, gave the room an impersonal feel. We're normally used to the faux-home feel of most hotels. So this was different, but I didn't feel like it worked well.Other people have mentioned the construction, but that didn't bother us at all. Our room overlooked a massive construction site, but it didn't disturb our sleep at all. The bed was comfortable, the walls were thick and the curtain didn't let any light in. You would never know until walked outside.We stayed here and walked across the platform over the railroad tracks to have dinner and see the Rockies at Coors Field. It wasn't a long walk at all, and we felt safe, even at 11pm at night. On the map, it looked like we were farther from the action than we actually were.So overall, a nice experience. I'd recommend a little more decoration and better lighting in the rooms. Maybe some nicer wall colors. Something that made the rooms feel a little warmer and homier than they are now. For what we needed... a place to get a good night's sleep near the ballpark... it worked for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the hotel, and it had a quirky vibe to it, which we enjoyed. (On a side note, their "no smoking" sign in the room was the highlight of our stay!) The decor made us feel like the rooms weren't quite finished yet. In particular, the ceiling had a cement warehouse look to it. That, coupled with spartan lighting, gave the room an impersonal feel. We're normally used to the faux-home feel of most hotels. So this was different, but I didn't feel like it worked well.
+Other people have mentioned the construction, but that didn't bother us at all. Our room overlooked a massive construction site, but it didn't disturb our sleep at all. The bed was comfortable, the walls were thick and the curtain didn't let any light in. You would never know until walked outside.
+We stayed here and walked across the platform over the railroad tracks to have dinner and see the Rockies at Coors Field. It wasn't a long walk at all, and we felt safe, even at 11pm at night. On the map, it looked like we were farther from the action than we actually were.
+So overall, a nice experience. I'd recommend a little more decoration and better lighting in the rooms. Maybe some nicer wall colors. Something that made the rooms feel a little warmer and homier than they are now. For what we needed... a place to...We enjoyed our stay at the hotel, and it had a quirky vibe to it, which we enjoyed. (On a side note, their "no smoking" sign in the room was the highlight of our stay!) The decor made us feel like the rooms weren't quite finished yet. In particular, the ceiling had a cement warehouse look to it. That, coupled with spartan lighting, gave the room an impersonal feel. We're normally used to the faux-home feel of most hotels. So this was different, but I didn't feel like it worked well.Other people have mentioned the construction, but that didn't bother us at all. Our room overlooked a massive construction site, but it didn't disturb our sleep at all. The bed was comfortable, the walls were thick and the curtain didn't let any light in. You would never know until walked outside.We stayed here and walked across the platform over the railroad tracks to have dinner and see the Rockies at Coors Field. It wasn't a long walk at all, and we felt safe, even at 11pm at night. On the map, it looked like we were farther from the action than we actually were.So overall, a nice experience. I'd recommend a little more decoration and better lighting in the rooms. Maybe some nicer wall colors. Something that made the rooms feel a little warmer and homier than they are now. For what we needed... a place to get a good night's sleep near the ballpark... it worked for us.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r506529475-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
@@ -994,6 +1667,54 @@
 Overall not one of the best Indigo hotels I have stayed in. I...I am a fan of Indigo brand as they are normally modern, sometimes a bit quirky and in my experience the service is generally very good.The Indigo in Denver is new, in fact I think is not yet completed. It is surrounded by major construction activity which didn't disturb from a noise point of view but you are very aware of it if you go in any direction around the town.The style for me didn't work, I was nota  fan of the bare concrete ceiling and pillars in the room, it looks and feels industrial. The aircon was fierce and noisy. No breakfast buffet it is all cooked to order and is a fairly limited menu. That said it tasted good and prices were reasonable.There is restaurant on site which is also a fairly lively bar. Food was nice but you should make sure you have a reservation as it gets busy. If you area whiskey drinker this is heaven as they have around 300 different brands for you to try.Easy walking access to Union Station, less than 5 minutes. Easy walking access to Coors stadium, perhaps 15 minutes, likewise only 10 minutes walk to 16th St Mall. Reasonable size fitness room on site. Good, reliable and free WiFi.Very little recognition for IHG members or perks, not even a free bottle of water!Overall not one of the best Indigo hotels I have stayed in. I think it will get better and once the construction work around it is complete it should be very nice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r502954493-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>502954493</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>New!</t>
+  </si>
+  <si>
+    <t>Great hotel- clean and new. Only drawback was nearby construction- bring ear plugs if you want to sleep in. Mini fridge, big tv, and  comfy beds. Located a few minutes from union station. Has hbo, which was important for the Game of Thrones debut. MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel- clean and new. Only drawback was nearby construction- bring ear plugs if you want to sleep in. Mini fridge, big tv, and  comfy beds. Located a few minutes from union station. Has hbo, which was important for the Game of Thrones debut. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r502643763-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>502643763</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Convenient Hip Hotel</t>
+  </si>
+  <si>
+    <t>Great location near Union Station and Coors Field.   The hotel is modern, the rooms are well appointed, and Barker (although having a lazy day when we arrived) was there to greet us.  Check in and check out were handled very efficiently, and the valet staff was great too.  Overall---pleased with the hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Great location near Union Station and Coors Field.   The hotel is modern, the rooms are well appointed, and Barker (although having a lazy day when we arrived) was there to greet us.  Check in and check out were handled very efficiently, and the valet staff was great too.  Overall---pleased with the hotelMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r501061972-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1060,6 +1781,42 @@
     <t>cool area.  good restaurants within 5 min walk.  can catch train from airport, right to union station and walk to hotel.  convenient. room was nice. beds comfortable. hotel was cool.  hip, chic restaurant/bar downstairs.  decent value for money.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r497347549-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>497347549</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>liked location</t>
+  </si>
+  <si>
+    <t>had one night to fill before a trip to fort collins for a friends graduation. Rode train from airport to union station, then walked to hotel.  Hotel was fine, clean, comfortable.  Room was small, no tub.  Adjacent restaurant very good, felt dinner overpriced, but breakfast delicious and worth the $MoreShow less</t>
+  </si>
+  <si>
+    <t>had one night to fill before a trip to fort collins for a friends graduation. Rode train from airport to union station, then walked to hotel.  Hotel was fine, clean, comfortable.  Room was small, no tub.  Adjacent restaurant very good, felt dinner overpriced, but breakfast delicious and worth the $More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r497278800-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>497278800</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because it was close to the ball park and Union Station.  The rooms were nice and new but I think next time I would stay at The Crawford Hotel.  It might have been cheaper and actually in Union Station.  I was very impressed with Denver and the whole are being revitalized.  There is A LOT of construction down there right now but we would definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because it was close to the ball park and Union Station.  The rooms were nice and new but I think next time I would stay at The Crawford Hotel.  It might have been cheaper and actually in Union Station.  I was very impressed with Denver and the whole are being revitalized.  There is A LOT of construction down there right now but we would definitely return.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r496020828-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1120,25 +1877,64 @@
     <t>The hotel is quite nice and located next to the rail station. That makes travel from the airport to central Denver quite easy. The staff is friendly and accommodating. Prices are comparable with other quality hotels in downtown Denver. They have a nice restaurant with reasonable prices. Parking is made easy with valet service. The construction of the hotel means that the rooms are temperature controlled and the noise of the city is non-existent. There is also a nice ambassador ready to greet you when you arrive, Barkly the dog! He is a nice golden retriever who brings a smile to weary travelers. I would recommend the hotel to people visiting Denver.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r494881030-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>494881030</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Gorgeous Hotel!</t>
+  </si>
+  <si>
+    <t>When my husband and I were searching for a place to stay for our anniversary trip, the hip decor and beautiful design was what won us over to try Hotel Indigo. I arrived with high hopes and was not disappointed! Lovely hotel with gorgeous design and amazing comfort. I could not have been happier. The staff was friendly and inviting. We had a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>When my husband and I were searching for a place to stay for our anniversary trip, the hip decor and beautiful design was what won us over to try Hotel Indigo. I arrived with high hopes and was not disappointed! Lovely hotel with gorgeous design and amazing comfort. I could not have been happier. The staff was friendly and inviting. We had a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r494037880-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>494037880</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>This quaint hotel is in the best location, right out of Union Station and walking distance to downtown!  Warm greeting by Barkly, the hotel dog and the amazing staff!  The hotel itself has a great vibe;  the entrance is beautiful with a impressive sculpture and hardwood floors.  The ceilings in the room are concrete, bathrooms sleek and we had a great view of the city and ballpark!  The room was super clean, the hotel staff amazing and the location perfect!  We look forward to returning!MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>This quaint hotel is in the best location, right out of Union Station and walking distance to downtown!  Warm greeting by Barkly, the hotel dog and the amazing staff!  The hotel itself has a great vibe;  the entrance is beautiful with a impressive sculpture and hardwood floors.  The ceilings in the room are concrete, bathrooms sleek and we had a great view of the city and ballpark!  The room was super clean, the hotel staff amazing and the location perfect!  We look forward to returning!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r493969709-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
     <t>493969709</t>
   </si>
   <si>
-    <t>06/18/2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cold and not friendly </t>
   </si>
   <si>
     <t>I'm an IHG reward member and stayed at the Staybridge Suites in Co Springs for a week prior to coming to Denver for a night. The friendliness and consideration was vastly different than our stay in Co Springs. While the hotel Indigo provides valet service and a downtown option in Denver, the front staff did not acknowledge me as an IHG member. They didn't offer the wifi password upon check in. The check in area was very cold and not inviting at all. Contemporary hotel with sleek decor inside the room and very comfortable beds and sheets. Beautiful bar area and a restaurant on site. Only a few blocks from union station and Coors Field. But without good customer service I would not return!! It seemed very uppity/snooty and cold! MoreShow less</t>
-  </si>
-  <si>
-    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded June 19, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 19, 2017</t>
   </si>
   <si>
     <t>I'm an IHG reward member and stayed at the Staybridge Suites in Co Springs for a week prior to coming to Denver for a night. The friendliness and consideration was vastly different than our stay in Co Springs. While the hotel Indigo provides valet service and a downtown option in Denver, the front staff did not acknowledge me as an IHG member. They didn't offer the wifi password upon check in. The check in area was very cold and not inviting at all. Contemporary hotel with sleek decor inside the room and very comfortable beds and sheets. Beautiful bar area and a restaurant on site. Only a few blocks from union station and Coors Field. But without good customer service I would not return!! It seemed very uppity/snooty and cold! More</t>
@@ -1206,6 +2002,42 @@
 Because you're so close to Union Station, you can take a $4.50/each way trip to Boulder on a super clean, nice bus.  You can also get to the airport for $9/each way.  So much better...I'll be honest: based on some of the reviews here, I looked for another hotel because I was worried about the construction.  I'm SO glad I didn't change our reservation!CONSTRUCTIONSo about that construction: we stayed during the week and a weekend, and neither of us could hear any construction noise.  Yes, there is a little sidewalk diversion due to the construction, but nothing we haven't seen in NYC/London/DC on a regular basis, and it was not inconvenient at all.BATHROOM DOORMuch has also been written about the bathroom door, as it is indeed a barn door style that leaves a bit of a gap.  In terms of privacy, it wasn't any worse than a regular door in an older hotel.  I wouldn't let this deter you from booking, although if they could remedy this somehow (bathroom fans? Some sort of caulking?) it'd be nice.LOCATIONThe location is amazing, and we walked to (and liked!) these nearby places:-Snooze in Union Station (maybe the best brunch I've ever had)-Mercantile &amp; Provision in Union Station-Hearth &amp; Dram (in the hotel--try the "Wayne Manor" if you like coffee and/or tequila!)-Forest Room 5 for drinks-Linger for dinner-Little Man Ice CreamBecause you're so close to Union Station, you can take a $4.50/each way trip to Boulder on a super clean, nice bus.  You can also get to the airport for $9/each way.  So much better than a $60 cab ride!We also used the free bus on 16th Street to get near the Art Museum and Capitol and give our feet a rest.ONE THING I'D CHANGEAs another reviewer noted, there are no in-room safes.  I know there are safety deposit boxes at the front desk, but as someone who learned the hard way to lock up prescriptions when traveling, an in-room safe is important to me.BOTTOM LINEAfter staying at the Sheraton Downtown for a conference, this was a clean, light-filled, centrally located, breath of fresh air for us.  If you prefer a modern hotel that makes a great base for adventures in/around Denver (with a dog ambassador and awesome beds!), this is it.  If you prefer a full service hotel with absolutely every amenity, this may not be your best bet.  Overall, we'd highly recommend it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r492270305-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>492270305</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>First time to Denver</t>
+  </si>
+  <si>
+    <t>This hotel was clean and comfortable. The restaurant inside has something like 400 different whiskeys, a small menu, but tasty food. My only complaint would be that the hotel seemed to be understaffed. A handful of time I had to walk around looking for employees. Even the front desk was empty for what seemed to be a long time.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was clean and comfortable. The restaurant inside has something like 400 different whiskeys, a small menu, but tasty food. My only complaint would be that the hotel seemed to be understaffed. A handful of time I had to walk around looking for employees. Even the front desk was empty for what seemed to be a long time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r491509382-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>491509382</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabulous / convenient location </t>
+  </si>
+  <si>
+    <t>Walked from rail station to hotel . Very convenient because I took the rail from airport to downtown.  Beautiful quiet room with a great view and very nice staff.  Clean and nice Aveda toiletries . Would stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Walked from rail station to hotel . Very convenient because I took the rail from airport to downtown.  Beautiful quiet room with a great view and very nice staff.  Clean and nice Aveda toiletries . Would stay here again.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r491001344-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1260,6 +2092,39 @@
     <t>The staff at Hotel Indigo are some of the nicest staff I have encountered at a hotel.  They were all very friendly, helpful, and Barkley and Tigger (doggy mascots for the hotel) were a big hit with my little boy.  We had yummy room service from the restaurant, and our stay was a pleasant experience.  There is construction outside of the hotel, but I was never bothered with noise and the location is great for moving around downtown.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r485887502-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>485887502</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>We stayed on a long weekend. We took the train from the airport and the hotel was a short walk from Union Station. Service was great, we were able to check in early.  Rooms are nice and designed to have a bit of the urban feel.  Yes the ceiling in the room is concrete, but it was designed that way.  I couldn't tell if it was busy or not, we rarely saw other guests in the hallway. There was construction across the street but only during the day and we could barely hear it. Aveda products for the bathroom was a nice surprise.  Great hotel, we would go back. No breakfast, but we found multiple spots close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed on a long weekend. We took the train from the airport and the hotel was a short walk from Union Station. Service was great, we were able to check in early.  Rooms are nice and designed to have a bit of the urban feel.  Yes the ceiling in the room is concrete, but it was designed that way.  I couldn't tell if it was busy or not, we rarely saw other guests in the hallway. There was construction across the street but only during the day and we could barely hear it. Aveda products for the bathroom was a nice surprise.  Great hotel, we would go back. No breakfast, but we found multiple spots close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r485485879-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>485485879</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Super convenient, new hotel with an insane amount of construction going on all around that area.The bar/restaurant is fantastic with a great selection of bourbons/whiskey/rye--a good number of these made in-state.The gym is nice and cardio friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Super convenient, new hotel with an insane amount of construction going on all around that area.The bar/restaurant is fantastic with a great selection of bourbons/whiskey/rye--a good number of these made in-state.The gym is nice and cardio friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r484761575-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1318,6 +2183,57 @@
   </si>
   <si>
     <t>Booked this hotel through Expedia in January to stay near Coors field with my two children for a Rockies game.  Received call through Expedia 2 days prior to my stay that they were oversold and would not honor the reservation.  Forced to scramble and found a hotel 3 times further away from Coors field than Hotel Indigo.You've lost a customer for life, Hotel Indigo.  FELLOW TRAVELER'S BE WARY OF THIS HOTEL!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r480942288-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>480942288</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>A wonderful experience.</t>
+  </si>
+  <si>
+    <t>This is a wonderful place to stay, I highly recommend it. Great access to all the sites to see in downtown. Our room was very nice, the fitness center was wonderful a very nice restaurant. Union Station is in walking distance as well as the 16th Street mall. Also there is a very nice super market around the corner if you are looking for a snack with a Starbucks in it.MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>This is a wonderful place to stay, I highly recommend it. Great access to all the sites to see in downtown. Our room was very nice, the fitness center was wonderful a very nice restaurant. Union Station is in walking distance as well as the 16th Street mall. Also there is a very nice super market around the corner if you are looking for a snack with a Starbucks in it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r477770666-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>477770666</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location </t>
+  </si>
+  <si>
+    <t>Hotel Indigo is conveniently located behind Union Station and is a very short walk to the iconic building. Light rail to the airport is only $9 and it is very easy to locate an uber in the area. While there is quite a bit of construction in and near the hotel, the location is close to many restaurants and bars and only a short walk to the trail along Cherry Creek. Bed was comfortable and the bathroom had all necessities. There is a sliding barn door to the bathroom which is a nice look and compliments the rest of the decor well but makes the bathroom feel less private. Luckily the room is equipped with a Keurig as the only other options for coffee onsite are room service or at the attached restaurant, Hearth and Dram which is sit down only--not a place to grab a cup of coffee to go. The workout facility has new machines and feels spacious. Overall, the hotel has a cool vibe. It's not as luxurious as the Crawford at Union Station, but it is comfortable and more cost effective. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Hotel Indigo is conveniently located behind Union Station and is a very short walk to the iconic building. Light rail to the airport is only $9 and it is very easy to locate an uber in the area. While there is quite a bit of construction in and near the hotel, the location is close to many restaurants and bars and only a short walk to the trail along Cherry Creek. Bed was comfortable and the bathroom had all necessities. There is a sliding barn door to the bathroom which is a nice look and compliments the rest of the decor well but makes the bathroom feel less private. Luckily the room is equipped with a Keurig as the only other options for coffee onsite are room service or at the attached restaurant, Hearth and Dram which is sit down only--not a place to grab a cup of coffee to go. The workout facility has new machines and feels spacious. Overall, the hotel has a cool vibe. It's not as luxurious as the Crawford at Union Station, but it is comfortable and more cost effective. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r477556458-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
@@ -1390,9 +2306,6 @@
     <t>Room and hotel are very 'cool'.  Modern, upscale and trendy.  They clearly prioritize staff as the employees were excellent - although Im not sure I am on board with setting the suspenders trend.I would have preferred to carry my own bag.Gym is small but open all night.Location is great for a fun downtown stay - or at least it will be when the road construction is done.  Right now the comfy new room and excellent bed are nice, but the surrounding construction area and limited parking are significant negatives.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 16, 2017</t>
   </si>
   <si>
@@ -1402,6 +2315,45 @@
     <t>Room and hotel are very 'cool'.  Modern, upscale and trendy.  They clearly prioritize staff as the employees were excellent - although Im not sure I am on board with setting the suspenders trend.I would have preferred to carry my own bag.Gym is small but open all night.Location is great for a fun downtown stay - or at least it will be when the road construction is done.  Right now the comfy new room and excellent bed are nice, but the surrounding construction area and limited parking are significant negatives.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r474261777-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>474261777</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel, Great Location</t>
+  </si>
+  <si>
+    <t>I completed a five day stay at the Indigo recently, and it was fantastic.  Really friendly staff, and the room was great.  There is quite a bit of construction in the immediate area, but the noise wasn't bad and it made for an interesting view.The construction however does make the Indigo a little challenging to find if you're walking from Union Station like I did.  If you exit the station (or your light rail train from the airport) make sure that you're behind Union Station with the light rail tracks between you and the station.  Then walk down the tracks in the same direction that the light rail trains depart.  There is currently construction on your left.  Continue until the construction barricade is gone and you'll see the hotel on your left.  Takes two minutes to walk there.MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>I completed a five day stay at the Indigo recently, and it was fantastic.  Really friendly staff, and the room was great.  There is quite a bit of construction in the immediate area, but the noise wasn't bad and it made for an interesting view.The construction however does make the Indigo a little challenging to find if you're walking from Union Station like I did.  If you exit the station (or your light rail train from the airport) make sure that you're behind Union Station with the light rail tracks between you and the station.  Then walk down the tracks in the same direction that the light rail trains depart.  There is currently construction on your left.  Continue until the construction barricade is gone and you'll see the hotel on your left.  Takes two minutes to walk there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r474247210-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>474247210</t>
+  </si>
+  <si>
+    <t>Awesome Location</t>
+  </si>
+  <si>
+    <t>This place is awesome for a weekend getaway in downtown Denver. It is right next to Union Station and close to all the mass transits needs so getting around Denver and then back to the room was so easy. The bed was so comfortable and the water pressure was great. The amenities are typical and there are only a few floors of rooms completed, the rest of the hotel is being finish so you do have to put up with a bit of construction traffic but it is way worth it. The only complaint we had is that the layout of the bathroom inside the room wasn't that great. There is a "barn" style sliding door that never really closes or locks and that leads to very little privacy, I love my spouse but I do not want to see or hear what is going on in the bathroom while she is in there. The lighting in the bathroom was also bad, not enough light to see what your doing while you're getting ready.Don't get me wrong though, this hotel was awesome and we can't wait to stay there again,MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is awesome for a weekend getaway in downtown Denver. It is right next to Union Station and close to all the mass transits needs so getting around Denver and then back to the room was so easy. The bed was so comfortable and the water pressure was great. The amenities are typical and there are only a few floors of rooms completed, the rest of the hotel is being finish so you do have to put up with a bit of construction traffic but it is way worth it. The only complaint we had is that the layout of the bathroom inside the room wasn't that great. There is a "barn" style sliding door that never really closes or locks and that leads to very little privacy, I love my spouse but I do not want to see or hear what is going on in the bathroom while she is in there. The lighting in the bathroom was also bad, not enough light to see what your doing while you're getting ready.Don't get me wrong though, this hotel was awesome and we can't wait to stay there again,More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r473873819-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1417,12 +2369,6 @@
     <t>Great location next to union station but it appeared newly opened and as yet unfinished as evidenced by the photos. I'm aware of the unfinished concrete style witnessed many times in Tokyo but this isn't it. Coffee cups were dirty front door had damage akin to a forced entry or jimmied. Good price but imagine that will change once fully operational. Voiced our disappointment with the duty manager she offered to add points to our account.MoreShow less</t>
   </si>
   <si>
-    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded April 28, 2017</t>
-  </si>
-  <si>
-    <t>Responded April 28, 2017</t>
-  </si>
-  <si>
     <t>Great location next to union station but it appeared newly opened and as yet unfinished as evidenced by the photos. I'm aware of the unfinished concrete style witnessed many times in Tokyo but this isn't it. Coffee cups were dirty front door had damage akin to a forced entry or jimmied. Good price but imagine that will change once fully operational. Voiced our disappointment with the duty manager she offered to add points to our account.More</t>
   </si>
   <si>
@@ -1466,6 +2412,49 @@
   </si>
   <si>
     <t>I stayed at Hotel Indigo in Naperville, IL in the past and was very impressed, so I chose them again for our Denver business trip. Located in the heart of downtown Denver, this hotel could not be any nicer... the rooms are super clean, modern and new, the beds are extremely comfortable and the rooms are equipped with a keurig! Valet parking is a bit expensive but that's to be expected in a large city. The shower is walk-in and ADA compliant, which made it a little interesting to get used to if you didn't want to sit down while showering - however, the shampoo they supply smells amazing and the water pressure is wonderful! The hotel also offers in-room dining (breakfast and dinner). Their restaurant is located on the first floor and serves all three meals with reasonable prices, so you don't even have to leave the hotel to get a nice meal. 10/10 would recommend this place!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r472892458-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>472892458</t>
+  </si>
+  <si>
+    <t>Great Hotel with a great location</t>
+  </si>
+  <si>
+    <t>I stayed here for the first time in early April on a trip to Denver and was very impressed.  It's right in the heart of the LoDo area of Denver (just behind Union Station).  The hotel is very clean and new with a hip feel that makes you think it should be in NYC.
+The hotel still seems very new (I think it was only been open for 7-8 weeks as of this review) so they are still working out some minor kinks. (to be expected), but nothing that would get in the way of a great stay.
+The staff was very friendly and accommodating and the hotel mascot (big Golden Retriever named Barkley) added a certain ambiance to the lobby experience.
+The room (King Suite - complimentary upgrade) was very nice.  Bit of a funky layout but plenty of room, lots of windows with a great view of downtown Denver and a SUPER comfy bed.
+The Fitness Center looked like it was still being finished up as it was pretty dark and the TV on the main wall didn't work, there was no clock, etc.  That said, the equipment was all brand new and there was plenty of room for everyone.
+The location is in an area where they are building out a ton of new buildings (apartments, office buildings) so there is a fair amount of construction that makes navigating the immediate area a bit tricky.  But it's...I stayed here for the first time in early April on a trip to Denver and was very impressed.  It's right in the heart of the LoDo area of Denver (just behind Union Station).  The hotel is very clean and new with a hip feel that makes you think it should be in NYC.The hotel still seems very new (I think it was only been open for 7-8 weeks as of this review) so they are still working out some minor kinks. (to be expected), but nothing that would get in the way of a great stay.The staff was very friendly and accommodating and the hotel mascot (big Golden Retriever named Barkley) added a certain ambiance to the lobby experience.The room (King Suite - complimentary upgrade) was very nice.  Bit of a funky layout but plenty of room, lots of windows with a great view of downtown Denver and a SUPER comfy bed.The Fitness Center looked like it was still being finished up as it was pretty dark and the TV on the main wall didn't work, there was no clock, etc.  That said, the equipment was all brand new and there was plenty of room for everyone.The location is in an area where they are building out a ton of new buildings (apartments, office buildings) so there is a fair amount of construction that makes navigating the immediate area a bit tricky.  But it's easy enough to cross the street to Union Station and get to all the standard Lodo restaurants/bars/etcNext time in Denver I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for the first time in early April on a trip to Denver and was very impressed.  It's right in the heart of the LoDo area of Denver (just behind Union Station).  The hotel is very clean and new with a hip feel that makes you think it should be in NYC.
+The hotel still seems very new (I think it was only been open for 7-8 weeks as of this review) so they are still working out some minor kinks. (to be expected), but nothing that would get in the way of a great stay.
+The staff was very friendly and accommodating and the hotel mascot (big Golden Retriever named Barkley) added a certain ambiance to the lobby experience.
+The room (King Suite - complimentary upgrade) was very nice.  Bit of a funky layout but plenty of room, lots of windows with a great view of downtown Denver and a SUPER comfy bed.
+The Fitness Center looked like it was still being finished up as it was pretty dark and the TV on the main wall didn't work, there was no clock, etc.  That said, the equipment was all brand new and there was plenty of room for everyone.
+The location is in an area where they are building out a ton of new buildings (apartments, office buildings) so there is a fair amount of construction that makes navigating the immediate area a bit tricky.  But it's...I stayed here for the first time in early April on a trip to Denver and was very impressed.  It's right in the heart of the LoDo area of Denver (just behind Union Station).  The hotel is very clean and new with a hip feel that makes you think it should be in NYC.The hotel still seems very new (I think it was only been open for 7-8 weeks as of this review) so they are still working out some minor kinks. (to be expected), but nothing that would get in the way of a great stay.The staff was very friendly and accommodating and the hotel mascot (big Golden Retriever named Barkley) added a certain ambiance to the lobby experience.The room (King Suite - complimentary upgrade) was very nice.  Bit of a funky layout but plenty of room, lots of windows with a great view of downtown Denver and a SUPER comfy bed.The Fitness Center looked like it was still being finished up as it was pretty dark and the TV on the main wall didn't work, there was no clock, etc.  That said, the equipment was all brand new and there was plenty of room for everyone.The location is in an area where they are building out a ton of new buildings (apartments, office buildings) so there is a fair amount of construction that makes navigating the immediate area a bit tricky.  But it's easy enough to cross the street to Union Station and get to all the standard Lodo restaurants/bars/etcNext time in Denver I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r471406085-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>471406085</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel Bed Ever!</t>
+  </si>
+  <si>
+    <t>I was a little nervous walking into this hotel, my experience with modern hotels has taught me that they typically lack comfort.  I was very surprised upon arriving in my room because it definitely did not lack comfort.  The beds were out of this world amazing, I did not want to get out of them!  The view from our corner room was incredible - the walls are windows - if you do not want to be woken in the morning with a surge of sunlight don't forget to pull the curtains closed before heading to bed.  There were several electrical and USB ports for all of our electronics to charge.  The staff was extremely friendly and helpful.  I was sad that I was only staying in Denver for one night, I was very comfortable in this hotel and would have liked to have stayed longer.The location is also perfect because it is a very short walk (across the street and across an overpass above the train station) to downtown.  Downtown Denver has so many incredible bars and restaurants, it is a fabulous place to visit.I have one regret - I did not get to eat at the restaurant in the hotel - it smelled fabulous and I really wanted to eat there but because we were in town to visit family we had plans for every meal.I will definitely be back here!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was a little nervous walking into this hotel, my experience with modern hotels has taught me that they typically lack comfort.  I was very surprised upon arriving in my room because it definitely did not lack comfort.  The beds were out of this world amazing, I did not want to get out of them!  The view from our corner room was incredible - the walls are windows - if you do not want to be woken in the morning with a surge of sunlight don't forget to pull the curtains closed before heading to bed.  There were several electrical and USB ports for all of our electronics to charge.  The staff was extremely friendly and helpful.  I was sad that I was only staying in Denver for one night, I was very comfortable in this hotel and would have liked to have stayed longer.The location is also perfect because it is a very short walk (across the street and across an overpass above the train station) to downtown.  Downtown Denver has so many incredible bars and restaurants, it is a fabulous place to visit.I have one regret - I did not get to eat at the restaurant in the hotel - it smelled fabulous and I really wanted to eat there but because we were in town to visit family we had plans for every meal.I will definitely be back here!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r469224422-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
@@ -1550,6 +2539,45 @@
 I have heard from the locals how much LoDo has changed.  If you...Good Rush meets industry rush.Prospectors in these parts aren't looking for gold today, but a place to settle down and call their neighborhood. In the heart of this neighborhood is the brand new Hotel Indigo.  An amazing boutique property whose neighborhood story derives from the gold rush and prospectors of the 1800's. It's a wonderful collaboration of art and design.  Combining industrial, modern, and antique forms to make you feel right at home.  As soon as you step foot in the door your olfactory is awakened from the hearth churning out delicious food while your eyes travel to beautiful red illuminated walls that intrigue the curious eluding to this Hotel Indigo's neighborhood story.The rooms are beautiful using a gray scale of color with one pop of red in the area rug. The plush bedding  gives way to the best nights sleep and  spa inspired shower offering up Aveda products to cleanse and hydrate your skin from a days jaunt around with the locals. The restaurant, Hearth and Dram, does not disappoint your tastebuds.  With every sip and savor  it's a cornucopia of flavor that seduces your mind. Using as much local flavor to take control of your senses.  Everyone needs to delight in the joy of this restaurant.  From valet, front desk, housekeeping, engineering, management and restaurant each person makes you feel wanted and special.   I have heard from the locals how much LoDo has changed.  If you are living outside the city it may be time for you to explore the energetic scene around the Hotel Indigo. (Coors Field, Union Station, 16th street free Mall Shuttle)Congratse to the Hotel Indigo Denver for doing an amazing job!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r464393026-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>464393026</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Gorgeous room!!!  Staff went out of their way, too.</t>
+  </si>
+  <si>
+    <t>First of all- the room.  It's so hip and fun, and in a great spot downtown.  The beds were SO comfortable, the shower was amazing, and the views were great, too.  But that's not why I'm writing this review.  The front desk attendant, Sam, went out of his way for my partner and I after hours on Sunday evening.  As "tourists" we had gone to voodoo donuts and were sad to find that the little hotel kiosk didn't have milk for sale (boohoo).  We were totally bummed and asked Sam if there was anywhere nearby that we could score some milk to accompany our donuts.  Without missing a beat, Sam asked what kind of milk we would like and proceeded to grab a carafe of milk out of the hotel kitchen for us!  Honestly, we were moved.  It's people like Sam at this hotel that make a difference in an entire vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded March 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2017</t>
+  </si>
+  <si>
+    <t>First of all- the room.  It's so hip and fun, and in a great spot downtown.  The beds were SO comfortable, the shower was amazing, and the views were great, too.  But that's not why I'm writing this review.  The front desk attendant, Sam, went out of his way for my partner and I after hours on Sunday evening.  As "tourists" we had gone to voodoo donuts and were sad to find that the little hotel kiosk didn't have milk for sale (boohoo).  We were totally bummed and asked Sam if there was anywhere nearby that we could score some milk to accompany our donuts.  Without missing a beat, Sam asked what kind of milk we would like and proceeded to grab a carafe of milk out of the hotel kitchen for us!  Honestly, we were moved.  It's people like Sam at this hotel that make a difference in an entire vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r464265467-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>464265467</t>
+  </si>
+  <si>
+    <t>Brand new and nice!</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel just north of union station in the Lodo neighborhood of downtown Denver.   Excellent rooms, decent wifi, lots of hot water and great water pressure.   Cannot fault the hotel accommodations in any way.  A very convienient walk to numerous eating establishments.    A few small negatives...lots of construction in the immediate neighborhood and if you drive here only valet parking is available and it's very expensive....$42 for 8 hours or more. But thumbs up overall.  A great addition to he Lodo neighborhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel just north of union station in the Lodo neighborhood of downtown Denver.   Excellent rooms, decent wifi, lots of hot water and great water pressure.   Cannot fault the hotel accommodations in any way.  A very convienient walk to numerous eating establishments.    A few small negatives...lots of construction in the immediate neighborhood and if you drive here only valet parking is available and it's very expensive....$42 for 8 hours or more. But thumbs up overall.  A great addition to he Lodo neighborhood.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r464016830-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1625,6 +2653,63 @@
     <t>Hotel Indigo's General Manager Amy Healy exceeds the very definition of hospitality.  She already has gone out of her way numerous times to be of great service to me when I have needed her help.  She's very personable and stands out in my mind as someone who really cares and wants people to have a great experience with the hotel.  I would highly recommend this hotel to anyone, as it's situated in the best location downtown, right across from Union Station and the train to Denver Airport, as well as the 16th Street Mall and (soon to arrive) the downtown Whole Foods Market.  I would highly recommend this hotel as the way she has helped me with such generosity is reflected in her staff and this hotel as well.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r457839202-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>457839202</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lots of kinks-need to be worked out </t>
+  </si>
+  <si>
+    <t>New hotel in a wonderful part of LODO, everything within walking distance.  Hotel has been open 16 days and I guess I expected a lot more.  The bad:1. Could not adjust the heat on my room,  tried pressing every button and would not go up.  One of my co workers who flew in from Cali yesterday and stayed here last night had to switch rooms because of the heating issue.  I'm sticking it out. 2.  There was a tear in my comforter on the bed.  3. The TP holder, although fancy, could not hold my TP- it kept falling off, thinking it should have been turned the other way.  4. The shower door opens awkwardly to the toilet so you have to avoid the toilet as you are freshly clean out of the shower.  The Good:1.  Its new 2. Very contemporary 3. Comfy bed4. Great location 5. Huge tv and lots of channelsGiven the choice I would stay here again! MoreShow less</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>New hotel in a wonderful part of LODO, everything within walking distance.  Hotel has been open 16 days and I guess I expected a lot more.  The bad:1. Could not adjust the heat on my room,  tried pressing every button and would not go up.  One of my co workers who flew in from Cali yesterday and stayed here last night had to switch rooms because of the heating issue.  I'm sticking it out. 2.  There was a tear in my comforter on the bed.  3. The TP holder, although fancy, could not hold my TP- it kept falling off, thinking it should have been turned the other way.  4. The shower door opens awkwardly to the toilet so you have to avoid the toilet as you are freshly clean out of the shower.  The Good:1.  Its new 2. Very contemporary 3. Comfy bed4. Great location 5. Huge tv and lots of channelsGiven the choice I would stay here again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r455383227-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>455383227</t>
+  </si>
+  <si>
+    <t>01/28/2017</t>
+  </si>
+  <si>
+    <t>Hip New Denver Hotel Near Union Station</t>
+  </si>
+  <si>
+    <t>I continue to be amazed at the true diversity and uniqueness of IHG's different hotel brands. After a wonderful experience at the new Even Hotel in New York, I stumbled upon Denver's new Hotel Indigo for a trade show visit to the Mile High City. Very hip and cool and the new next best thing to the Hotel Crawford right in Union Station for those who can't afford it.
+Denver's Hotel Indigo just opened in January, 2017. I was there within the first week. The hotel has a really hip style with a small, welcoming lobby and truly gorgeous guest rooms. My king sized bed faced out to the skyline with huge windows on two of the three sides. Room decor was modern and very functional. Loved the easy-flip toggle switch for the bedside light. Lots of AC and USB plugs bedside and on the desk.
+Fitness center was well equipped with bikes and treadmills plus a set of free weights and one weight machine. Restaurant not open yet but looks fantastic.
+Location is interesting on the west side of Union Station. It's about a 4-5 minute walk. The west side of Union Station is evolving nicely since the DaVita building a few blocks south started the modern low-rise scene. In a year or so, this is going to be a big center in downtown. Now, a lot of construction. Access from the hotel to LoDo is via the Union...I continue to be amazed at the true diversity and uniqueness of IHG's different hotel brands. After a wonderful experience at the new Even Hotel in New York, I stumbled upon Denver's new Hotel Indigo for a trade show visit to the Mile High City. Very hip and cool and the new next best thing to the Hotel Crawford right in Union Station for those who can't afford it.Denver's Hotel Indigo just opened in January, 2017. I was there within the first week. The hotel has a really hip style with a small, welcoming lobby and truly gorgeous guest rooms. My king sized bed faced out to the skyline with huge windows on two of the three sides. Room decor was modern and very functional. Loved the easy-flip toggle switch for the bedside light. Lots of AC and USB plugs bedside and on the desk.Fitness center was well equipped with bikes and treadmills plus a set of free weights and one weight machine. Restaurant not open yet but looks fantastic.Location is interesting on the west side of Union Station. It's about a 4-5 minute walk. The west side of Union Station is evolving nicely since the DaVita building a few blocks south started the modern low-rise scene. In a year or so, this is going to be a big center in downtown. Now, a lot of construction. Access from the hotel to LoDo is via the Union Station underground walkway. Not difficult. Careful late night.Now to the stars. Boy, I grappled with this. I love, love, love this hotel. But, guys, this was not a five star effort. Several things. First, a company like IHG should be a bit more buttoned down on an opening. No fixed street signage. Restaurant fully built out but not operating. Boxes and construction materials on the floor in the fitness center. The hotel is also built immediately next to a thermal energy plant. While this doesn't impact all rooms, if you're on the east side of the hotel on a cold night, the noise form the plant is like a jet engine. I was able to tune it out, but it was omnipresent. And while my late night checkin agent at the front desk was fantastic and very engaging, my checkout was a bit scattered with little or no engagement. No one asked me, 'hey, how do you like our new hotel.' Missed opportunity.Still, I'll be back. I suspect this will be my new Denver home. Love the concept of taking the train from airport to Union Station and walking five minutes to a nice hotel. Love the unique feel - this is NOT your father's Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded January 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2017</t>
+  </si>
+  <si>
+    <t>I continue to be amazed at the true diversity and uniqueness of IHG's different hotel brands. After a wonderful experience at the new Even Hotel in New York, I stumbled upon Denver's new Hotel Indigo for a trade show visit to the Mile High City. Very hip and cool and the new next best thing to the Hotel Crawford right in Union Station for those who can't afford it.
+Denver's Hotel Indigo just opened in January, 2017. I was there within the first week. The hotel has a really hip style with a small, welcoming lobby and truly gorgeous guest rooms. My king sized bed faced out to the skyline with huge windows on two of the three sides. Room decor was modern and very functional. Loved the easy-flip toggle switch for the bedside light. Lots of AC and USB plugs bedside and on the desk.
+Fitness center was well equipped with bikes and treadmills plus a set of free weights and one weight machine. Restaurant not open yet but looks fantastic.
+Location is interesting on the west side of Union Station. It's about a 4-5 minute walk. The west side of Union Station is evolving nicely since the DaVita building a few blocks south started the modern low-rise scene. In a year or so, this is going to be a big center in downtown. Now, a lot of construction. Access from the hotel to LoDo is via the Union...I continue to be amazed at the true diversity and uniqueness of IHG's different hotel brands. After a wonderful experience at the new Even Hotel in New York, I stumbled upon Denver's new Hotel Indigo for a trade show visit to the Mile High City. Very hip and cool and the new next best thing to the Hotel Crawford right in Union Station for those who can't afford it.Denver's Hotel Indigo just opened in January, 2017. I was there within the first week. The hotel has a really hip style with a small, welcoming lobby and truly gorgeous guest rooms. My king sized bed faced out to the skyline with huge windows on two of the three sides. Room decor was modern and very functional. Loved the easy-flip toggle switch for the bedside light. Lots of AC and USB plugs bedside and on the desk.Fitness center was well equipped with bikes and treadmills plus a set of free weights and one weight machine. Restaurant not open yet but looks fantastic.Location is interesting on the west side of Union Station. It's about a 4-5 minute walk. The west side of Union Station is evolving nicely since the DaVita building a few blocks south started the modern low-rise scene. In a year or so, this is going to be a big center in downtown. Now, a lot of construction. Access from the hotel to LoDo is via the Union Station underground walkway. Not difficult. Careful late night.Now to the stars. Boy, I grappled with this. I love, love, love this hotel. But, guys, this was not a five star effort. Several things. First, a company like IHG should be a bit more buttoned down on an opening. No fixed street signage. Restaurant fully built out but not operating. Boxes and construction materials on the floor in the fitness center. The hotel is also built immediately next to a thermal energy plant. While this doesn't impact all rooms, if you're on the east side of the hotel on a cold night, the noise form the plant is like a jet engine. I was able to tune it out, but it was omnipresent. And while my late night checkin agent at the front desk was fantastic and very engaging, my checkout was a bit scattered with little or no engagement. No one asked me, 'hey, how do you like our new hotel.' Missed opportunity.Still, I'll be back. I suspect this will be my new Denver home. Love the concept of taking the train from airport to Union Station and walking five minutes to a nice hotel. Love the unique feel - this is NOT your father's Holiday Inn.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d10632801-r454029188-Hotel_Indigo_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1638,15 +2723,6 @@
   </si>
   <si>
     <t>New hotel in downtown Denver very modern looking rooms. Comfortable beds and pillows. Many eating establishments close by.  Restaurant to open in a couple of weeks  located across the street from union stationMoreShow less</t>
-  </si>
-  <si>
-    <t>January 2017</t>
-  </si>
-  <si>
-    <t>AmyCHealy, General Manager at Hotel Indigo Denver Downtown, responded to this reviewResponded January 29, 2017</t>
-  </si>
-  <si>
-    <t>Responded January 29, 2017</t>
   </si>
   <si>
     <t>New hotel in downtown Denver very modern looking rooms. Comfortable beds and pillows. Many eating establishments close by.  Restaurant to open in a couple of weeks  located across the street from union stationMore</t>
@@ -2263,13 +3339,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2285,7 +3361,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2294,19 +3370,19 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
@@ -2320,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
         <v>71</v>
@@ -2363,13 +3439,13 @@
         <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2381,13 +3457,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
         <v>79</v>
-      </c>
-      <c r="X5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -2403,56 +3479,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>85</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
       <c r="O6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -2468,56 +3540,52 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>91</v>
       </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -2533,34 +3601,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>96</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>97</v>
       </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2572,13 +3640,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
         <v>100</v>
-      </c>
-      <c r="X8" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -2594,56 +3662,52 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
         <v>103</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>104</v>
       </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>105</v>
       </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -2659,7 +3723,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2668,47 +3732,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -2724,55 +3784,49 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
         <v>116</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" t="s">
-        <v>120</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
-      <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
-        <v>122</v>
-      </c>
-      <c r="X11" t="s">
-        <v>123</v>
       </c>
       <c r="Y11" t="s">
         <v>124</v>
@@ -2812,26 +3866,16 @@
         <v>129</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" t="s">
-        <v>87</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
@@ -2879,35 +3923,31 @@
         <v>137</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
         <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
         <v>140</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -2923,45 +3963,41 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>142</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>143</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>144</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>145</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
         <v>146</v>
       </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>138</v>
-      </c>
       <c r="O14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -3012,32 +4048,28 @@
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="X15" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -3053,7 +4085,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3062,10 +4094,10 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
         <v>160</v>
@@ -3077,28 +4109,32 @@
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s">
         <v>162</v>
-      </c>
-      <c r="X16" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -3114,58 +4150,56 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
         <v>165</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>166</v>
       </c>
-      <c r="J17" t="s">
-        <v>167</v>
-      </c>
-      <c r="K17" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" t="s">
-        <v>169</v>
-      </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s">
-        <v>99</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="X17" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -3181,7 +4215,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3190,22 +4224,26 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" t="s">
+        <v>123</v>
+      </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -3216,13 +4254,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
@@ -3238,48 +4276,58 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
         <v>182</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="X19" t="s">
         <v>183</v>
       </c>
-      <c r="J19" t="s">
+      <c r="Y19" t="s">
         <v>184</v>
-      </c>
-      <c r="K19" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" t="s">
-        <v>186</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>187</v>
-      </c>
-      <c r="X19" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -3295,7 +4343,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3304,47 +4352,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="X20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
@@ -3360,7 +4410,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3369,25 +4419,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3399,13 +4449,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="X21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
@@ -3421,7 +4471,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3430,34 +4480,32 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="O22" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -3466,13 +4514,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="X22" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
@@ -3488,7 +4536,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3497,49 +4545,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="O23" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="n">
         <v>5</v>
       </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="X23" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="Y23" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
@@ -3555,7 +4601,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3564,47 +4610,39 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
-      <c r="N24" t="s">
-        <v>227</v>
-      </c>
-      <c r="O24" t="s">
-        <v>87</v>
-      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>218</v>
+      </c>
+      <c r="X24" t="s">
         <v>219</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>220</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -3620,7 +4658,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3629,25 +4667,25 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3659,13 +4697,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
+        <v>218</v>
+      </c>
+      <c r="X25" t="s">
         <v>219</v>
       </c>
-      <c r="X25" t="s">
-        <v>220</v>
-      </c>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
@@ -3681,7 +4719,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3690,39 +4728,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" t="s">
+        <v>123</v>
+      </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="X26" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
@@ -3738,7 +4786,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3747,32 +4795,38 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
@@ -3783,7 +4837,7 @@
         <v>241</v>
       </c>
       <c r="Y27" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
@@ -3799,7 +4853,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3808,47 +4862,47 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="X28" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
@@ -3864,7 +4918,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3873,47 +4927,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="X29" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
@@ -3929,43 +4979,43 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L30" t="s">
         <v>264</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>265</v>
       </c>
-      <c r="J30" t="s">
-        <v>266</v>
-      </c>
-      <c r="K30" t="s">
-        <v>267</v>
-      </c>
-      <c r="L30" t="s">
-        <v>268</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>254</v>
-      </c>
       <c r="O30" t="s">
-        <v>87</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="n">
         <v>5</v>
       </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3974,13 +5024,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="X30" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31">
@@ -3996,56 +5046,56 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>270</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" t="s">
         <v>271</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>272</v>
       </c>
-      <c r="K31" t="s">
-        <v>273</v>
-      </c>
-      <c r="L31" t="s">
-        <v>274</v>
-      </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="X31" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="Y31" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
@@ -4061,7 +5111,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4070,43 +5120,47 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J32" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="X32" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="Y32" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33">
@@ -4122,7 +5176,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4131,47 +5185,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X33" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34">
@@ -4187,53 +5237,55 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>289</v>
+      </c>
+      <c r="J34" t="s">
+        <v>290</v>
+      </c>
+      <c r="K34" t="s">
         <v>291</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>292</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
         <v>293</v>
       </c>
-      <c r="K34" t="s">
-        <v>294</v>
-      </c>
-      <c r="L34" t="s">
-        <v>295</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>209</v>
-      </c>
       <c r="O34" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="X34" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="Y34" t="s">
         <v>296</v>
@@ -4273,14 +5325,10 @@
         <v>301</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>209</v>
-      </c>
-      <c r="O35" t="s">
-        <v>62</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
@@ -4337,16 +5385,16 @@
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="O36" t="s">
         <v>62</v>
       </c>
-      <c r="P36" t="s"/>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
       <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>2</v>
-      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
         <v>5</v>
       </c>
@@ -4358,13 +5406,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
+        <v>310</v>
+      </c>
+      <c r="X36" t="s">
         <v>311</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>312</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="37">
@@ -4380,58 +5428,48 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>314</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>315</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>316</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>317</v>
       </c>
-      <c r="L37" t="s">
-        <v>318</v>
-      </c>
       <c r="M37" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" t="s">
-        <v>209</v>
-      </c>
-      <c r="O37" t="s">
-        <v>62</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="X37" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Y37" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38">
@@ -4447,7 +5485,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4456,26 +5494,22 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N38" t="s">
-        <v>209</v>
-      </c>
-      <c r="O38" t="s">
-        <v>78</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
@@ -4486,13 +5520,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39">
@@ -4508,7 +5542,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4517,49 +5551,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="O39" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>3</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X39" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
@@ -4575,7 +5603,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4584,31 +5612,29 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="O40" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
         <v>5</v>
       </c>
@@ -4620,13 +5646,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="X40" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Y40" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41">
@@ -4642,7 +5668,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4651,49 +5677,47 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J41" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K41" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
       </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="X41" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Y41" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42">
@@ -4709,7 +5733,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4718,22 +5742,22 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J42" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="K42" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="O42" t="s">
         <v>62</v>
@@ -4748,13 +5772,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="X42" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Y42" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43">
@@ -4770,7 +5794,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4779,32 +5803,34 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="J43" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K43" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L43" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="O43" t="s">
         <v>62</v>
       </c>
       <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4813,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="X43" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="Y43" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44">
@@ -4835,7 +5861,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4844,25 +5870,25 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="J44" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K44" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="O44" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4874,13 +5900,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="X44" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Y44" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45">
@@ -4896,7 +5922,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4905,25 +5931,25 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="J45" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L45" t="s">
+        <v>381</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
         <v>373</v>
       </c>
-      <c r="L45" t="s">
-        <v>374</v>
-      </c>
-      <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s">
-        <v>310</v>
-      </c>
       <c r="O45" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4935,13 +5961,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="X45" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Y45" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46">
@@ -4957,7 +5983,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4966,47 +5992,49 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="J46" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K46" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="O46" t="s">
-        <v>78</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="X46" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="Y46" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47">
@@ -5022,7 +6050,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5031,49 +6059,47 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="J47" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="K47" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="L47" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="O47" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="X47" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="Y47" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48">
@@ -5089,7 +6115,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5098,47 +6124,43 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="J48" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K48" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="L48" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>275</v>
+        <v>373</v>
       </c>
       <c r="O48" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>3</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="X48" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="Y48" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49">
@@ -5154,7 +6176,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5163,49 +6185,49 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="J49" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K49" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>275</v>
+        <v>373</v>
       </c>
       <c r="O49" t="s">
-        <v>99</v>
-      </c>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="X49" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="Y49" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50">
@@ -5221,7 +6243,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5230,25 +6252,25 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="J50" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="K50" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>275</v>
+        <v>415</v>
       </c>
       <c r="O50" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5260,13 +6282,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="X50" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="Y50" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51">
@@ -5282,7 +6304,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5291,49 +6313,39 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="J51" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K51" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L51" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
-      <c r="N51" t="s">
-        <v>275</v>
-      </c>
-      <c r="O51" t="s">
-        <v>99</v>
-      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
       <c r="P51" t="s"/>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="X51" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="Y51" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52">
@@ -5349,7 +6361,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5358,45 +6370,43 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="J52" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K52" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L52" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>275</v>
+        <v>396</v>
       </c>
       <c r="O52" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>1</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="X52" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="Y52" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53">
@@ -5412,7 +6422,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5421,39 +6431,47 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="J53" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="K53" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="L53" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>415</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="X53" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="Y53" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54">
@@ -5469,7 +6487,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5478,34 +6496,34 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="J54" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="K54" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="L54" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="O54" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q54" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
       <c r="R54" t="s"/>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
         <v>4</v>
@@ -5514,13 +6532,13 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="X54" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y54" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55">
@@ -5536,7 +6554,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5545,34 +6563,34 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="J55" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="K55" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="L55" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="O55" t="s">
         <v>62</v>
       </c>
       <c r="P55" t="s"/>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
         <v>5</v>
@@ -5581,13 +6599,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="X55" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="Y55" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56">
@@ -5603,7 +6621,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5612,43 +6630,47 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="J56" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K56" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L56" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="O56" t="s">
-        <v>78</v>
-      </c>
-      <c r="P56" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
       <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
       <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="X56" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="Y56" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57">
@@ -5664,7 +6686,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5673,40 +6695,46 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J57" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K57" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L57" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="O57" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
-      <c r="S57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="X57" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="Y57" t="s">
         <v>461</v>
@@ -5746,37 +6774,35 @@
         <v>466</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="O58" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
+      <c r="R58" t="s"/>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="X58" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="Y58" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59">
@@ -5792,7 +6818,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5801,46 +6827,40 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J59" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K59" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L59" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="O59" t="s">
         <v>62</v>
       </c>
       <c r="P59" t="s"/>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q59" t="s"/>
       <c r="R59" t="s"/>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="X59" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Y59" t="s">
         <v>475</v>
@@ -5871,28 +6891,28 @@
         <v>477</v>
       </c>
       <c r="J60" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="K60" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L60" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="O60" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P60" t="s"/>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
       <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
@@ -5902,10 +6922,10 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="X60" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Y60" t="s">
         <v>481</v>
@@ -5948,10 +6968,10 @@
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="O61" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -5963,13 +6983,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
+        <v>468</v>
+      </c>
+      <c r="X61" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y61" t="s">
         <v>487</v>
-      </c>
-      <c r="X61" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="62">
@@ -5985,39 +7005,37 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
+        <v>488</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>489</v>
+      </c>
+      <c r="J62" t="s">
         <v>490</v>
       </c>
-      <c r="G62" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="K62" t="s">
         <v>491</v>
       </c>
-      <c r="J62" t="s">
+      <c r="L62" t="s">
         <v>492</v>
       </c>
-      <c r="K62" t="s">
-        <v>493</v>
-      </c>
-      <c r="L62" t="s">
-        <v>494</v>
-      </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>495</v>
+        <v>396</v>
       </c>
       <c r="O62" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="P62" t="s"/>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q62" t="s"/>
       <c r="R62" t="s"/>
       <c r="S62" t="n">
         <v>5</v>
@@ -6030,13 +7048,13 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="X62" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="Y62" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63">
@@ -6052,7 +7070,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6061,43 +7079,47 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="J63" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K63" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L63" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>495</v>
+        <v>364</v>
       </c>
       <c r="O63" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
-      <c r="R63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
       <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="X63" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="Y63" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64">
@@ -6113,7 +7135,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6122,31 +7144,31 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="J64" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="K64" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="L64" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>495</v>
+        <v>396</v>
       </c>
       <c r="O64" t="s">
         <v>53</v>
       </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
       <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
@@ -6156,13 +7178,13 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="X64" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="Y64" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65">
@@ -6178,7 +7200,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6187,43 +7209,3316 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="J65" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K65" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="L65" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>520</v>
+        <v>396</v>
       </c>
       <c r="O65" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
       <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s">
+        <v>468</v>
+      </c>
+      <c r="X65" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>512</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>513</v>
+      </c>
+      <c r="J66" t="s">
+        <v>514</v>
+      </c>
+      <c r="K66" t="s">
+        <v>515</v>
+      </c>
+      <c r="L66" t="s">
+        <v>516</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>364</v>
+      </c>
+      <c r="O66" t="s">
+        <v>123</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>517</v>
+      </c>
+      <c r="X66" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>520</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
         <v>521</v>
       </c>
-      <c r="X65" t="s">
+      <c r="J67" t="s">
         <v>522</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="K67" t="s">
         <v>523</v>
+      </c>
+      <c r="L67" t="s">
+        <v>524</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>525</v>
+      </c>
+      <c r="O67" t="s">
+        <v>123</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>526</v>
+      </c>
+      <c r="X67" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>529</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>530</v>
+      </c>
+      <c r="J68" t="s">
+        <v>531</v>
+      </c>
+      <c r="K68" t="s">
+        <v>532</v>
+      </c>
+      <c r="L68" t="s">
+        <v>533</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>364</v>
+      </c>
+      <c r="O68" t="s">
+        <v>123</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>526</v>
+      </c>
+      <c r="X68" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>535</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>536</v>
+      </c>
+      <c r="J69" t="s">
+        <v>537</v>
+      </c>
+      <c r="K69" t="s">
+        <v>538</v>
+      </c>
+      <c r="L69" t="s">
+        <v>539</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>364</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>540</v>
+      </c>
+      <c r="X69" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>543</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>544</v>
+      </c>
+      <c r="J70" t="s">
+        <v>545</v>
+      </c>
+      <c r="K70" t="s">
+        <v>546</v>
+      </c>
+      <c r="L70" t="s">
+        <v>547</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>364</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>548</v>
+      </c>
+      <c r="X70" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>551</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>552</v>
+      </c>
+      <c r="J71" t="s">
+        <v>553</v>
+      </c>
+      <c r="K71" t="s">
+        <v>554</v>
+      </c>
+      <c r="L71" t="s">
+        <v>555</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>364</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>556</v>
+      </c>
+      <c r="X71" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>559</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>560</v>
+      </c>
+      <c r="J72" t="s">
+        <v>561</v>
+      </c>
+      <c r="K72" t="s">
+        <v>562</v>
+      </c>
+      <c r="L72" t="s">
+        <v>563</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>525</v>
+      </c>
+      <c r="O72" t="s">
+        <v>62</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>564</v>
+      </c>
+      <c r="X72" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>567</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>568</v>
+      </c>
+      <c r="J73" t="s">
+        <v>569</v>
+      </c>
+      <c r="K73" t="s">
+        <v>570</v>
+      </c>
+      <c r="L73" t="s">
+        <v>571</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>467</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>564</v>
+      </c>
+      <c r="X73" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>573</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>574</v>
+      </c>
+      <c r="J74" t="s">
+        <v>575</v>
+      </c>
+      <c r="K74" t="s">
+        <v>576</v>
+      </c>
+      <c r="L74" t="s">
+        <v>577</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>467</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>564</v>
+      </c>
+      <c r="X74" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>579</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>580</v>
+      </c>
+      <c r="J75" t="s">
+        <v>581</v>
+      </c>
+      <c r="K75" t="s">
+        <v>582</v>
+      </c>
+      <c r="L75" t="s">
+        <v>583</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>525</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>564</v>
+      </c>
+      <c r="X75" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>585</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>586</v>
+      </c>
+      <c r="J76" t="s">
+        <v>587</v>
+      </c>
+      <c r="K76" t="s">
+        <v>588</v>
+      </c>
+      <c r="L76" t="s">
+        <v>589</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>525</v>
+      </c>
+      <c r="O76" t="s">
+        <v>114</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>590</v>
+      </c>
+      <c r="X76" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>593</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>594</v>
+      </c>
+      <c r="J77" t="s">
+        <v>587</v>
+      </c>
+      <c r="K77" t="s">
+        <v>595</v>
+      </c>
+      <c r="L77" t="s">
+        <v>596</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>525</v>
+      </c>
+      <c r="O77" t="s">
+        <v>123</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>590</v>
+      </c>
+      <c r="X77" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>598</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>599</v>
+      </c>
+      <c r="J78" t="s">
+        <v>600</v>
+      </c>
+      <c r="K78" t="s">
+        <v>601</v>
+      </c>
+      <c r="L78" t="s">
+        <v>602</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>525</v>
+      </c>
+      <c r="O78" t="s">
+        <v>123</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>603</v>
+      </c>
+      <c r="X78" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>605</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>606</v>
+      </c>
+      <c r="J79" t="s">
+        <v>607</v>
+      </c>
+      <c r="K79" t="s">
+        <v>608</v>
+      </c>
+      <c r="L79" t="s">
+        <v>609</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>525</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>610</v>
+      </c>
+      <c r="X79" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>613</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>614</v>
+      </c>
+      <c r="J80" t="s">
+        <v>615</v>
+      </c>
+      <c r="K80" t="s">
+        <v>616</v>
+      </c>
+      <c r="L80" t="s">
+        <v>617</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>525</v>
+      </c>
+      <c r="O80" t="s">
+        <v>62</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>618</v>
+      </c>
+      <c r="X80" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>621</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>622</v>
+      </c>
+      <c r="J81" t="s">
+        <v>615</v>
+      </c>
+      <c r="K81" t="s">
+        <v>623</v>
+      </c>
+      <c r="L81" t="s">
+        <v>624</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>525</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>618</v>
+      </c>
+      <c r="X81" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>626</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>627</v>
+      </c>
+      <c r="J82" t="s">
+        <v>628</v>
+      </c>
+      <c r="K82" t="s">
+        <v>629</v>
+      </c>
+      <c r="L82" t="s">
+        <v>630</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>525</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>618</v>
+      </c>
+      <c r="X82" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>632</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>633</v>
+      </c>
+      <c r="J83" t="s">
+        <v>634</v>
+      </c>
+      <c r="K83" t="s">
+        <v>635</v>
+      </c>
+      <c r="L83" t="s">
+        <v>636</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>525</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>618</v>
+      </c>
+      <c r="X83" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>638</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>639</v>
+      </c>
+      <c r="J84" t="s">
+        <v>640</v>
+      </c>
+      <c r="K84" t="s">
+        <v>641</v>
+      </c>
+      <c r="L84" t="s">
+        <v>642</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>525</v>
+      </c>
+      <c r="O84" t="s">
+        <v>123</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>618</v>
+      </c>
+      <c r="X84" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>644</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>645</v>
+      </c>
+      <c r="J85" t="s">
+        <v>646</v>
+      </c>
+      <c r="K85" t="s">
+        <v>647</v>
+      </c>
+      <c r="L85" t="s">
+        <v>648</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>525</v>
+      </c>
+      <c r="O85" t="s">
+        <v>139</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>618</v>
+      </c>
+      <c r="X85" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>650</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>651</v>
+      </c>
+      <c r="J86" t="s">
+        <v>652</v>
+      </c>
+      <c r="K86" t="s">
+        <v>653</v>
+      </c>
+      <c r="L86" t="s">
+        <v>654</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>525</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>618</v>
+      </c>
+      <c r="X86" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>656</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>657</v>
+      </c>
+      <c r="J87" t="s">
+        <v>658</v>
+      </c>
+      <c r="K87" t="s">
+        <v>659</v>
+      </c>
+      <c r="L87" t="s">
+        <v>660</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>467</v>
+      </c>
+      <c r="O87" t="s">
+        <v>139</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>618</v>
+      </c>
+      <c r="X87" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>662</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>663</v>
+      </c>
+      <c r="J88" t="s">
+        <v>664</v>
+      </c>
+      <c r="K88" t="s">
+        <v>665</v>
+      </c>
+      <c r="L88" t="s">
+        <v>666</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>467</v>
+      </c>
+      <c r="O88" t="s">
+        <v>62</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>618</v>
+      </c>
+      <c r="X88" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>668</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>669</v>
+      </c>
+      <c r="J89" t="s">
+        <v>670</v>
+      </c>
+      <c r="K89" t="s">
+        <v>671</v>
+      </c>
+      <c r="L89" t="s">
+        <v>672</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>467</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>618</v>
+      </c>
+      <c r="X89" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>674</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>675</v>
+      </c>
+      <c r="J90" t="s">
+        <v>676</v>
+      </c>
+      <c r="K90" t="s">
+        <v>316</v>
+      </c>
+      <c r="L90" t="s">
+        <v>677</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>467</v>
+      </c>
+      <c r="O90" t="s">
+        <v>123</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>618</v>
+      </c>
+      <c r="X90" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>679</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>680</v>
+      </c>
+      <c r="J91" t="s">
+        <v>681</v>
+      </c>
+      <c r="K91" t="s">
+        <v>682</v>
+      </c>
+      <c r="L91" t="s">
+        <v>683</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>467</v>
+      </c>
+      <c r="O91" t="s">
+        <v>62</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>684</v>
+      </c>
+      <c r="X91" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>687</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>688</v>
+      </c>
+      <c r="J92" t="s">
+        <v>689</v>
+      </c>
+      <c r="K92" t="s">
+        <v>690</v>
+      </c>
+      <c r="L92" t="s">
+        <v>691</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>467</v>
+      </c>
+      <c r="O92" t="s">
+        <v>62</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>684</v>
+      </c>
+      <c r="X92" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>693</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>694</v>
+      </c>
+      <c r="J93" t="s">
+        <v>695</v>
+      </c>
+      <c r="K93" t="s">
+        <v>696</v>
+      </c>
+      <c r="L93" t="s">
+        <v>697</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>467</v>
+      </c>
+      <c r="O93" t="s">
+        <v>62</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>684</v>
+      </c>
+      <c r="X93" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>699</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>700</v>
+      </c>
+      <c r="J94" t="s">
+        <v>701</v>
+      </c>
+      <c r="K94" t="s">
+        <v>702</v>
+      </c>
+      <c r="L94" t="s">
+        <v>703</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>704</v>
+      </c>
+      <c r="X94" t="s">
+        <v>705</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>707</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>708</v>
+      </c>
+      <c r="J95" t="s">
+        <v>709</v>
+      </c>
+      <c r="K95" t="s">
+        <v>710</v>
+      </c>
+      <c r="L95" t="s">
+        <v>711</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>712</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>713</v>
+      </c>
+      <c r="X95" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>716</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>717</v>
+      </c>
+      <c r="J96" t="s">
+        <v>718</v>
+      </c>
+      <c r="K96" t="s">
+        <v>719</v>
+      </c>
+      <c r="L96" t="s">
+        <v>720</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>721</v>
+      </c>
+      <c r="X96" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>724</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>725</v>
+      </c>
+      <c r="J97" t="s">
+        <v>726</v>
+      </c>
+      <c r="K97" t="s">
+        <v>727</v>
+      </c>
+      <c r="L97" t="s">
+        <v>728</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>729</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>730</v>
+      </c>
+      <c r="X97" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>733</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>734</v>
+      </c>
+      <c r="J98" t="s">
+        <v>735</v>
+      </c>
+      <c r="K98" t="s">
+        <v>736</v>
+      </c>
+      <c r="L98" t="s">
+        <v>737</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>712</v>
+      </c>
+      <c r="O98" t="s">
+        <v>123</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>738</v>
+      </c>
+      <c r="X98" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>741</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>742</v>
+      </c>
+      <c r="J99" t="s">
+        <v>743</v>
+      </c>
+      <c r="K99" t="s">
+        <v>744</v>
+      </c>
+      <c r="L99" t="s">
+        <v>745</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>729</v>
+      </c>
+      <c r="O99" t="s">
+        <v>114</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>746</v>
+      </c>
+      <c r="X99" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>749</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>750</v>
+      </c>
+      <c r="J100" t="s">
+        <v>743</v>
+      </c>
+      <c r="K100" t="s">
+        <v>751</v>
+      </c>
+      <c r="L100" t="s">
+        <v>752</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>712</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>746</v>
+      </c>
+      <c r="X100" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>754</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>755</v>
+      </c>
+      <c r="J101" t="s">
+        <v>756</v>
+      </c>
+      <c r="K101" t="s">
+        <v>757</v>
+      </c>
+      <c r="L101" t="s">
+        <v>758</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>729</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>713</v>
+      </c>
+      <c r="X101" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>760</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>761</v>
+      </c>
+      <c r="J102" t="s">
+        <v>762</v>
+      </c>
+      <c r="K102" t="s">
+        <v>763</v>
+      </c>
+      <c r="L102" t="s">
+        <v>764</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>712</v>
+      </c>
+      <c r="O102" t="s">
+        <v>123</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>765</v>
+      </c>
+      <c r="X102" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>768</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>769</v>
+      </c>
+      <c r="J103" t="s">
+        <v>770</v>
+      </c>
+      <c r="K103" t="s">
+        <v>771</v>
+      </c>
+      <c r="L103" t="s">
+        <v>772</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>712</v>
+      </c>
+      <c r="O103" t="s">
+        <v>123</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>765</v>
+      </c>
+      <c r="X103" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>774</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>775</v>
+      </c>
+      <c r="J104" t="s">
+        <v>770</v>
+      </c>
+      <c r="K104" t="s">
+        <v>776</v>
+      </c>
+      <c r="L104" t="s">
+        <v>777</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>712</v>
+      </c>
+      <c r="O104" t="s">
+        <v>123</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>713</v>
+      </c>
+      <c r="X104" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>779</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>780</v>
+      </c>
+      <c r="J105" t="s">
+        <v>781</v>
+      </c>
+      <c r="K105" t="s">
+        <v>782</v>
+      </c>
+      <c r="L105" t="s">
+        <v>783</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>729</v>
+      </c>
+      <c r="O105" t="s">
+        <v>62</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>713</v>
+      </c>
+      <c r="X105" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>785</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>786</v>
+      </c>
+      <c r="J106" t="s">
+        <v>787</v>
+      </c>
+      <c r="K106" t="s">
+        <v>788</v>
+      </c>
+      <c r="L106" t="s">
+        <v>789</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>729</v>
+      </c>
+      <c r="O106" t="s">
+        <v>123</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>790</v>
+      </c>
+      <c r="X106" t="s">
+        <v>791</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>793</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>794</v>
+      </c>
+      <c r="J107" t="s">
+        <v>787</v>
+      </c>
+      <c r="K107" t="s">
+        <v>795</v>
+      </c>
+      <c r="L107" t="s">
+        <v>796</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>729</v>
+      </c>
+      <c r="O107" t="s">
+        <v>139</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>797</v>
+      </c>
+      <c r="X107" t="s">
+        <v>791</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>799</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>800</v>
+      </c>
+      <c r="J108" t="s">
+        <v>801</v>
+      </c>
+      <c r="K108" t="s">
+        <v>802</v>
+      </c>
+      <c r="L108" t="s">
+        <v>803</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>729</v>
+      </c>
+      <c r="O108" t="s">
+        <v>123</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="s"/>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>804</v>
+      </c>
+      <c r="X108" t="s">
+        <v>805</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>807</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>808</v>
+      </c>
+      <c r="J109" t="s">
+        <v>809</v>
+      </c>
+      <c r="K109" t="s">
+        <v>810</v>
+      </c>
+      <c r="L109" t="s">
+        <v>811</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>729</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>812</v>
+      </c>
+      <c r="X109" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>815</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>816</v>
+      </c>
+      <c r="J110" t="s">
+        <v>809</v>
+      </c>
+      <c r="K110" t="s">
+        <v>817</v>
+      </c>
+      <c r="L110" t="s">
+        <v>818</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>729</v>
+      </c>
+      <c r="O110" t="s">
+        <v>139</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>812</v>
+      </c>
+      <c r="X110" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>820</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>821</v>
+      </c>
+      <c r="J111" t="s">
+        <v>822</v>
+      </c>
+      <c r="K111" t="s">
+        <v>823</v>
+      </c>
+      <c r="L111" t="s">
+        <v>824</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>825</v>
+      </c>
+      <c r="O111" t="s">
+        <v>62</v>
+      </c>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="s"/>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>826</v>
+      </c>
+      <c r="X111" t="s">
+        <v>827</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>829</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>830</v>
+      </c>
+      <c r="J112" t="s">
+        <v>831</v>
+      </c>
+      <c r="K112" t="s">
+        <v>832</v>
+      </c>
+      <c r="L112" t="s">
+        <v>833</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>825</v>
+      </c>
+      <c r="O112" t="s">
+        <v>62</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>834</v>
+      </c>
+      <c r="X112" t="s">
+        <v>835</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>837</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>838</v>
+      </c>
+      <c r="J113" t="s">
+        <v>839</v>
+      </c>
+      <c r="K113" t="s">
+        <v>840</v>
+      </c>
+      <c r="L113" t="s">
+        <v>841</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>825</v>
+      </c>
+      <c r="O113" t="s">
+        <v>114</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>842</v>
+      </c>
+      <c r="X113" t="s">
+        <v>843</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>845</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>846</v>
+      </c>
+      <c r="J114" t="s">
+        <v>847</v>
+      </c>
+      <c r="K114" t="s">
+        <v>848</v>
+      </c>
+      <c r="L114" t="s">
+        <v>849</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="s">
+        <v>825</v>
+      </c>
+      <c r="O114" t="s">
+        <v>123</v>
+      </c>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>850</v>
+      </c>
+      <c r="X114" t="s">
+        <v>851</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>853</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>854</v>
+      </c>
+      <c r="J115" t="s">
+        <v>855</v>
+      </c>
+      <c r="K115" t="s">
+        <v>856</v>
+      </c>
+      <c r="L115" t="s">
+        <v>857</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="s">
+        <v>858</v>
+      </c>
+      <c r="O115" t="s">
+        <v>123</v>
+      </c>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="n">
+        <v>4</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>4</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>859</v>
+      </c>
+      <c r="X115" t="s">
+        <v>860</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>65522</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>862</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>863</v>
+      </c>
+      <c r="J116" t="s">
+        <v>864</v>
+      </c>
+      <c r="K116" t="s">
+        <v>865</v>
+      </c>
+      <c r="L116" t="s">
+        <v>866</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>858</v>
+      </c>
+      <c r="O116" t="s">
+        <v>62</v>
+      </c>
+      <c r="P116" t="s"/>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="s"/>
+      <c r="S116" t="s"/>
+      <c r="T116" t="s"/>
+      <c r="U116" t="s"/>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s">
+        <v>859</v>
+      </c>
+      <c r="X116" t="s">
+        <v>860</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>867</v>
       </c>
     </row>
   </sheetData>
